--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!!! P\HackerRank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D93D8B-E933-458A-BDC7-4255AD213CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03E8C37-19BC-4B89-BF97-E6C131C0EB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{563B05EF-DD51-4A62-BC76-EC4008070A9E}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{563B05EF-DD51-4A62-BC76-EC4008070A9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="33">
   <si>
     <t>Rank</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>335/400</t>
+  </si>
+  <si>
+    <t>1022.97/2200</t>
   </si>
 </sst>
 </file>
@@ -314,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -354,18 +357,15 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1610,8 +1610,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{88B4E98F-97A9-4EDC-8B31-161A71C9825F}" name="Table4" displayName="Table4" ref="M1:Q13" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="M1:Q13" xr:uid="{88B4E98F-97A9-4EDC-8B31-161A71C9825F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{88B4E98F-97A9-4EDC-8B31-161A71C9825F}" name="Table4" displayName="Table4" ref="M1:Q14" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="M1:Q14" xr:uid="{88B4E98F-97A9-4EDC-8B31-161A71C9825F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BE091DF3-A247-411E-A8A4-FC25837A1C40}" name="Category" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{896870A6-65B2-4C9F-BC27-FE09407AA800}" name="Date" dataDxfId="12"/>
@@ -1941,7 +1941,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1960,7 +1960,7 @@
     <col min="12" max="12" width="3.140625" customWidth="1"/>
     <col min="13" max="13" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.28515625" customWidth="1"/>
@@ -2386,13 +2386,13 @@
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="18">
         <v>45078</v>
       </c>
       <c r="I9" s="6">
         <v>835</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="6">
         <v>59304</v>
       </c>
       <c r="K9" s="26">
@@ -2535,19 +2535,19 @@
         <f>IF(ROW()&gt;2,($D$2-D13)/$D$2,"NA")</f>
         <v>0.69153929474064268</v>
       </c>
-      <c r="M13" s="33" t="s">
+      <c r="M13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N13" s="34">
+      <c r="N13" s="18">
         <v>45078</v>
       </c>
-      <c r="O13" s="35" t="s">
+      <c r="O13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="P13" s="35">
+      <c r="P13" s="17">
         <v>161372</v>
       </c>
-      <c r="Q13" s="36">
+      <c r="Q13" s="30">
         <f>IF(ROW()&gt;2,($P$2-P13)/$P$2,"NA")</f>
         <v>0.45574184061329043</v>
       </c>
@@ -2556,18 +2556,34 @@
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="18">
         <v>45078</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="6">
         <v>833.36</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="6">
         <v>2573</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="32">
         <f>IF(ROW()&gt;2,($D$2-D14)/$D$2,"NA")</f>
         <v>0.69033578047899868</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="35">
+        <v>45097</v>
+      </c>
+      <c r="O14" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="36">
+        <v>154109</v>
+      </c>
+      <c r="Q14" s="37">
+        <f>IF(ROW()&gt;2,($P$2-P14)/$P$2,"NA")</f>
+        <v>0.48023770737843974</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2699,16 +2715,16 @@
       <c r="A25" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="34">
+      <c r="B25" s="18">
         <v>45078</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="33">
         <v>270884</v>
       </c>
-      <c r="E25" s="40">
+      <c r="E25" s="34">
         <f>IF(ROW()&gt;21,($D$21-D25)/$D$21,"NA")</f>
         <v>0.22459015924177669</v>
       </c>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!!! P\HackerRank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03E8C37-19BC-4B89-BF97-E6C131C0EB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4736145B-BBDC-4C36-87C0-E12E065CB831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{563B05EF-DD51-4A62-BC76-EC4008070A9E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="34">
   <si>
     <t>Rank</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>1022.97/2200</t>
+  </si>
+  <si>
+    <t>1047.97/2200</t>
   </si>
 </sst>
 </file>
@@ -317,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -363,178 +366,16 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="48">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
       <fill>
@@ -713,6 +554,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -735,13 +583,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -764,6 +605,169 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
@@ -1610,14 +1614,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{88B4E98F-97A9-4EDC-8B31-161A71C9825F}" name="Table4" displayName="Table4" ref="M1:Q14" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="M1:Q14" xr:uid="{88B4E98F-97A9-4EDC-8B31-161A71C9825F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{88B4E98F-97A9-4EDC-8B31-161A71C9825F}" name="Table4" displayName="Table4" ref="M1:Q15" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="M1:Q15" xr:uid="{88B4E98F-97A9-4EDC-8B31-161A71C9825F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BE091DF3-A247-411E-A8A4-FC25837A1C40}" name="Category" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{896870A6-65B2-4C9F-BC27-FE09407AA800}" name="Date" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{B3DCAEB7-A097-417A-A17C-C167CBCEE017}" name="Points" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{49448C92-7227-4525-A6D9-537DA269CEAB}" name="Rank" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{BB4D44F6-EFCE-426A-BBA2-9BD28CCBA0A1}" name="Progress" dataDxfId="9" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{BE091DF3-A247-411E-A8A4-FC25837A1C40}" name="Category" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{896870A6-65B2-4C9F-BC27-FE09407AA800}" name="Date" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{B3DCAEB7-A097-417A-A17C-C167CBCEE017}" name="Points" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{49448C92-7227-4525-A6D9-537DA269CEAB}" name="Rank" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{BB4D44F6-EFCE-426A-BBA2-9BD28CCBA0A1}" name="Progress" dataDxfId="0" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(ROW()&gt;2,($P$2-P2)/$P$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1626,14 +1630,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A8FBF16F-9602-4202-AB58-16FE1DF7F5AD}" name="Table26" displayName="Table26" ref="G20:K22" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A8FBF16F-9602-4202-AB58-16FE1DF7F5AD}" name="Table26" displayName="Table26" ref="G20:K22" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="G20:K22" xr:uid="{A8FBF16F-9602-4202-AB58-16FE1DF7F5AD}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DEA67DFE-BD33-4A7D-88EC-37783E44C742}" name="Category" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{D717C99C-3CDD-413D-B6CD-459FB7881660}" name="Date" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{193273DC-45EC-4D05-8174-9E5104719437}" name="Points" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{64B2E8E3-106A-48D7-A940-95678CFC6FC0}" name="Rank" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{E508234A-ACA5-4E8C-9BB8-84DF8504A6A0}" name="Progress" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{DEA67DFE-BD33-4A7D-88EC-37783E44C742}" name="Category" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{D717C99C-3CDD-413D-B6CD-459FB7881660}" name="Date" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{193273DC-45EC-4D05-8174-9E5104719437}" name="Points" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{64B2E8E3-106A-48D7-A940-95678CFC6FC0}" name="Rank" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{E508234A-ACA5-4E8C-9BB8-84DF8504A6A0}" name="Progress" dataDxfId="10">
       <calculatedColumnFormula>IF(ROW()&gt;21,($J$21-J21)/$J$21,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1941,7 +1945,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,7 +1967,7 @@
     <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.28515625" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" customWidth="1"/>
     <col min="19" max="19" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -2572,18 +2576,36 @@
       <c r="M14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="35">
+      <c r="N14" s="12">
         <v>45097</v>
       </c>
-      <c r="O14" s="36" t="s">
+      <c r="O14" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="P14" s="36">
+      <c r="P14" s="22">
         <v>154109</v>
       </c>
-      <c r="Q14" s="37">
+      <c r="Q14" s="35">
         <f>IF(ROW()&gt;2,($P$2-P14)/$P$2,"NA")</f>
         <v>0.48023770737843974</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="36">
+        <v>45100</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="37">
+        <v>148226</v>
+      </c>
+      <c r="Q15" s="38">
+        <f>IF(ROW()&gt;2,($P$2-P15)/$P$2,"NA")</f>
+        <v>0.50007925827743094</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!!! P\HackerRank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4736145B-BBDC-4C36-87C0-E12E065CB831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BC05B0-42EE-4200-A8B6-966A4AD3026C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{563B05EF-DD51-4A62-BC76-EC4008070A9E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
   <si>
     <t>Rank</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>1047.97/2200</t>
+  </si>
+  <si>
+    <t>1067.97/2200</t>
   </si>
 </sst>
 </file>
@@ -377,6 +380,169 @@
   </cellStyles>
   <dxfs count="48">
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
       <fill>
         <patternFill patternType="none">
@@ -554,13 +720,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -583,6 +742,13 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -605,169 +771,6 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
@@ -1598,15 +1601,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A798FDC3-0474-4EFF-8607-E64BDF8377BE}" name="Table2" displayName="Table2" ref="A20:E25" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A20:E25" xr:uid="{A798FDC3-0474-4EFF-8607-E64BDF8377BE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A798FDC3-0474-4EFF-8607-E64BDF8377BE}" name="Table2" displayName="Table2" ref="A19:E24" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A19:E24" xr:uid="{A798FDC3-0474-4EFF-8607-E64BDF8377BE}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{45C32D9D-861B-48A2-874D-AF560AC3910C}" name="Category" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{702A487A-EDE1-4F82-A528-46FAF9731CEA}" name="Date" dataDxfId="22"/>
     <tableColumn id="3" xr3:uid="{5BC74451-D881-4986-A3B5-E713CAB52275}" name="Points" dataDxfId="21"/>
     <tableColumn id="4" xr3:uid="{82E504EA-6E2F-4892-B715-C0884912EBFA}" name="Rank" dataDxfId="20"/>
     <tableColumn id="5" xr3:uid="{644E65FD-C668-4DA1-8F12-28BB50394511}" name="Progress" dataDxfId="19" dataCellStyle="Percent">
-      <calculatedColumnFormula>IF(ROW()&gt;21,($D$21-D21)/$D$21,"NA")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ROW()&gt;21,($D$20-D20)/$D$20,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1614,14 +1617,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{88B4E98F-97A9-4EDC-8B31-161A71C9825F}" name="Table4" displayName="Table4" ref="M1:Q15" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
-  <autoFilter ref="M1:Q15" xr:uid="{88B4E98F-97A9-4EDC-8B31-161A71C9825F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{88B4E98F-97A9-4EDC-8B31-161A71C9825F}" name="Table4" displayName="Table4" ref="M1:Q16" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="M1:Q16" xr:uid="{88B4E98F-97A9-4EDC-8B31-161A71C9825F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BE091DF3-A247-411E-A8A4-FC25837A1C40}" name="Category" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{896870A6-65B2-4C9F-BC27-FE09407AA800}" name="Date" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{B3DCAEB7-A097-417A-A17C-C167CBCEE017}" name="Points" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{49448C92-7227-4525-A6D9-537DA269CEAB}" name="Rank" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{BB4D44F6-EFCE-426A-BBA2-9BD28CCBA0A1}" name="Progress" dataDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{BE091DF3-A247-411E-A8A4-FC25837A1C40}" name="Category" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{896870A6-65B2-4C9F-BC27-FE09407AA800}" name="Date" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{B3DCAEB7-A097-417A-A17C-C167CBCEE017}" name="Points" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{49448C92-7227-4525-A6D9-537DA269CEAB}" name="Rank" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{BB4D44F6-EFCE-426A-BBA2-9BD28CCBA0A1}" name="Progress" dataDxfId="9" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(ROW()&gt;2,($P$2-P2)/$P$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1630,15 +1633,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A8FBF16F-9602-4202-AB58-16FE1DF7F5AD}" name="Table26" displayName="Table26" ref="G20:K22" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="G20:K22" xr:uid="{A8FBF16F-9602-4202-AB58-16FE1DF7F5AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A8FBF16F-9602-4202-AB58-16FE1DF7F5AD}" name="Table26" displayName="Table26" ref="G19:K21" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="G19:K21" xr:uid="{A8FBF16F-9602-4202-AB58-16FE1DF7F5AD}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DEA67DFE-BD33-4A7D-88EC-37783E44C742}" name="Category" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{D717C99C-3CDD-413D-B6CD-459FB7881660}" name="Date" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{193273DC-45EC-4D05-8174-9E5104719437}" name="Points" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{64B2E8E3-106A-48D7-A940-95678CFC6FC0}" name="Rank" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{E508234A-ACA5-4E8C-9BB8-84DF8504A6A0}" name="Progress" dataDxfId="10">
-      <calculatedColumnFormula>IF(ROW()&gt;21,($J$21-J21)/$J$21,"NA")</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{DEA67DFE-BD33-4A7D-88EC-37783E44C742}" name="Category" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{D717C99C-3CDD-413D-B6CD-459FB7881660}" name="Date" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{193273DC-45EC-4D05-8174-9E5104719437}" name="Points" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{64B2E8E3-106A-48D7-A940-95678CFC6FC0}" name="Rank" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{E508234A-ACA5-4E8C-9BB8-84DF8504A6A0}" name="Progress" dataDxfId="0">
+      <calculatedColumnFormula>IF(ROW()&gt;21,($J$20-J20)/$J$20,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1942,10 +1945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512C3DD1-20B9-4BFD-B4FF-49B21E4B41AB}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2450,7 +2453,7 @@
         <v>183388</v>
       </c>
       <c r="Q10" s="30">
-        <f>IF(ROW()&gt;2,($P$2-P10)/$P$2,"NA")</f>
+        <f t="shared" ref="Q10:Q15" si="3">IF(ROW()&gt;2,($P$2-P10)/$P$2,"NA")</f>
         <v>0.38148863908478614</v>
       </c>
     </row>
@@ -2484,7 +2487,7 @@
         <v>176469</v>
       </c>
       <c r="Q11" s="30">
-        <f>IF(ROW()&gt;2,($P$2-P11)/$P$2,"NA")</f>
+        <f t="shared" si="3"/>
         <v>0.40482429957605254</v>
       </c>
     </row>
@@ -2518,7 +2521,7 @@
         <v>166029</v>
       </c>
       <c r="Q12" s="30">
-        <f>IF(ROW()&gt;2,($P$2-P12)/$P$2,"NA")</f>
+        <f t="shared" si="3"/>
         <v>0.44003521091133529</v>
       </c>
     </row>
@@ -2552,7 +2555,7 @@
         <v>161372</v>
       </c>
       <c r="Q13" s="30">
-        <f>IF(ROW()&gt;2,($P$2-P13)/$P$2,"NA")</f>
+        <f t="shared" si="3"/>
         <v>0.45574184061329043</v>
       </c>
     </row>
@@ -2586,7 +2589,7 @@
         <v>154109</v>
       </c>
       <c r="Q14" s="35">
-        <f>IF(ROW()&gt;2,($P$2-P14)/$P$2,"NA")</f>
+        <f t="shared" si="3"/>
         <v>0.48023770737843974</v>
       </c>
     </row>
@@ -2604,98 +2607,134 @@
         <v>148226</v>
       </c>
       <c r="Q15" s="38">
-        <f>IF(ROW()&gt;2,($P$2-P15)/$P$2,"NA")</f>
+        <f t="shared" si="3"/>
         <v>0.50007925827743094</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="36">
+        <v>45101</v>
+      </c>
+      <c r="O16" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" s="37">
+        <v>143690</v>
+      </c>
+      <c r="Q16" s="38">
+        <f>IF(ROW()&gt;2,($P$2-P16)/$P$2,"NA")</f>
+        <v>0.51537779216793311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="K20" s="21" t="s">
-        <v>25</v>
+      <c r="A20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="12">
+        <v>44965</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="25">
+        <v>349343</v>
+      </c>
+      <c r="E20" s="26" t="str">
+        <f t="shared" ref="E20:E23" si="4">IF(ROW()&gt;21,($D$20-D20)/$D$20,"NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="12">
+        <v>45043</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="10">
+        <v>228538</v>
+      </c>
+      <c r="K20" s="25" t="str">
+        <f t="shared" ref="K20" si="5">IF(ROW()&gt;21,($J$20-J20)/$J$20,"NA")</f>
+        <v>NA</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="12">
-        <v>44965</v>
+      <c r="B21" s="18">
+        <v>44602</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" s="25">
-        <v>349343</v>
+        <v>263128</v>
       </c>
       <c r="E21" s="26" t="str">
-        <f t="shared" ref="E21:E24" si="3">IF(ROW()&gt;21,($D$21-D21)/$D$21,"NA")</f>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="12">
-        <v>45043</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="10">
-        <v>228538</v>
-      </c>
-      <c r="K21" s="25" t="str">
-        <f t="shared" ref="K21" si="4">IF(ROW()&gt;21,($J$21-J21)/$J$21,"NA")</f>
-        <v>NA</v>
-      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="18">
-        <v>44602</v>
+        <v>45043</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="25">
-        <v>263128</v>
+        <v>277198</v>
       </c>
       <c r="E22" s="26">
-        <f t="shared" si="3"/>
-        <v>0.24679183495876544</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="24"/>
+        <f t="shared" si="4"/>
+        <v>0.20651623189816312</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
@@ -2705,14 +2744,14 @@
         <v>45043</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D23" s="25">
-        <v>277198</v>
+        <v>270701</v>
       </c>
       <c r="E23" s="26">
-        <f t="shared" si="3"/>
-        <v>0.20651623189816312</v>
+        <f t="shared" si="4"/>
+        <v>0.22511399970802334</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2720,34 +2759,16 @@
         <v>11</v>
       </c>
       <c r="B24" s="18">
-        <v>45043</v>
+        <v>45078</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="25">
-        <v>270701</v>
-      </c>
-      <c r="E24" s="26">
-        <f t="shared" si="3"/>
-        <v>0.22511399970802334</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="18">
-        <v>45078</v>
-      </c>
-      <c r="C25" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D24" s="33">
         <v>270884</v>
       </c>
-      <c r="E25" s="34">
-        <f>IF(ROW()&gt;21,($D$21-D25)/$D$21,"NA")</f>
+      <c r="E24" s="34">
+        <f>IF(ROW()&gt;21,($D$20-D24)/$D$20,"NA")</f>
         <v>0.22459015924177669</v>
       </c>
     </row>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP13INT\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BC05B0-42EE-4200-A8B6-966A4AD3026C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{563B05EF-DD51-4A62-BC76-EC4008070A9E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="36">
   <si>
     <t>Rank</t>
   </si>
@@ -139,16 +138,19 @@
   </si>
   <si>
     <t>1067.97/2200</t>
+  </si>
+  <si>
+    <t>1112.97/2200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +184,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -323,7 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -373,6 +380,9 @@
     <xf numFmtId="15" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,7 +526,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -639,7 +648,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
@@ -684,7 +692,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -764,7 +771,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -958,7 +964,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -995,7 +1000,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -1030,7 +1034,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1065,7 +1068,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1106,7 +1108,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1147,7 +1148,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1209,7 +1209,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1240,7 +1239,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1276,7 +1274,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -1316,7 +1313,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1355,7 +1351,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1394,7 +1389,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
@@ -1434,7 +1428,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1496,7 +1489,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1526,7 +1518,6 @@
         <sz val="11"/>
         <color theme="0"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1566,17 +1557,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA745B23-DDD0-4FB9-BF17-FC1AA731EBCC}" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+  <sortState ref="A2:D5">
     <sortCondition ref="A2:A5"/>
     <sortCondition ref="B2:B5"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{69D11C20-15DE-432D-B568-8EF10C5425CA}" name="Category" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{476D9CB7-54AF-427B-917B-F7024AE9A5AF}" name="Date" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{FBCBDB78-531E-45AD-8335-FAB0F96ED2DD}" name="Points" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{4EA813D7-3C61-4025-9157-C0DCF813657E}" name="Rank" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{6E1B4726-AD48-40AF-BDF5-950C639423AD}" name="Progress" dataDxfId="38" dataCellStyle="Percent">
+    <tableColumn id="1" name="Category" dataDxfId="42"/>
+    <tableColumn id="2" name="Date" dataDxfId="41"/>
+    <tableColumn id="3" name="Points" dataDxfId="40"/>
+    <tableColumn id="4" name="Rank" dataDxfId="39"/>
+    <tableColumn id="5" name="Progress" dataDxfId="38" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(ROW()&gt;2,($D$2-D2)/$D$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1585,14 +1576,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D822280A-9D5A-40E8-BF8F-2DD8493CE395}" name="Table3" displayName="Table3" ref="G1:K9" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
-  <autoFilter ref="G1:K9" xr:uid="{D822280A-9D5A-40E8-BF8F-2DD8493CE395}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="G1:K9" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+  <autoFilter ref="G1:K9"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F22757BC-96EA-4E40-A712-011C9BB1A974}" name="Category" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{D1232A01-B930-4C80-87E8-C6FD02CF7C2A}" name="Date" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{AFBE4D80-9BC3-4276-95FC-E9A6C10EDBC2}" name="Points" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{C9DAC9DE-0C9D-4BDA-83AA-7E52F8A6464F}" name="Rank" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{BEB630EF-67D3-41DF-9A5D-8AEB5EE5299A}" name="Progress" dataDxfId="28">
+    <tableColumn id="1" name="Category" dataDxfId="32"/>
+    <tableColumn id="2" name="Date" dataDxfId="31"/>
+    <tableColumn id="3" name="Points" dataDxfId="30"/>
+    <tableColumn id="4" name="Rank" dataDxfId="29"/>
+    <tableColumn id="5" name="Progress" dataDxfId="28">
       <calculatedColumnFormula>IF(ROW()&gt;2,($J$2-J2)/$J$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1601,14 +1592,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A798FDC3-0474-4EFF-8607-E64BDF8377BE}" name="Table2" displayName="Table2" ref="A19:E24" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A19:E24" xr:uid="{A798FDC3-0474-4EFF-8607-E64BDF8377BE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A19:E24" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A19:E24"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{45C32D9D-861B-48A2-874D-AF560AC3910C}" name="Category" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{702A487A-EDE1-4F82-A528-46FAF9731CEA}" name="Date" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{5BC74451-D881-4986-A3B5-E713CAB52275}" name="Points" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{82E504EA-6E2F-4892-B715-C0884912EBFA}" name="Rank" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{644E65FD-C668-4DA1-8F12-28BB50394511}" name="Progress" dataDxfId="19" dataCellStyle="Percent">
+    <tableColumn id="1" name="Category" dataDxfId="23"/>
+    <tableColumn id="2" name="Date" dataDxfId="22"/>
+    <tableColumn id="3" name="Points" dataDxfId="21"/>
+    <tableColumn id="4" name="Rank" dataDxfId="20"/>
+    <tableColumn id="5" name="Progress" dataDxfId="19" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(ROW()&gt;21,($D$20-D20)/$D$20,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1617,14 +1608,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{88B4E98F-97A9-4EDC-8B31-161A71C9825F}" name="Table4" displayName="Table4" ref="M1:Q16" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="M1:Q16" xr:uid="{88B4E98F-97A9-4EDC-8B31-161A71C9825F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="M1:Q17" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="M1:Q17"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BE091DF3-A247-411E-A8A4-FC25837A1C40}" name="Category" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{896870A6-65B2-4C9F-BC27-FE09407AA800}" name="Date" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{B3DCAEB7-A097-417A-A17C-C167CBCEE017}" name="Points" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{49448C92-7227-4525-A6D9-537DA269CEAB}" name="Rank" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{BB4D44F6-EFCE-426A-BBA2-9BD28CCBA0A1}" name="Progress" dataDxfId="9" dataCellStyle="Percent">
+    <tableColumn id="1" name="Category" dataDxfId="13"/>
+    <tableColumn id="2" name="Date" dataDxfId="12"/>
+    <tableColumn id="3" name="Points" dataDxfId="11"/>
+    <tableColumn id="4" name="Rank" dataDxfId="10"/>
+    <tableColumn id="5" name="Progress" dataDxfId="9" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(ROW()&gt;2,($P$2-P2)/$P$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1633,14 +1624,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A8FBF16F-9602-4202-AB58-16FE1DF7F5AD}" name="Table26" displayName="Table26" ref="G19:K21" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="G19:K21" xr:uid="{A8FBF16F-9602-4202-AB58-16FE1DF7F5AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table26" displayName="Table26" ref="G19:K21" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="G19:K21"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DEA67DFE-BD33-4A7D-88EC-37783E44C742}" name="Category" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{D717C99C-3CDD-413D-B6CD-459FB7881660}" name="Date" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{193273DC-45EC-4D05-8174-9E5104719437}" name="Points" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{64B2E8E3-106A-48D7-A940-95678CFC6FC0}" name="Rank" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{E508234A-ACA5-4E8C-9BB8-84DF8504A6A0}" name="Progress" dataDxfId="0">
+    <tableColumn id="1" name="Category" dataDxfId="4"/>
+    <tableColumn id="2" name="Date" dataDxfId="3"/>
+    <tableColumn id="3" name="Points" dataDxfId="2"/>
+    <tableColumn id="4" name="Rank" dataDxfId="1"/>
+    <tableColumn id="5" name="Progress" dataDxfId="0">
       <calculatedColumnFormula>IF(ROW()&gt;21,($J$20-J20)/$J$20,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1944,14 +1935,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512C3DD1-20B9-4BFD-B4FF-49B21E4B41AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
@@ -1976,7 +1967,7 @@
     <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2023,7 +2014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -2073,7 +2064,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -2123,7 +2114,7 @@
         <v>1.6708319420976125E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -2173,7 +2164,7 @@
         <v>7.7929436524237852E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -2223,7 +2214,7 @@
         <v>0.10570018785898097</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -2273,7 +2264,7 @@
         <v>0.11917746771489954</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -2323,7 +2314,7 @@
         <v>0.13812862775253879</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -2373,7 +2364,7 @@
         <v>0.1503445205548754</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -2423,7 +2414,7 @@
         <v>0.31823716100222937</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
@@ -2457,7 +2448,7 @@
         <v>0.38148863908478614</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
@@ -2491,7 +2482,7 @@
         <v>0.40482429957605254</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -2525,7 +2516,7 @@
         <v>0.44003521091133529</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
@@ -2559,7 +2550,7 @@
         <v>0.45574184061329043</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -2593,7 +2584,7 @@
         <v>0.48023770737843974</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="M15" s="11" t="s">
         <v>14</v>
       </c>
@@ -2611,7 +2602,7 @@
         <v>0.50007925827743094</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="M16" s="11" t="s">
         <v>14</v>
       </c>
@@ -2629,7 +2620,25 @@
         <v>0.51537779216793311</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
+      <c r="M17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" s="39">
+        <v>45102</v>
+      </c>
+      <c r="O17" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="P17" s="40">
+        <v>134464</v>
+      </c>
+      <c r="Q17" s="41">
+        <f>IF(ROW()&gt;2,($P$2-P17)/$P$2,"NA")</f>
+        <v>0.54649425461805945</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="15" t="s">
         <v>3</v>
       </c>
@@ -2661,7 +2670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" s="11" t="s">
         <v>11</v>
       </c>
@@ -2695,7 +2704,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" s="11" t="s">
         <v>11</v>
       </c>
@@ -2718,7 +2727,7 @@
       <c r="J21" s="10"/>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" s="11" t="s">
         <v>11</v>
       </c>
@@ -2736,7 +2745,7 @@
         <v>0.20651623189816312</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" s="11" t="s">
         <v>11</v>
       </c>
@@ -2754,7 +2763,7 @@
         <v>0.22511399970802334</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="11" t="s">
         <v>11</v>
       </c>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP13INT\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD75473-95AB-41BF-ACBA-FE5A6D8B5CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8910"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="29">
   <si>
     <t>Rank</t>
   </si>
@@ -80,15 +83,9 @@
     <t>Problem Solving(Algorithms &amp; Data Structures)</t>
   </si>
   <si>
-    <t>639.97/850</t>
-  </si>
-  <si>
     <t>649.97/850</t>
   </si>
   <si>
-    <t>689.97/850</t>
-  </si>
-  <si>
     <t>C++</t>
   </si>
   <si>
@@ -98,15 +95,6 @@
     <t>325/400</t>
   </si>
   <si>
-    <t>709.97/850</t>
-  </si>
-  <si>
-    <t>719.97/850</t>
-  </si>
-  <si>
-    <t>734.97/850</t>
-  </si>
-  <si>
     <t>744.97/850</t>
   </si>
   <si>
@@ -116,12 +104,6 @@
     <t>874.97/2200</t>
   </si>
   <si>
-    <t>917.97/2200</t>
-  </si>
-  <si>
-    <t>937.97/2200</t>
-  </si>
-  <si>
     <t>972.97/2200</t>
   </si>
   <si>
@@ -140,17 +122,17 @@
     <t>1067.97/2200</t>
   </si>
   <si>
-    <t>1112.97/2200</t>
+    <t>1132.97/2200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,11 +166,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -330,7 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -376,13 +353,14 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1557,17 +1535,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
-  <sortState ref="A2:D5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D5">
     <sortCondition ref="A2:A5"/>
     <sortCondition ref="B2:B5"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="Category" dataDxfId="42"/>
-    <tableColumn id="2" name="Date" dataDxfId="41"/>
-    <tableColumn id="3" name="Points" dataDxfId="40"/>
-    <tableColumn id="4" name="Rank" dataDxfId="39"/>
-    <tableColumn id="5" name="Progress" dataDxfId="38" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Points" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Rank" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Progress" dataDxfId="38" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(ROW()&gt;2,($D$2-D2)/$D$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1576,14 +1554,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="G1:K9" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
-  <autoFilter ref="G1:K9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="G1:K9" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+  <autoFilter ref="G1:K9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Category" dataDxfId="32"/>
-    <tableColumn id="2" name="Date" dataDxfId="31"/>
-    <tableColumn id="3" name="Points" dataDxfId="30"/>
-    <tableColumn id="4" name="Rank" dataDxfId="29"/>
-    <tableColumn id="5" name="Progress" dataDxfId="28">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Points" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Rank" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Progress" dataDxfId="28">
       <calculatedColumnFormula>IF(ROW()&gt;2,($J$2-J2)/$J$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1592,14 +1570,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A19:E24" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A19:E24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A19:E24" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A19:E24" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Category" dataDxfId="23"/>
-    <tableColumn id="2" name="Date" dataDxfId="22"/>
-    <tableColumn id="3" name="Points" dataDxfId="21"/>
-    <tableColumn id="4" name="Rank" dataDxfId="20"/>
-    <tableColumn id="5" name="Progress" dataDxfId="19" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Date" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Points" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Rank" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Progress" dataDxfId="19" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(ROW()&gt;21,($D$20-D20)/$D$20,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1608,14 +1586,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="M1:Q17" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="M1:Q17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="M1:Q17" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="M1:Q17" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Category" dataDxfId="13"/>
-    <tableColumn id="2" name="Date" dataDxfId="12"/>
-    <tableColumn id="3" name="Points" dataDxfId="11"/>
-    <tableColumn id="4" name="Rank" dataDxfId="10"/>
-    <tableColumn id="5" name="Progress" dataDxfId="9" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Date" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Points" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Rank" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Progress" dataDxfId="9" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(ROW()&gt;2,($P$2-P2)/$P$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1624,14 +1602,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table26" displayName="Table26" ref="G19:K21" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="G19:K21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table26" displayName="Table26" ref="G19:K21" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="G19:K21" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Category" dataDxfId="4"/>
-    <tableColumn id="2" name="Date" dataDxfId="3"/>
-    <tableColumn id="3" name="Points" dataDxfId="2"/>
-    <tableColumn id="4" name="Rank" dataDxfId="1"/>
-    <tableColumn id="5" name="Progress" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Category" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Date" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Points" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Rank" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Progress" dataDxfId="0">
       <calculatedColumnFormula>IF(ROW()&gt;21,($J$20-J20)/$J$20,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1935,14 +1913,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
@@ -1967,7 +1945,7 @@
     <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1981,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>3</v>
@@ -1996,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M1" s="19" t="s">
         <v>3</v>
@@ -2011,10 +1989,10 @@
         <v>0</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -2057,14 +2035,14 @@
         <v>15</v>
       </c>
       <c r="P2" s="22">
-        <v>296499</v>
+        <v>291545</v>
       </c>
       <c r="Q2" s="26" t="str">
         <f t="shared" ref="Q2:Q9" si="1">IF(ROW()&gt;2,($P$2-P2)/$P$2,"NA")</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -2101,20 +2079,20 @@
         <v>14</v>
       </c>
       <c r="N3" s="12">
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P3" s="22">
-        <v>291545</v>
+        <v>251922</v>
       </c>
       <c r="Q3" s="26">
-        <f t="shared" si="1"/>
-        <v>1.6708319420976125E-2</v>
+        <f>IF(ROW()&gt;2,($P$2-P3)/$P$2,"NA")</f>
+        <v>0.13590697833953591</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -2147,24 +2125,24 @@
         <f t="shared" si="2"/>
         <v>0.53405545481907812</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="12">
-        <v>45043</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="22">
-        <v>273393</v>
-      </c>
-      <c r="Q4" s="26">
-        <f t="shared" si="1"/>
-        <v>7.7929436524237852E-2</v>
+      <c r="N4" s="18">
+        <v>45048</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="17">
+        <v>202142</v>
+      </c>
+      <c r="Q4" s="29">
+        <f>IF(ROW()&gt;2,($P$2-P4)/$P$2,"NA")</f>
+        <v>0.30665248932411804</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -2197,24 +2175,24 @@
         <f t="shared" si="2"/>
         <v>0.69729259501244323</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="12">
-        <v>45043</v>
-      </c>
-      <c r="O5" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="22">
-        <v>265159</v>
-      </c>
-      <c r="Q5" s="26">
-        <f t="shared" si="1"/>
-        <v>0.10570018785898097</v>
+      <c r="N5" s="18">
+        <v>45055</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="17">
+        <v>166029</v>
+      </c>
+      <c r="Q5" s="30">
+        <f>IF(ROW()&gt;2,($P$2-P5)/$P$2,"NA")</f>
+        <v>0.43052015983810388</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -2247,24 +2225,24 @@
         <f t="shared" si="2"/>
         <v>0.76775633355111994</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="M6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="12">
-        <v>45043</v>
-      </c>
-      <c r="O6" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="22">
-        <v>261163</v>
-      </c>
-      <c r="Q6" s="26">
-        <f t="shared" si="1"/>
-        <v>0.11917746771489954</v>
+      <c r="N6" s="18">
+        <v>45078</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="17">
+        <v>161372</v>
+      </c>
+      <c r="Q6" s="30">
+        <f>IF(ROW()&gt;2,($P$2-P6)/$P$2,"NA")</f>
+        <v>0.44649368022089214</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -2297,24 +2275,24 @@
         <f t="shared" si="2"/>
         <v>0.751895844192073</v>
       </c>
-      <c r="M7" s="28" t="s">
+      <c r="M7" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="12">
-        <v>45043</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="22">
-        <v>255544</v>
-      </c>
-      <c r="Q7" s="26">
-        <f t="shared" si="1"/>
-        <v>0.13812862775253879</v>
+      <c r="N7" s="42">
+        <v>45097</v>
+      </c>
+      <c r="O7" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="38">
+        <v>154109</v>
+      </c>
+      <c r="Q7" s="39">
+        <f>IF(ROW()&gt;2,($P$2-P7)/$P$2,"NA")</f>
+        <v>0.47140578641376119</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -2347,24 +2325,24 @@
         <f t="shared" si="2"/>
         <v>0.78548880846284297</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="M8" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="12">
-        <v>45043</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="22">
-        <v>251922</v>
-      </c>
-      <c r="Q8" s="26">
-        <f t="shared" si="1"/>
-        <v>0.1503445205548754</v>
+      <c r="N8" s="42">
+        <v>45100</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="38">
+        <v>148226</v>
+      </c>
+      <c r="Q8" s="39">
+        <f>IF(ROW()&gt;2,($P$2-P8)/$P$2,"NA")</f>
+        <v>0.49158448952991818</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -2397,24 +2375,24 @@
         <f t="shared" si="2"/>
         <v>0.78232111526292225</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="18">
-        <v>45048</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" s="17">
-        <v>202142</v>
-      </c>
-      <c r="Q9" s="29">
-        <f t="shared" si="1"/>
-        <v>0.31823716100222937</v>
+      <c r="N9" s="42">
+        <v>45101</v>
+      </c>
+      <c r="O9" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="38">
+        <v>143690</v>
+      </c>
+      <c r="Q9" s="39">
+        <f>IF(ROW()&gt;2,($P$2-P9)/$P$2,"NA")</f>
+        <v>0.50714297964293675</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
@@ -2431,24 +2409,24 @@
         <f t="shared" si="0"/>
         <v>0.66313635816584426</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="18">
-        <v>45055</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="17">
-        <v>183388</v>
-      </c>
-      <c r="Q10" s="30">
-        <f t="shared" ref="Q10:Q15" si="3">IF(ROW()&gt;2,($P$2-P10)/$P$2,"NA")</f>
-        <v>0.38148863908478614</v>
+      <c r="N10" s="42">
+        <v>45102</v>
+      </c>
+      <c r="O10" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="38">
+        <v>130710</v>
+      </c>
+      <c r="Q10" s="39">
+        <f>IF(ROW()&gt;2,($P$2-P10)/$P$2,"NA")</f>
+        <v>0.55166440858186561</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
@@ -2465,24 +2443,13 @@
         <f t="shared" si="0"/>
         <v>0.67360693224214707</v>
       </c>
-      <c r="M11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" s="18">
-        <v>45055</v>
-      </c>
-      <c r="O11" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="P11" s="17">
-        <v>176469</v>
-      </c>
-      <c r="Q11" s="30">
-        <f t="shared" si="3"/>
-        <v>0.40482429957605254</v>
-      </c>
+      <c r="M11" s="40"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="39"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -2499,24 +2466,13 @@
         <f>IF(ROW()&gt;2,($D$2-D12)/$D$2,"NA")</f>
         <v>0.67240341798050307</v>
       </c>
-      <c r="M12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N12" s="18">
-        <v>45055</v>
-      </c>
-      <c r="O12" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" s="17">
-        <v>166029</v>
-      </c>
-      <c r="Q12" s="30">
-        <f t="shared" si="3"/>
-        <v>0.44003521091133529</v>
-      </c>
+      <c r="M12" s="40"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="39"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
@@ -2533,24 +2489,13 @@
         <f>IF(ROW()&gt;2,($D$2-D13)/$D$2,"NA")</f>
         <v>0.69153929474064268</v>
       </c>
-      <c r="M13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N13" s="18">
-        <v>45078</v>
-      </c>
-      <c r="O13" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" s="17">
-        <v>161372</v>
-      </c>
-      <c r="Q13" s="30">
-        <f t="shared" si="3"/>
-        <v>0.45574184061329043</v>
-      </c>
+      <c r="M13" s="40"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="39"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -2567,78 +2512,34 @@
         <f>IF(ROW()&gt;2,($D$2-D14)/$D$2,"NA")</f>
         <v>0.69033578047899868</v>
       </c>
-      <c r="M14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N14" s="12">
-        <v>45097</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="22">
-        <v>154109</v>
-      </c>
-      <c r="Q14" s="35">
-        <f t="shared" si="3"/>
-        <v>0.48023770737843974</v>
-      </c>
+      <c r="M14" s="40"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="39"/>
     </row>
-    <row r="15" spans="1:17">
-      <c r="M15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N15" s="36">
-        <v>45100</v>
-      </c>
-      <c r="O15" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="P15" s="37">
-        <v>148226</v>
-      </c>
-      <c r="Q15" s="38">
-        <f t="shared" si="3"/>
-        <v>0.50007925827743094</v>
-      </c>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M15" s="40"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="39"/>
     </row>
-    <row r="16" spans="1:17">
-      <c r="M16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N16" s="36">
-        <v>45101</v>
-      </c>
-      <c r="O16" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="P16" s="37">
-        <v>143690</v>
-      </c>
-      <c r="Q16" s="38">
-        <f>IF(ROW()&gt;2,($P$2-P16)/$P$2,"NA")</f>
-        <v>0.51537779216793311</v>
-      </c>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M16" s="40"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="39"/>
     </row>
-    <row r="17" spans="1:17">
-      <c r="M17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N17" s="39">
-        <v>45102</v>
-      </c>
-      <c r="O17" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="P17" s="40">
-        <v>134464</v>
-      </c>
-      <c r="Q17" s="41">
-        <f>IF(ROW()&gt;2,($P$2-P17)/$P$2,"NA")</f>
-        <v>0.54649425461805945</v>
-      </c>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M17" s="41"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="37"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>3</v>
       </c>
@@ -2652,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>3</v>
@@ -2667,10 +2568,10 @@
         <v>0</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>11</v>
       </c>
@@ -2684,27 +2585,27 @@
         <v>349343</v>
       </c>
       <c r="E20" s="26" t="str">
-        <f t="shared" ref="E20:E23" si="4">IF(ROW()&gt;21,($D$20-D20)/$D$20,"NA")</f>
+        <f t="shared" ref="E20:E23" si="3">IF(ROW()&gt;21,($D$20-D20)/$D$20,"NA")</f>
         <v>NA</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H20" s="12">
         <v>45043</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J20" s="10">
         <v>228538</v>
       </c>
       <c r="K20" s="25" t="str">
-        <f t="shared" ref="K20" si="5">IF(ROW()&gt;21,($J$20-J20)/$J$20,"NA")</f>
+        <f t="shared" ref="K20" si="4">IF(ROW()&gt;21,($J$20-J20)/$J$20,"NA")</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>11</v>
       </c>
@@ -2718,7 +2619,7 @@
         <v>263128</v>
       </c>
       <c r="E21" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="G21" s="11"/>
@@ -2727,7 +2628,7 @@
       <c r="J21" s="10"/>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>11</v>
       </c>
@@ -2741,11 +2642,11 @@
         <v>277198</v>
       </c>
       <c r="E22" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.20651623189816312</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>11</v>
       </c>
@@ -2753,17 +2654,17 @@
         <v>45043</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D23" s="25">
         <v>270701</v>
       </c>
       <c r="E23" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.22511399970802334</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>11</v>
       </c>
@@ -2771,7 +2672,7 @@
         <v>45078</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D24" s="33">
         <v>270884</v>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD75473-95AB-41BF-ACBA-FE5A6D8B5CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CDB838-633B-4497-AAAF-1F40C1DB7B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
   <si>
     <t>Rank</t>
   </si>
@@ -307,7 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -361,6 +361,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1535,7 +1538,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D5">
     <sortCondition ref="A2:A5"/>
     <sortCondition ref="B2:B5"/>
@@ -1917,7 +1920,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2038,7 +2041,7 @@
         <v>291545</v>
       </c>
       <c r="Q2" s="26" t="str">
-        <f t="shared" ref="Q2:Q9" si="1">IF(ROW()&gt;2,($P$2-P2)/$P$2,"NA")</f>
+        <f t="shared" ref="Q2" si="1">IF(ROW()&gt;2,($P$2-P2)/$P$2,"NA")</f>
         <v>NA</v>
       </c>
     </row>
@@ -2088,7 +2091,7 @@
         <v>251922</v>
       </c>
       <c r="Q3" s="26">
-        <f>IF(ROW()&gt;2,($P$2-P3)/$P$2,"NA")</f>
+        <f t="shared" ref="Q3:Q10" si="3">IF(ROW()&gt;2,($P$2-P3)/$P$2,"NA")</f>
         <v>0.13590697833953591</v>
       </c>
     </row>
@@ -2138,7 +2141,7 @@
         <v>202142</v>
       </c>
       <c r="Q4" s="29">
-        <f>IF(ROW()&gt;2,($P$2-P4)/$P$2,"NA")</f>
+        <f t="shared" si="3"/>
         <v>0.30665248932411804</v>
       </c>
     </row>
@@ -2188,7 +2191,7 @@
         <v>166029</v>
       </c>
       <c r="Q5" s="30">
-        <f>IF(ROW()&gt;2,($P$2-P5)/$P$2,"NA")</f>
+        <f t="shared" si="3"/>
         <v>0.43052015983810388</v>
       </c>
     </row>
@@ -2238,7 +2241,7 @@
         <v>161372</v>
       </c>
       <c r="Q6" s="30">
-        <f>IF(ROW()&gt;2,($P$2-P6)/$P$2,"NA")</f>
+        <f t="shared" si="3"/>
         <v>0.44649368022089214</v>
       </c>
     </row>
@@ -2288,7 +2291,7 @@
         <v>154109</v>
       </c>
       <c r="Q7" s="39">
-        <f>IF(ROW()&gt;2,($P$2-P7)/$P$2,"NA")</f>
+        <f t="shared" si="3"/>
         <v>0.47140578641376119</v>
       </c>
     </row>
@@ -2338,7 +2341,7 @@
         <v>148226</v>
       </c>
       <c r="Q8" s="39">
-        <f>IF(ROW()&gt;2,($P$2-P8)/$P$2,"NA")</f>
+        <f t="shared" si="3"/>
         <v>0.49158448952991818</v>
       </c>
     </row>
@@ -2388,7 +2391,7 @@
         <v>143690</v>
       </c>
       <c r="Q9" s="39">
-        <f>IF(ROW()&gt;2,($P$2-P9)/$P$2,"NA")</f>
+        <f t="shared" si="3"/>
         <v>0.50714297964293675</v>
       </c>
     </row>
@@ -2422,7 +2425,7 @@
         <v>130710</v>
       </c>
       <c r="Q10" s="39">
-        <f>IF(ROW()&gt;2,($P$2-P10)/$P$2,"NA")</f>
+        <f t="shared" si="3"/>
         <v>0.55166440858186561</v>
       </c>
     </row>
@@ -2519,6 +2522,22 @@
       <c r="Q14" s="39"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="44">
+        <v>45110</v>
+      </c>
+      <c r="C15" s="43">
+        <v>849.36</v>
+      </c>
+      <c r="D15" s="43">
+        <v>2524</v>
+      </c>
+      <c r="E15" s="45">
+        <f>IF(ROW()&gt;2,($D$2-D15)/$D$2,"NA")</f>
+        <v>0.69623300036105429</v>
+      </c>
       <c r="M15" s="40"/>
       <c r="N15" s="42"/>
       <c r="O15" s="38"/>
@@ -2585,7 +2604,7 @@
         <v>349343</v>
       </c>
       <c r="E20" s="26" t="str">
-        <f t="shared" ref="E20:E23" si="3">IF(ROW()&gt;21,($D$20-D20)/$D$20,"NA")</f>
+        <f t="shared" ref="E20:E23" si="4">IF(ROW()&gt;21,($D$20-D20)/$D$20,"NA")</f>
         <v>NA</v>
       </c>
       <c r="G20" s="11" t="s">
@@ -2601,7 +2620,7 @@
         <v>228538</v>
       </c>
       <c r="K20" s="25" t="str">
-        <f t="shared" ref="K20" si="4">IF(ROW()&gt;21,($J$20-J20)/$J$20,"NA")</f>
+        <f t="shared" ref="K20" si="5">IF(ROW()&gt;21,($J$20-J20)/$J$20,"NA")</f>
         <v>NA</v>
       </c>
     </row>
@@ -2619,7 +2638,7 @@
         <v>263128</v>
       </c>
       <c r="E21" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="G21" s="11"/>
@@ -2642,7 +2661,7 @@
         <v>277198</v>
       </c>
       <c r="E22" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.20651623189816312</v>
       </c>
     </row>
@@ -2660,7 +2679,7 @@
         <v>270701</v>
       </c>
       <c r="E23" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.22511399970802334</v>
       </c>
     </row>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!!! P\HackerRank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CDB838-633B-4497-AAAF-1F40C1DB7B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12AB7EC2-9922-4CA3-9C1A-BAF424A7B23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
   <si>
     <t>Rank</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>1132.97/2200</t>
+  </si>
+  <si>
+    <t>1152.97/2200</t>
   </si>
 </sst>
 </file>
@@ -307,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -353,17 +356,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1920,7 +1913,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2091,7 +2084,7 @@
         <v>251922</v>
       </c>
       <c r="Q3" s="26">
-        <f t="shared" ref="Q3:Q10" si="3">IF(ROW()&gt;2,($P$2-P3)/$P$2,"NA")</f>
+        <f t="shared" ref="Q3:Q11" si="3">IF(ROW()&gt;2,($P$2-P3)/$P$2,"NA")</f>
         <v>0.13590697833953591</v>
       </c>
     </row>
@@ -2278,19 +2271,19 @@
         <f t="shared" si="2"/>
         <v>0.751895844192073</v>
       </c>
-      <c r="M7" s="40" t="s">
+      <c r="M7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="42">
+      <c r="N7" s="12">
         <v>45097</v>
       </c>
-      <c r="O7" s="38" t="s">
+      <c r="O7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="38">
+      <c r="P7" s="22">
         <v>154109</v>
       </c>
-      <c r="Q7" s="39">
+      <c r="Q7" s="35">
         <f t="shared" si="3"/>
         <v>0.47140578641376119</v>
       </c>
@@ -2328,19 +2321,19 @@
         <f t="shared" si="2"/>
         <v>0.78548880846284297</v>
       </c>
-      <c r="M8" s="40" t="s">
+      <c r="M8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="42">
+      <c r="N8" s="12">
         <v>45100</v>
       </c>
-      <c r="O8" s="38" t="s">
+      <c r="O8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="38">
+      <c r="P8" s="22">
         <v>148226</v>
       </c>
-      <c r="Q8" s="39">
+      <c r="Q8" s="35">
         <f t="shared" si="3"/>
         <v>0.49158448952991818</v>
       </c>
@@ -2378,19 +2371,19 @@
         <f t="shared" si="2"/>
         <v>0.78232111526292225</v>
       </c>
-      <c r="M9" s="40" t="s">
+      <c r="M9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="42">
+      <c r="N9" s="12">
         <v>45101</v>
       </c>
-      <c r="O9" s="38" t="s">
+      <c r="O9" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="38">
+      <c r="P9" s="22">
         <v>143690</v>
       </c>
-      <c r="Q9" s="39">
+      <c r="Q9" s="35">
         <f t="shared" si="3"/>
         <v>0.50714297964293675</v>
       </c>
@@ -2412,19 +2405,19 @@
         <f t="shared" si="0"/>
         <v>0.66313635816584426</v>
       </c>
-      <c r="M10" s="40" t="s">
+      <c r="M10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="42">
+      <c r="N10" s="12">
         <v>45102</v>
       </c>
-      <c r="O10" s="38" t="s">
+      <c r="O10" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="P10" s="38">
+      <c r="P10" s="22">
         <v>130710</v>
       </c>
-      <c r="Q10" s="39">
+      <c r="Q10" s="35">
         <f t="shared" si="3"/>
         <v>0.55166440858186561</v>
       </c>
@@ -2446,11 +2439,22 @@
         <f t="shared" si="0"/>
         <v>0.67360693224214707</v>
       </c>
-      <c r="M11" s="40"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="39"/>
+      <c r="M11" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="12">
+        <v>45118</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="22">
+        <v>127534</v>
+      </c>
+      <c r="Q11" s="35">
+        <f t="shared" si="3"/>
+        <v>0.56255809566276216</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -2469,11 +2473,11 @@
         <f>IF(ROW()&gt;2,($D$2-D12)/$D$2,"NA")</f>
         <v>0.67240341798050307</v>
       </c>
-      <c r="M12" s="40"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="39"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="35"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -2492,11 +2496,11 @@
         <f>IF(ROW()&gt;2,($D$2-D13)/$D$2,"NA")</f>
         <v>0.69153929474064268</v>
       </c>
-      <c r="M13" s="40"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="39"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="35"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
@@ -2515,48 +2519,48 @@
         <f>IF(ROW()&gt;2,($D$2-D14)/$D$2,"NA")</f>
         <v>0.69033578047899868</v>
       </c>
-      <c r="M14" s="40"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="39"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="35"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="31">
         <v>45110</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="6">
         <v>849.36</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="6">
         <v>2524</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="32">
         <f>IF(ROW()&gt;2,($D$2-D15)/$D$2,"NA")</f>
         <v>0.69623300036105429</v>
       </c>
-      <c r="M15" s="40"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="39"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="35"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M16" s="40"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="39"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="35"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M17" s="41"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="37"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="30"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!!! P\HackerRank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12AB7EC2-9922-4CA3-9C1A-BAF424A7B23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6841F4AD-406D-4500-8627-614BBC6FFF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,7 +125,7 @@
     <t>1132.97/2200</t>
   </si>
   <si>
-    <t>1152.97/2200</t>
+    <t>1162.97/2200</t>
   </si>
 </sst>
 </file>
@@ -1913,7 +1913,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2449,11 +2449,11 @@
         <v>29</v>
       </c>
       <c r="P11" s="22">
-        <v>127534</v>
+        <v>125808</v>
       </c>
       <c r="Q11" s="35">
         <f t="shared" si="3"/>
-        <v>0.56255809566276216</v>
+        <v>0.5684782795108817</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!!! P\HackerRank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6841F4AD-406D-4500-8627-614BBC6FFF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CA12AC-09D0-4481-943D-DA5FD225E6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="31">
   <si>
     <t>Rank</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>1162.97/2200</t>
+  </si>
+  <si>
+    <t>1172.97/2200</t>
   </si>
 </sst>
 </file>
@@ -1913,7 +1916,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2084,7 +2087,7 @@
         <v>251922</v>
       </c>
       <c r="Q3" s="26">
-        <f t="shared" ref="Q3:Q11" si="3">IF(ROW()&gt;2,($P$2-P3)/$P$2,"NA")</f>
+        <f t="shared" ref="Q3:Q12" si="3">IF(ROW()&gt;2,($P$2-P3)/$P$2,"NA")</f>
         <v>0.13590697833953591</v>
       </c>
     </row>
@@ -2473,11 +2476,22 @@
         <f>IF(ROW()&gt;2,($D$2-D12)/$D$2,"NA")</f>
         <v>0.67240341798050307</v>
       </c>
-      <c r="M12" s="28"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="35"/>
+      <c r="M12" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="12">
+        <v>45120</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="22">
+        <v>124134</v>
+      </c>
+      <c r="Q12" s="35">
+        <f t="shared" si="3"/>
+        <v>0.57422010324306716</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!!! P\HackerRank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CA12AC-09D0-4481-943D-DA5FD225E6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352E1D16-67C3-4C7D-BA40-C0E8EC3F3501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="31">
   <si>
     <t>Rank</t>
   </si>
@@ -313,7 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -360,6 +360,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1534,7 +1537,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D5">
     <sortCondition ref="A2:A5"/>
     <sortCondition ref="B2:B5"/>
@@ -1916,7 +1919,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2563,6 +2566,22 @@
       <c r="Q15" s="35"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="37">
+        <v>45122</v>
+      </c>
+      <c r="C16" s="36">
+        <v>861.67</v>
+      </c>
+      <c r="D16" s="36">
+        <v>2455</v>
+      </c>
+      <c r="E16" s="38">
+        <f>IF(ROW()&gt;2,($D$2-D16)/$D$2,"NA")</f>
+        <v>0.70453724876639789</v>
+      </c>
       <c r="M16" s="28"/>
       <c r="N16" s="12"/>
       <c r="O16" s="22"/>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352E1D16-67C3-4C7D-BA40-C0E8EC3F3501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DF4CEB-5250-422B-A7B4-EAC3AD05E827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="32">
   <si>
     <t>Rank</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>1172.97/2200</t>
+  </si>
+  <si>
+    <t>1207.97/2200</t>
   </si>
 </sst>
 </file>
@@ -1919,35 +1922,35 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.140625" customWidth="1"/>
-    <col min="13" max="13" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" customWidth="1"/>
-    <col min="19" max="19" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.109375" customWidth="1"/>
+    <col min="13" max="13" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" customWidth="1"/>
+    <col min="19" max="19" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1994,7 +1997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -2044,7 +2047,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -2090,11 +2093,11 @@
         <v>251922</v>
       </c>
       <c r="Q3" s="26">
-        <f t="shared" ref="Q3:Q12" si="3">IF(ROW()&gt;2,($P$2-P3)/$P$2,"NA")</f>
+        <f t="shared" ref="Q3:Q13" si="3">IF(ROW()&gt;2,($P$2-P3)/$P$2,"NA")</f>
         <v>0.13590697833953591</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -2144,7 +2147,7 @@
         <v>0.30665248932411804</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -2194,7 +2197,7 @@
         <v>0.43052015983810388</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -2244,7 +2247,7 @@
         <v>0.44649368022089214</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -2294,7 +2297,7 @@
         <v>0.47140578641376119</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -2344,7 +2347,7 @@
         <v>0.49158448952991818</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -2394,7 +2397,7 @@
         <v>0.50714297964293675</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
@@ -2428,7 +2431,7 @@
         <v>0.55166440858186561</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
@@ -2462,7 +2465,7 @@
         <v>0.5684782795108817</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -2496,7 +2499,7 @@
         <v>0.57422010324306716</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
@@ -2513,13 +2516,24 @@
         <f>IF(ROW()&gt;2,($D$2-D13)/$D$2,"NA")</f>
         <v>0.69153929474064268</v>
       </c>
-      <c r="M13" s="28"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="35"/>
+      <c r="M13" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" s="12">
+        <v>45124</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="22">
+        <v>118419</v>
+      </c>
+      <c r="Q13" s="35">
+        <f t="shared" si="3"/>
+        <v>0.59382256598466787</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -2536,13 +2550,15 @@
         <f>IF(ROW()&gt;2,($D$2-D14)/$D$2,"NA")</f>
         <v>0.69033578047899868</v>
       </c>
-      <c r="M14" s="28"/>
+      <c r="M14" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="N14" s="12"/>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="35"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -2559,13 +2575,15 @@
         <f>IF(ROW()&gt;2,($D$2-D15)/$D$2,"NA")</f>
         <v>0.69623300036105429</v>
       </c>
-      <c r="M15" s="28"/>
+      <c r="M15" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="N15" s="12"/>
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="35"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
@@ -2582,20 +2600,24 @@
         <f>IF(ROW()&gt;2,($D$2-D16)/$D$2,"NA")</f>
         <v>0.70453724876639789</v>
       </c>
-      <c r="M16" s="28"/>
+      <c r="M16" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="N16" s="12"/>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
       <c r="Q16" s="35"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M17" s="11"/>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M17" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="N17" s="18"/>
       <c r="O17" s="17"/>
       <c r="P17" s="17"/>
       <c r="Q17" s="30"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>3</v>
       </c>
@@ -2627,7 +2649,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>11</v>
       </c>
@@ -2661,7 +2683,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>11</v>
       </c>
@@ -2684,7 +2706,7 @@
       <c r="J21" s="10"/>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>11</v>
       </c>
@@ -2702,7 +2724,7 @@
         <v>0.20651623189816312</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>11</v>
       </c>
@@ -2720,7 +2742,7 @@
         <v>0.22511399970802334</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>11</v>
       </c>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DF4CEB-5250-422B-A7B4-EAC3AD05E827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F5B302-6C93-49E6-A4DB-8B52AF29F668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,7 @@
     <t>1172.97/2200</t>
   </si>
   <si>
-    <t>1207.97/2200</t>
+    <t>1242.97/2200</t>
   </si>
 </sst>
 </file>
@@ -1922,7 +1922,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2093,7 +2093,7 @@
         <v>251922</v>
       </c>
       <c r="Q3" s="26">
-        <f t="shared" ref="Q3:Q13" si="3">IF(ROW()&gt;2,($P$2-P3)/$P$2,"NA")</f>
+        <f t="shared" ref="Q3:Q14" si="3">IF(ROW()&gt;2,($P$2-P3)/$P$2,"NA")</f>
         <v>0.13590697833953591</v>
       </c>
     </row>
@@ -2526,11 +2526,11 @@
         <v>31</v>
       </c>
       <c r="P13" s="22">
-        <v>118419</v>
+        <v>113212</v>
       </c>
       <c r="Q13" s="35">
         <f t="shared" si="3"/>
-        <v>0.59382256598466787</v>
+        <v>0.61168258759368188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F5B302-6C93-49E6-A4DB-8B52AF29F668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60CB037-B7F0-447A-9382-DC85CD178F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="33">
   <si>
     <t>Rank</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>1242.97/2200</t>
+  </si>
+  <si>
+    <t>1347.97/2200</t>
   </si>
 </sst>
 </file>
@@ -1922,35 +1925,35 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.109375" customWidth="1"/>
-    <col min="13" max="13" width="43.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" customWidth="1"/>
-    <col min="19" max="19" width="43.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.140625" customWidth="1"/>
+    <col min="13" max="13" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" customWidth="1"/>
+    <col min="19" max="19" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1997,7 +2000,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -2047,7 +2050,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -2093,11 +2096,11 @@
         <v>251922</v>
       </c>
       <c r="Q3" s="26">
-        <f t="shared" ref="Q3:Q14" si="3">IF(ROW()&gt;2,($P$2-P3)/$P$2,"NA")</f>
+        <f t="shared" ref="Q3:Q17" si="3">IF(ROW()&gt;2,($P$2-P3)/$P$2,"NA")</f>
         <v>0.13590697833953591</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -2147,7 +2150,7 @@
         <v>0.30665248932411804</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -2197,7 +2200,7 @@
         <v>0.43052015983810388</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -2247,7 +2250,7 @@
         <v>0.44649368022089214</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -2297,7 +2300,7 @@
         <v>0.47140578641376119</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -2347,7 +2350,7 @@
         <v>0.49158448952991818</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -2397,7 +2400,7 @@
         <v>0.50714297964293675</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
@@ -2431,7 +2434,7 @@
         <v>0.55166440858186561</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
@@ -2465,7 +2468,7 @@
         <v>0.5684782795108817</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -2499,7 +2502,7 @@
         <v>0.57422010324306716</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
@@ -2533,7 +2536,7 @@
         <v>0.61168258759368188</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -2553,12 +2556,21 @@
       <c r="M14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="12"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="35"/>
+      <c r="N14" s="12">
+        <v>45125</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="22">
+        <v>99315</v>
+      </c>
+      <c r="Q14" s="35">
+        <f t="shared" si="3"/>
+        <v>0.65934932857706352</v>
+      </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -2583,7 +2595,7 @@
       <c r="P15" s="22"/>
       <c r="Q15" s="35"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
@@ -2608,16 +2620,16 @@
       <c r="P16" s="22"/>
       <c r="Q16" s="35"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M17" s="28" t="s">
         <v>14</v>
       </c>
       <c r="N17" s="18"/>
       <c r="O17" s="17"/>
       <c r="P17" s="17"/>
-      <c r="Q17" s="30"/>
+      <c r="Q17" s="35"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>3</v>
       </c>
@@ -2649,7 +2661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>11</v>
       </c>
@@ -2683,7 +2695,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>11</v>
       </c>
@@ -2706,7 +2718,7 @@
       <c r="J21" s="10"/>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>11</v>
       </c>
@@ -2724,7 +2736,7 @@
         <v>0.20651623189816312</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>11</v>
       </c>
@@ -2742,7 +2754,7 @@
         <v>0.22511399970802334</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>11</v>
       </c>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owanis\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60CB037-B7F0-447A-9382-DC85CD178F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B8E4E8-1F3B-48FB-8B75-8D47E994D2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Progress" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
   <si>
     <t>Rank</t>
   </si>
@@ -135,6 +136,24 @@
   </si>
   <si>
     <t>1347.97/2200</t>
+  </si>
+  <si>
+    <t>1367.97/2200</t>
+  </si>
+  <si>
+    <t>Organizing Containers of Balls</t>
+  </si>
+  <si>
+    <t>Encryption</t>
+  </si>
+  <si>
+    <t>Bigger is Greater</t>
+  </si>
+  <si>
+    <t>The Time in Words</t>
+  </si>
+  <si>
+    <t>Plan - next problems to solve</t>
   </si>
 </sst>
 </file>
@@ -319,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -366,9 +385,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1925,7 +1941,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2096,7 +2112,7 @@
         <v>251922</v>
       </c>
       <c r="Q3" s="26">
-        <f t="shared" ref="Q3:Q17" si="3">IF(ROW()&gt;2,($P$2-P3)/$P$2,"NA")</f>
+        <f t="shared" ref="Q3:Q15" si="3">IF(ROW()&gt;2,($P$2-P3)/$P$2,"NA")</f>
         <v>0.13590697833953591</v>
       </c>
     </row>
@@ -2590,25 +2606,34 @@
       <c r="M15" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="35"/>
+      <c r="N15" s="12">
+        <v>45126</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="22">
+        <v>96935</v>
+      </c>
+      <c r="Q15" s="35">
+        <f t="shared" si="3"/>
+        <v>0.66751273388327703</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="31">
         <v>45122</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="6">
         <v>861.67</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="6">
         <v>2455</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="32">
         <f>IF(ROW()&gt;2,($D$2-D16)/$D$2,"NA")</f>
         <v>0.70453724876639789</v>
       </c>
@@ -2786,4 +2811,47 @@
     <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA14AAA2-4FD0-41BA-875E-96FC706D123A}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owanis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Osama\!Math &amp; Algorithms\HackerRank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B8E4E8-1F3B-48FB-8B75-8D47E994D2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF65D98-A1E2-4043-932A-CEF8AB04FBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Progress" sheetId="1" r:id="rId1"/>
@@ -138,9 +138,6 @@
     <t>1347.97/2200</t>
   </si>
   <si>
-    <t>1367.97/2200</t>
-  </si>
-  <si>
     <t>Organizing Containers of Balls</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>Plan - next problems to solve</t>
+  </si>
+  <si>
+    <t>1422.97/2200</t>
   </si>
 </sst>
 </file>
@@ -338,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -385,6 +385,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1941,7 +1943,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2112,7 +2114,7 @@
         <v>251922</v>
       </c>
       <c r="Q3" s="26">
-        <f t="shared" ref="Q3:Q15" si="3">IF(ROW()&gt;2,($P$2-P3)/$P$2,"NA")</f>
+        <f t="shared" ref="Q3:Q16" si="3">IF(ROW()&gt;2,($P$2-P3)/$P$2,"NA")</f>
         <v>0.13590697833953591</v>
       </c>
     </row>
@@ -2610,14 +2612,14 @@
         <v>45126</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="P15" s="22">
-        <v>96935</v>
+        <v>90873</v>
       </c>
       <c r="Q15" s="35">
-        <f t="shared" si="3"/>
-        <v>0.66751273388327703</v>
+        <f>IF(ROW()&gt;2,($P$2-P15)/$P$2,"NA")</f>
+        <v>0.68830540739851476</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -2642,8 +2644,8 @@
       </c>
       <c r="N16" s="12"/>
       <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="35"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="37"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M17" s="28" t="s">
@@ -2828,27 +2830,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Osama\!Math &amp; Algorithms\HackerRank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owanis\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF65D98-A1E2-4043-932A-CEF8AB04FBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A672BC-8DA6-4531-814A-1DE161FEEE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Progress" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
   <si>
     <t>Rank</t>
   </si>
@@ -154,6 +154,24 @@
   </si>
   <si>
     <t>1422.97/2200</t>
+  </si>
+  <si>
+    <t>1467.97/2200</t>
+  </si>
+  <si>
+    <t>KnightL on a Chessboard</t>
+  </si>
+  <si>
+    <t>Algorithms</t>
+  </si>
+  <si>
+    <t>Difficult  Problems</t>
+  </si>
+  <si>
+    <t>May need dynamic programming oand Math (number theory)</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
@@ -163,7 +181,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,8 +217,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +244,24 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -338,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -385,8 +436,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1942,8 +1998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2114,7 +2170,7 @@
         <v>251922</v>
       </c>
       <c r="Q3" s="26">
-        <f t="shared" ref="Q3:Q16" si="3">IF(ROW()&gt;2,($P$2-P3)/$P$2,"NA")</f>
+        <f t="shared" ref="Q3:Q14" si="3">IF(ROW()&gt;2,($P$2-P3)/$P$2,"NA")</f>
         <v>0.13590697833953591</v>
       </c>
     </row>
@@ -2642,10 +2698,19 @@
       <c r="M16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="N16" s="12"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="37"/>
+      <c r="N16" s="12">
+        <v>45127</v>
+      </c>
+      <c r="O16" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="22">
+        <v>86268</v>
+      </c>
+      <c r="Q16" s="35">
+        <f>IF(ROW()&gt;2,($P$2-P16)/$P$2,"NA")</f>
+        <v>0.70410056766536899</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M17" s="28" t="s">
@@ -2817,43 +2882,253 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA14AAA2-4FD0-41BA-875E-96FC706D123A}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="38"/>
+      <c r="D1" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A2" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="22"/>
+      <c r="D3" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
         <v>36</v>
       </c>
+      <c r="B6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A17" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owanis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A672BC-8DA6-4531-814A-1DE161FEEE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8222F139-CED6-4493-94D6-2A0976B2AF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Progress" sheetId="1" r:id="rId1"/>
@@ -156,9 +156,6 @@
     <t>1422.97/2200</t>
   </si>
   <si>
-    <t>1467.97/2200</t>
-  </si>
-  <si>
     <t>KnightL on a Chessboard</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>1527.97/2200</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -438,11 +438,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1998,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2701,15 +2702,15 @@
       <c r="N16" s="12">
         <v>45127</v>
       </c>
-      <c r="O16" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" s="22">
-        <v>86268</v>
+      <c r="O16" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="P16" s="17">
+        <v>80680</v>
       </c>
       <c r="Q16" s="35">
         <f>IF(ROW()&gt;2,($P$2-P16)/$P$2,"NA")</f>
-        <v>0.70410056766536899</v>
+        <v>0.72326742012382306</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -2718,7 +2719,7 @@
       </c>
       <c r="N17" s="18"/>
       <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
+      <c r="P17" s="41"/>
       <c r="Q17" s="35"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -2884,7 +2885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA14AAA2-4FD0-41BA-875E-96FC706D123A}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:E32"/>
     </sheetView>
   </sheetViews>
@@ -2898,28 +2899,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="D1" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="D1" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>44</v>
+      <c r="A2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>43</v>
       </c>
       <c r="C2" s="37"/>
-      <c r="D2" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>44</v>
+      <c r="D2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2928,10 +2929,10 @@
       </c>
       <c r="B3" s="22"/>
       <c r="D3" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2951,7 +2952,7 @@
       <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="22"/>
@@ -3019,18 +3020,18 @@
       <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="39" t="s">
-        <v>44</v>
+      <c r="B17" s="38" t="s">
+        <v>43</v>
       </c>
       <c r="C17" s="37"/>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="39" t="s">
-        <v>44</v>
+      <c r="E17" s="38" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8222F139-CED6-4493-94D6-2A0976B2AF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5180DF50-FE5E-4AEA-B50C-663162ED3FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Progress" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan" sheetId="2" r:id="rId2"/>
+    <sheet name="Math &amp; Algorithms" sheetId="1" r:id="rId1"/>
+    <sheet name="Python,C++ &amp; SQL" sheetId="3" r:id="rId2"/>
+    <sheet name="Plan" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="50">
   <si>
     <t>Rank</t>
   </si>
@@ -172,6 +173,21 @@
   </si>
   <si>
     <t>1527.97/2200</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>14% (41/283 challenges solved)</t>
+  </si>
+  <si>
+    <t>50% (672.03 points to next star)</t>
+  </si>
+  <si>
+    <t>1567.97/2200</t>
+  </si>
+  <si>
+    <t>53% (632.03 points to next star)</t>
   </si>
 </sst>
 </file>
@@ -389,7 +405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -440,16 +456,401 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="50">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -551,6 +952,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -567,7 +975,193 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -740,47 +1334,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <top style="thin">
           <color indexed="64"/>
@@ -859,474 +1412,6 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1618,18 +1703,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F17" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E5">
     <sortCondition ref="A2:A5"/>
     <sortCondition ref="B2:B5"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Points" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Rank" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Progress" dataDxfId="38" dataCellStyle="Percent">
-      <calculatedColumnFormula>IF(ROW()&gt;2,($D$2-D2)/$D$2,"NA")</calculatedColumnFormula>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{173CC93E-E7EE-48C1-9CCF-D246238E1A1C}" name="Column1" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Points" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Rank" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Progress" dataDxfId="40" dataCellStyle="Percent">
+      <calculatedColumnFormula>IF(ROW()&gt;2,($E$2-E2)/$E$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1637,15 +1723,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="G1:K9" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
-  <autoFilter ref="G1:K9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Points" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Rank" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Progress" dataDxfId="28">
-      <calculatedColumnFormula>IF(ROW()&gt;2,($J$2-J2)/$J$2,"NA")</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="I1:N17" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+  <autoFilter ref="I1:N17" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Date" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{1AFD6FFE-AA81-42A2-97D8-6D1587474978}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Points" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Rank" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Progress" dataDxfId="31" dataCellStyle="Percent">
+      <calculatedColumnFormula>IF(ROW()&gt;2,($M$2-M2)/$M$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1653,15 +1740,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A19:E24" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A19:E24" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="28" tableBorderDxfId="29" totalsRowBorderDxfId="27">
+  <autoFilter ref="A1:E6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Date" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Points" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Rank" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Progress" dataDxfId="19" dataCellStyle="Percent">
-      <calculatedColumnFormula>IF(ROW()&gt;21,($D$20-D20)/$D$20,"NA")</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Date" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Points" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Rank" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Progress" dataDxfId="22" dataCellStyle="Percent">
+      <calculatedColumnFormula>IF(ROW()&gt;21,($D$2-D2)/$D$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1669,15 +1756,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="M1:Q17" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="M1:Q17" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table26" displayName="Table26" ref="G1:K3" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
+  <autoFilter ref="G1:K3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Date" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Points" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Rank" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Progress" dataDxfId="9" dataCellStyle="Percent">
-      <calculatedColumnFormula>IF(ROW()&gt;2,($P$2-P2)/$P$2,"NA")</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Category" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Date" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Points" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Rank" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Progress" dataDxfId="13">
+      <calculatedColumnFormula>IF(ROW()&gt;21,($J$2-J2)/$J$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1685,15 +1772,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table26" displayName="Table26" ref="G19:K21" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="G19:K21" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="M1:Q9" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+  <autoFilter ref="M1:Q9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Category" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Date" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Points" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Rank" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Progress" dataDxfId="0">
-      <calculatedColumnFormula>IF(ROW()&gt;21,($J$20-J20)/$J$20,"NA")</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Points" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Rank" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Progress" dataDxfId="3">
+      <calculatedColumnFormula>IF(ROW()&gt;2,($P$2-P2)/$P$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1997,66 +2084,714 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15:Q16"/>
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="2.140625" customWidth="1"/>
+    <col min="9" max="9" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8">
+        <v>44664</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9">
+        <v>385</v>
+      </c>
+      <c r="E2" s="9">
+        <v>8309</v>
+      </c>
+      <c r="F2" s="27" t="str">
+        <f>IF(ROW()&gt;2,($E$2-E2)/$E$2,"NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="12">
+        <v>45042</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="22">
+        <v>291545</v>
+      </c>
+      <c r="N2" s="26" t="str">
+        <f t="shared" ref="N2" si="0">IF(ROW()&gt;2,($M$2-M2)/$M$2,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8">
+        <v>44670</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9">
+        <v>455</v>
+      </c>
+      <c r="E3" s="9">
+        <v>6402</v>
+      </c>
+      <c r="F3" s="27">
+        <f>IF(ROW()&gt;2,($E$2-E3)/$E$2,"NA")</f>
+        <v>0.22951016969551088</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="12">
+        <v>45043</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="22">
+        <v>251922</v>
+      </c>
+      <c r="N3" s="26">
+        <f t="shared" ref="N3:N14" si="1">IF(ROW()&gt;2,($M$2-M3)/$M$2,"NA")</f>
+        <v>0.13590697833953591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8">
+        <v>44686</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9">
+        <v>580</v>
+      </c>
+      <c r="E4" s="9">
+        <v>4263</v>
+      </c>
+      <c r="F4" s="27">
+        <f>IF(ROW()&gt;2,($E$2-E4)/$E$2,"NA")</f>
+        <v>0.48694187026116259</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="18">
+        <v>45048</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="17">
+        <v>202142</v>
+      </c>
+      <c r="N4" s="29">
+        <f t="shared" si="1"/>
+        <v>0.30665248932411804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>44713</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9">
+        <v>605</v>
+      </c>
+      <c r="E5" s="9">
+        <v>3963</v>
+      </c>
+      <c r="F5" s="27">
+        <f>IF(ROW()&gt;2,($E$2-E5)/$E$2,"NA")</f>
+        <v>0.52304729811048256</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="18">
+        <v>45055</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="17">
+        <v>166029</v>
+      </c>
+      <c r="N5" s="30">
+        <f t="shared" si="1"/>
+        <v>0.43052015983810388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8">
+        <v>44757</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9">
+        <v>662.69</v>
+      </c>
+      <c r="E6" s="9">
+        <v>3469</v>
+      </c>
+      <c r="F6" s="27">
+        <f>IF(ROW()&gt;2,($E$2-E6)/$E$2,"NA")</f>
+        <v>0.5825009026356962</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="18">
+        <v>45078</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="17">
+        <v>161372</v>
+      </c>
+      <c r="N6" s="30">
+        <f t="shared" si="1"/>
+        <v>0.44649368022089214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8">
+        <v>44965</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9">
+        <v>761.27</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2912</v>
+      </c>
+      <c r="F7" s="27">
+        <f>IF(ROW()&gt;2,($E$2-E7)/$E$2,"NA")</f>
+        <v>0.64953664700926705</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="12">
+        <v>45097</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="22">
+        <v>154109</v>
+      </c>
+      <c r="N7" s="35">
+        <f t="shared" si="1"/>
+        <v>0.47140578641376119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8">
+        <v>44967</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9">
+        <v>777.94</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2810</v>
+      </c>
+      <c r="F8" s="27">
+        <f>IF(ROW()&gt;2,($E$2-E8)/$E$2,"NA")</f>
+        <v>0.66181249247803586</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="12">
+        <v>45100</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="22">
+        <v>148226</v>
+      </c>
+      <c r="N8" s="35">
+        <f t="shared" si="1"/>
+        <v>0.49158448952991818</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="8">
+        <v>44998</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9">
+        <v>779.36</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2829</v>
+      </c>
+      <c r="F9" s="27">
+        <f>IF(ROW()&gt;2,($E$2-E9)/$E$2,"NA")</f>
+        <v>0.65952581538091226</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="12">
+        <v>45101</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="22">
+        <v>143690</v>
+      </c>
+      <c r="N9" s="35">
+        <f t="shared" si="1"/>
+        <v>0.50714297964293675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="8">
+        <v>44999</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9">
+        <v>783.36</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2799</v>
+      </c>
+      <c r="F10" s="27">
+        <f>IF(ROW()&gt;2,($E$2-E10)/$E$2,"NA")</f>
+        <v>0.66313635816584426</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="12">
+        <v>45102</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="22">
+        <v>130710</v>
+      </c>
+      <c r="N10" s="35">
+        <f t="shared" si="1"/>
+        <v>0.55166440858186561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="8">
+        <v>45043</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9">
+        <v>803.36</v>
+      </c>
+      <c r="E11" s="9">
+        <v>2712</v>
+      </c>
+      <c r="F11" s="27">
+        <f>IF(ROW()&gt;2,($E$2-E11)/$E$2,"NA")</f>
+        <v>0.67360693224214707</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="12">
+        <v>45118</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="22">
+        <v>125808</v>
+      </c>
+      <c r="N11" s="35">
+        <f t="shared" si="1"/>
+        <v>0.5684782795108817</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="31">
+        <v>45055</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="9">
+        <v>803.36</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2722</v>
+      </c>
+      <c r="F12" s="32">
+        <f>IF(ROW()&gt;2,($E$2-E12)/$E$2,"NA")</f>
+        <v>0.67240341798050307</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="12">
+        <v>45120</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="22">
+        <v>124134</v>
+      </c>
+      <c r="N12" s="35">
+        <f t="shared" si="1"/>
+        <v>0.57422010324306716</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="31">
+        <v>45055</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="6">
+        <v>833.36</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2563</v>
+      </c>
+      <c r="F13" s="32">
+        <f>IF(ROW()&gt;2,($E$2-E13)/$E$2,"NA")</f>
+        <v>0.69153929474064268</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="12">
+        <v>45124</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="22">
+        <v>113212</v>
+      </c>
+      <c r="N13" s="35">
+        <f t="shared" si="1"/>
+        <v>0.61168258759368188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="18">
+        <v>45078</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="6">
+        <v>833.36</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2573</v>
+      </c>
+      <c r="F14" s="32">
+        <f>IF(ROW()&gt;2,($E$2-E14)/$E$2,"NA")</f>
+        <v>0.69033578047899868</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="12">
+        <v>45125</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="22">
+        <v>99315</v>
+      </c>
+      <c r="N14" s="35">
+        <f t="shared" si="1"/>
+        <v>0.65934932857706352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="31">
+        <v>45110</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="6">
+        <v>849.36</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2524</v>
+      </c>
+      <c r="F15" s="32">
+        <f>IF(ROW()&gt;2,($E$2-E15)/$E$2,"NA")</f>
+        <v>0.69623300036105429</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="12">
+        <v>45126</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="22">
+        <v>90873</v>
+      </c>
+      <c r="N15" s="35">
+        <f>IF(ROW()&gt;2,($M$2-M15)/$M$2,"NA")</f>
+        <v>0.68830540739851476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="31">
+        <v>45122</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="6">
+        <v>861.67</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2455</v>
+      </c>
+      <c r="F16" s="32">
+        <f>IF(ROW()&gt;2,($E$2-E16)/$E$2,"NA")</f>
+        <v>0.70453724876639789</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="12">
+        <v>45127</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="17">
+        <v>80680</v>
+      </c>
+      <c r="N16" s="35">
+        <f>IF(ROW()&gt;2,($M$2-M16)/$M$2,"NA")</f>
+        <v>0.72326742012382306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="43">
+        <v>45129</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="42">
+        <v>901.67</v>
+      </c>
+      <c r="E17" s="42">
+        <v>2275</v>
+      </c>
+      <c r="F17" s="44">
+        <f>IF(ROW()&gt;2,($E$2-E17)/$E$2,"NA")</f>
+        <v>0.72620050547598991</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="18">
+        <v>45129</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" s="40">
+        <v>77277</v>
+      </c>
+      <c r="N17" s="35">
+        <f>IF(ROW()&gt;2,($M$2-M17)/$M$2,"NA")</f>
+        <v>0.73493971771081656</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD078B91-927A-40B5-8004-C14E7031CE26}">
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.140625" customWidth="1"/>
-    <col min="13" max="13" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" customWidth="1"/>
-    <col min="19" max="19" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="21" t="s">
         <v>20</v>
       </c>
       <c r="M1" s="19" t="s">
@@ -2076,812 +2811,261 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="8">
-        <v>44664</v>
-      </c>
-      <c r="C2" s="9">
-        <v>385</v>
-      </c>
-      <c r="D2" s="9">
-        <v>8309</v>
-      </c>
-      <c r="E2" s="27" t="str">
-        <f t="shared" ref="E2:E11" si="0">IF(ROW()&gt;2,($D$2-D2)/$D$2,"NA")</f>
+      <c r="A2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="12">
+        <v>44965</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="25">
+        <v>349343</v>
+      </c>
+      <c r="E2" s="26" t="str">
+        <f>IF(ROW()&gt;21,($D$2-D2)/$D$2,"NA")</f>
         <v>NA</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="12">
+        <v>45043</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="10">
+        <v>228538</v>
+      </c>
+      <c r="K2" s="25" t="str">
+        <f>IF(ROW()&gt;21,($J$2-J2)/$J$2,"NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="P2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="26" t="str">
-        <f>IF(ROW()&gt;2,($J$2-J2)/$J$2,"NA")</f>
+      <c r="Q2" s="26" t="str">
+        <f>IF(ROW()&gt;2,($P$2-P2)/$P$2,"NA")</f>
         <v>NA</v>
       </c>
-      <c r="M2" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="12">
-        <v>45042</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="22">
-        <v>291545</v>
-      </c>
-      <c r="Q2" s="26" t="str">
-        <f t="shared" ref="Q2" si="1">IF(ROW()&gt;2,($P$2-P2)/$P$2,"NA")</f>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="18">
+        <v>44602</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="25">
+        <v>263128</v>
+      </c>
+      <c r="E3" s="26" t="str">
+        <f>IF(ROW()&gt;21,($D$2-D3)/$D$2,"NA")</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="G3" s="11"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="24"/>
+      <c r="M3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="8">
         <v>44670</v>
       </c>
-      <c r="C3" s="9">
-        <v>455</v>
-      </c>
-      <c r="D3" s="9">
-        <v>6402</v>
-      </c>
-      <c r="E3" s="27">
-        <f t="shared" si="0"/>
-        <v>0.22951016969551088</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="O3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="25">
+        <v>198980</v>
+      </c>
+      <c r="Q3" s="26">
+        <f>IF(ROW()&gt;2,($P$2-P3)/$P$2,"NA")</f>
+        <v>0.26963198966370328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="18">
+        <v>45043</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="25">
+        <v>277198</v>
+      </c>
+      <c r="E4" s="26" t="str">
+        <f>IF(ROW()&gt;21,($D$2-D4)/$D$2,"NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8">
-        <v>44670</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="25">
-        <v>198980</v>
-      </c>
-      <c r="K3" s="26">
-        <f t="shared" ref="K3:K9" si="2">IF(ROW()&gt;2,($J$2-J3)/$J$2,"NA")</f>
-        <v>0.26963198966370328</v>
-      </c>
-      <c r="M3" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="12">
+      <c r="N4" s="8">
+        <v>44686</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="25">
+        <v>126941</v>
+      </c>
+      <c r="Q4" s="26">
+        <f>IF(ROW()&gt;2,($P$2-P4)/$P$2,"NA")</f>
+        <v>0.53405545481907812</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="18">
         <v>45043</v>
       </c>
-      <c r="O3" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="22">
-        <v>251922</v>
-      </c>
-      <c r="Q3" s="26">
-        <f t="shared" ref="Q3:Q14" si="3">IF(ROW()&gt;2,($P$2-P3)/$P$2,"NA")</f>
-        <v>0.13590697833953591</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="8">
-        <v>44686</v>
-      </c>
-      <c r="C4" s="9">
-        <v>580</v>
-      </c>
-      <c r="D4" s="9">
-        <v>4263</v>
-      </c>
-      <c r="E4" s="27">
-        <f t="shared" si="0"/>
-        <v>0.48694187026116259</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="25">
+        <v>270701</v>
+      </c>
+      <c r="E5" s="26" t="str">
+        <f>IF(ROW()&gt;21,($D$2-D5)/$D$2,"NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="8">
-        <v>44686</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="25">
-        <v>126941</v>
-      </c>
-      <c r="K4" s="26">
-        <f t="shared" si="2"/>
-        <v>0.53405545481907812</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="18">
-        <v>45048</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="17">
-        <v>202142</v>
-      </c>
-      <c r="Q4" s="29">
-        <f t="shared" si="3"/>
-        <v>0.30665248932411804</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8">
-        <v>44713</v>
-      </c>
-      <c r="C5" s="9">
-        <v>605</v>
-      </c>
-      <c r="D5" s="9">
-        <v>3963</v>
-      </c>
-      <c r="E5" s="27">
-        <f t="shared" si="0"/>
-        <v>0.52304729811048256</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="N5" s="8">
+        <v>44838</v>
+      </c>
+      <c r="O5" s="9">
+        <v>715</v>
+      </c>
+      <c r="P5" s="25">
+        <v>82469</v>
+      </c>
+      <c r="Q5" s="26">
+        <f>IF(ROW()&gt;2,($P$2-P5)/$P$2,"NA")</f>
+        <v>0.69729259501244323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="18">
+        <v>45078</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="33">
+        <v>270884</v>
+      </c>
+      <c r="E6" s="34" t="str">
+        <f>IF(ROW()&gt;21,($D$2-D6)/$D$2,"NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="8">
-        <v>44838</v>
-      </c>
-      <c r="I5" s="9">
-        <v>715</v>
-      </c>
-      <c r="J5" s="25">
-        <v>82469</v>
-      </c>
-      <c r="K5" s="26">
-        <f t="shared" si="2"/>
-        <v>0.69729259501244323</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="18">
+      <c r="N6" s="12">
+        <v>44965</v>
+      </c>
+      <c r="O6" s="9">
+        <v>795</v>
+      </c>
+      <c r="P6" s="25">
+        <v>63272</v>
+      </c>
+      <c r="Q6" s="26">
+        <f>IF(ROW()&gt;2,($P$2-P6)/$P$2,"NA")</f>
+        <v>0.76775633355111994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="12">
+        <v>45043</v>
+      </c>
+      <c r="O7" s="9">
+        <v>795</v>
+      </c>
+      <c r="P7" s="25">
+        <v>67593</v>
+      </c>
+      <c r="Q7" s="26">
+        <f>IF(ROW()&gt;2,($P$2-P7)/$P$2,"NA")</f>
+        <v>0.751895844192073</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="12">
         <v>45055</v>
       </c>
-      <c r="O5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="17">
-        <v>166029</v>
-      </c>
-      <c r="Q5" s="30">
-        <f t="shared" si="3"/>
-        <v>0.43052015983810388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8">
-        <v>44757</v>
-      </c>
-      <c r="C6" s="9">
-        <v>662.69</v>
-      </c>
-      <c r="D6" s="9">
-        <v>3469</v>
-      </c>
-      <c r="E6" s="27">
-        <f t="shared" si="0"/>
-        <v>0.5825009026356962</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="O8" s="6">
+        <v>835</v>
+      </c>
+      <c r="P8" s="6">
+        <v>58441</v>
+      </c>
+      <c r="Q8" s="26">
+        <f>IF(ROW()&gt;2,($P$2-P8)/$P$2,"NA")</f>
+        <v>0.78548880846284297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="12">
-        <v>44965</v>
-      </c>
-      <c r="I6" s="9">
-        <v>795</v>
-      </c>
-      <c r="J6" s="25">
-        <v>63272</v>
-      </c>
-      <c r="K6" s="26">
-        <f t="shared" si="2"/>
-        <v>0.76775633355111994</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="18">
+      <c r="N9" s="18">
         <v>45078</v>
       </c>
-      <c r="O6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="17">
-        <v>161372</v>
-      </c>
-      <c r="Q6" s="30">
-        <f t="shared" si="3"/>
-        <v>0.44649368022089214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8">
-        <v>44965</v>
-      </c>
-      <c r="C7" s="9">
-        <v>761.27</v>
-      </c>
-      <c r="D7" s="9">
-        <v>2912</v>
-      </c>
-      <c r="E7" s="27">
-        <f t="shared" si="0"/>
-        <v>0.64953664700926705</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="12">
-        <v>45043</v>
-      </c>
-      <c r="I7" s="9">
-        <v>795</v>
-      </c>
-      <c r="J7" s="25">
-        <v>67593</v>
-      </c>
-      <c r="K7" s="26">
-        <f t="shared" si="2"/>
-        <v>0.751895844192073</v>
-      </c>
-      <c r="M7" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" s="12">
-        <v>45097</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="22">
-        <v>154109</v>
-      </c>
-      <c r="Q7" s="35">
-        <f t="shared" si="3"/>
-        <v>0.47140578641376119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="8">
-        <v>44967</v>
-      </c>
-      <c r="C8" s="9">
-        <v>777.94</v>
-      </c>
-      <c r="D8" s="9">
-        <v>2810</v>
-      </c>
-      <c r="E8" s="27">
-        <f t="shared" si="0"/>
-        <v>0.66181249247803586</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="12">
-        <v>45055</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="O9" s="6">
         <v>835</v>
       </c>
-      <c r="J8" s="6">
-        <v>58441</v>
-      </c>
-      <c r="K8" s="26">
-        <f t="shared" si="2"/>
-        <v>0.78548880846284297</v>
-      </c>
-      <c r="M8" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8" s="12">
-        <v>45100</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" s="22">
-        <v>148226</v>
-      </c>
-      <c r="Q8" s="35">
-        <f t="shared" si="3"/>
-        <v>0.49158448952991818</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="8">
-        <v>44998</v>
-      </c>
-      <c r="C9" s="9">
-        <v>779.36</v>
-      </c>
-      <c r="D9" s="9">
-        <v>2829</v>
-      </c>
-      <c r="E9" s="27">
-        <f t="shared" si="0"/>
-        <v>0.65952581538091226</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="18">
-        <v>45078</v>
-      </c>
-      <c r="I9" s="6">
-        <v>835</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="P9" s="6">
         <v>59304</v>
       </c>
-      <c r="K9" s="26">
-        <f t="shared" si="2"/>
+      <c r="Q9" s="26">
+        <f>IF(ROW()&gt;2,($P$2-P9)/$P$2,"NA")</f>
         <v>0.78232111526292225</v>
-      </c>
-      <c r="M9" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9" s="12">
-        <v>45101</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" s="22">
-        <v>143690</v>
-      </c>
-      <c r="Q9" s="35">
-        <f t="shared" si="3"/>
-        <v>0.50714297964293675</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="8">
-        <v>44999</v>
-      </c>
-      <c r="C10" s="9">
-        <v>783.36</v>
-      </c>
-      <c r="D10" s="9">
-        <v>2799</v>
-      </c>
-      <c r="E10" s="27">
-        <f t="shared" si="0"/>
-        <v>0.66313635816584426</v>
-      </c>
-      <c r="M10" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" s="12">
-        <v>45102</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="22">
-        <v>130710</v>
-      </c>
-      <c r="Q10" s="35">
-        <f t="shared" si="3"/>
-        <v>0.55166440858186561</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="8">
-        <v>45043</v>
-      </c>
-      <c r="C11" s="9">
-        <v>803.36</v>
-      </c>
-      <c r="D11" s="9">
-        <v>2712</v>
-      </c>
-      <c r="E11" s="27">
-        <f t="shared" si="0"/>
-        <v>0.67360693224214707</v>
-      </c>
-      <c r="M11" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" s="12">
-        <v>45118</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="P11" s="22">
-        <v>125808</v>
-      </c>
-      <c r="Q11" s="35">
-        <f t="shared" si="3"/>
-        <v>0.5684782795108817</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="31">
-        <v>45055</v>
-      </c>
-      <c r="C12" s="9">
-        <v>803.36</v>
-      </c>
-      <c r="D12" s="6">
-        <v>2722</v>
-      </c>
-      <c r="E12" s="32">
-        <f>IF(ROW()&gt;2,($D$2-D12)/$D$2,"NA")</f>
-        <v>0.67240341798050307</v>
-      </c>
-      <c r="M12" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="N12" s="12">
-        <v>45120</v>
-      </c>
-      <c r="O12" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="22">
-        <v>124134</v>
-      </c>
-      <c r="Q12" s="35">
-        <f t="shared" si="3"/>
-        <v>0.57422010324306716</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="31">
-        <v>45055</v>
-      </c>
-      <c r="C13" s="6">
-        <v>833.36</v>
-      </c>
-      <c r="D13" s="6">
-        <v>2563</v>
-      </c>
-      <c r="E13" s="32">
-        <f>IF(ROW()&gt;2,($D$2-D13)/$D$2,"NA")</f>
-        <v>0.69153929474064268</v>
-      </c>
-      <c r="M13" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="N13" s="12">
-        <v>45124</v>
-      </c>
-      <c r="O13" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="P13" s="22">
-        <v>113212</v>
-      </c>
-      <c r="Q13" s="35">
-        <f t="shared" si="3"/>
-        <v>0.61168258759368188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="18">
-        <v>45078</v>
-      </c>
-      <c r="C14" s="6">
-        <v>833.36</v>
-      </c>
-      <c r="D14" s="6">
-        <v>2573</v>
-      </c>
-      <c r="E14" s="32">
-        <f>IF(ROW()&gt;2,($D$2-D14)/$D$2,"NA")</f>
-        <v>0.69033578047899868</v>
-      </c>
-      <c r="M14" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="N14" s="12">
-        <v>45125</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="22">
-        <v>99315</v>
-      </c>
-      <c r="Q14" s="35">
-        <f t="shared" si="3"/>
-        <v>0.65934932857706352</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="31">
-        <v>45110</v>
-      </c>
-      <c r="C15" s="6">
-        <v>849.36</v>
-      </c>
-      <c r="D15" s="6">
-        <v>2524</v>
-      </c>
-      <c r="E15" s="32">
-        <f>IF(ROW()&gt;2,($D$2-D15)/$D$2,"NA")</f>
-        <v>0.69623300036105429</v>
-      </c>
-      <c r="M15" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="N15" s="12">
-        <v>45126</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="P15" s="22">
-        <v>90873</v>
-      </c>
-      <c r="Q15" s="35">
-        <f>IF(ROW()&gt;2,($P$2-P15)/$P$2,"NA")</f>
-        <v>0.68830540739851476</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="31">
-        <v>45122</v>
-      </c>
-      <c r="C16" s="6">
-        <v>861.67</v>
-      </c>
-      <c r="D16" s="6">
-        <v>2455</v>
-      </c>
-      <c r="E16" s="32">
-        <f>IF(ROW()&gt;2,($D$2-D16)/$D$2,"NA")</f>
-        <v>0.70453724876639789</v>
-      </c>
-      <c r="M16" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="N16" s="12">
-        <v>45127</v>
-      </c>
-      <c r="O16" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="P16" s="17">
-        <v>80680</v>
-      </c>
-      <c r="Q16" s="35">
-        <f>IF(ROW()&gt;2,($P$2-P16)/$P$2,"NA")</f>
-        <v>0.72326742012382306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M17" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="N17" s="18"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="35"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="K19" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="12">
-        <v>44965</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="25">
-        <v>349343</v>
-      </c>
-      <c r="E20" s="26" t="str">
-        <f t="shared" ref="E20:E23" si="4">IF(ROW()&gt;21,($D$20-D20)/$D$20,"NA")</f>
-        <v>NA</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="12">
-        <v>45043</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="10">
-        <v>228538</v>
-      </c>
-      <c r="K20" s="25" t="str">
-        <f t="shared" ref="K20" si="5">IF(ROW()&gt;21,($J$20-J20)/$J$20,"NA")</f>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="18">
-        <v>44602</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="25">
-        <v>263128</v>
-      </c>
-      <c r="E21" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="24"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="18">
-        <v>45043</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="25">
-        <v>277198</v>
-      </c>
-      <c r="E22" s="26">
-        <f t="shared" si="4"/>
-        <v>0.20651623189816312</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="18">
-        <v>45043</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="25">
-        <v>270701</v>
-      </c>
-      <c r="E23" s="26">
-        <f t="shared" si="4"/>
-        <v>0.22511399970802334</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="18">
-        <v>45078</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="33">
-        <v>270884</v>
-      </c>
-      <c r="E24" s="34">
-        <f>IF(ROW()&gt;21,($D$20-D24)/$D$20,"NA")</f>
-        <v>0.22459015924177669</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="K2" calculatedColumn="1"/>
-  </ignoredErrors>
-  <tableParts count="5">
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA14AAA2-4FD0-41BA-875E-96FC706D123A}">
   <dimension ref="A1:E32"/>
   <sheetViews>
@@ -2899,14 +3083,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="D1" s="40" t="s">
+      <c r="B1" s="41"/>
+      <c r="D1" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="38" t="s">

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5180DF50-FE5E-4AEA-B50C-663162ED3FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E789A517-BEC6-4C1F-9370-AE188418EE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="52">
   <si>
     <t>Rank</t>
   </si>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <t>53% (632.03 points to next star)</t>
+  </si>
+  <si>
+    <t>60% (542.03 points to next star)</t>
+  </si>
+  <si>
+    <t>1657.97/2200</t>
   </si>
 </sst>
 </file>
@@ -405,7 +411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -457,18 +463,811 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="50">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -511,23 +1310,13 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -538,236 +1327,18 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -775,42 +1346,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -852,565 +1387,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1523,6 +1499,39 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1711,10 +1720,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="44"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{173CC93E-E7EE-48C1-9CCF-D246238E1A1C}" name="Column1" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Points" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Rank" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Progress" dataDxfId="40" dataCellStyle="Percent">
+    <tableColumn id="6" xr3:uid="{173CC93E-E7EE-48C1-9CCF-D246238E1A1C}" name="Column1" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Points" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Rank" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Progress" dataDxfId="39" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(ROW()&gt;2,($E$2-E2)/$E$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1723,15 +1732,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="I1:N17" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36" totalsRowBorderDxfId="35">
-  <autoFilter ref="I1:N17" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="I1:N19" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="I1:N19" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Date" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{1AFD6FFE-AA81-42A2-97D8-6D1587474978}" name="Column1" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Points" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Rank" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Progress" dataDxfId="31" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Date" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{1AFD6FFE-AA81-42A2-97D8-6D1587474978}" name="Column1" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Points" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Rank" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Progress" dataDxfId="28" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(ROW()&gt;2,($M$2-M2)/$M$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1740,14 +1749,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="28" tableBorderDxfId="29" totalsRowBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
   <autoFilter ref="A1:E6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Date" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Points" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Rank" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Progress" dataDxfId="22" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Date" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Points" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Rank" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Progress" dataDxfId="19" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(ROW()&gt;21,($D$2-D2)/$D$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1756,14 +1765,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table26" displayName="Table26" ref="G1:K3" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table26" displayName="Table26" ref="G1:K3" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="G1:K3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Category" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Date" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Points" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Rank" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Progress" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Category" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Date" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Points" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Rank" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Progress" dataDxfId="10">
       <calculatedColumnFormula>IF(ROW()&gt;21,($J$2-J2)/$J$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1772,14 +1781,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="M1:Q9" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="M1:Q9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="M1:Q9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Points" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Rank" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Progress" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Points" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Rank" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Progress" dataDxfId="0">
       <calculatedColumnFormula>IF(ROW()&gt;2,($P$2-P2)/$P$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2084,10 +2093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,7 +2173,7 @@
         <v>8309</v>
       </c>
       <c r="F2" s="27" t="str">
-        <f>IF(ROW()&gt;2,($E$2-E2)/$E$2,"NA")</f>
+        <f t="shared" ref="F2:F17" si="0">IF(ROW()&gt;2,($E$2-E2)/$E$2,"NA")</f>
         <v>NA</v>
       </c>
       <c r="I2" s="28" t="s">
@@ -2181,7 +2190,7 @@
         <v>291545</v>
       </c>
       <c r="N2" s="26" t="str">
-        <f t="shared" ref="N2" si="0">IF(ROW()&gt;2,($M$2-M2)/$M$2,"NA")</f>
+        <f t="shared" ref="N2" si="1">IF(ROW()&gt;2,($M$2-M2)/$M$2,"NA")</f>
         <v>NA</v>
       </c>
     </row>
@@ -2200,7 +2209,7 @@
         <v>6402</v>
       </c>
       <c r="F3" s="27">
-        <f>IF(ROW()&gt;2,($E$2-E3)/$E$2,"NA")</f>
+        <f t="shared" si="0"/>
         <v>0.22951016969551088</v>
       </c>
       <c r="I3" s="28" t="s">
@@ -2217,7 +2226,7 @@
         <v>251922</v>
       </c>
       <c r="N3" s="26">
-        <f t="shared" ref="N3:N14" si="1">IF(ROW()&gt;2,($M$2-M3)/$M$2,"NA")</f>
+        <f t="shared" ref="N3:N14" si="2">IF(ROW()&gt;2,($M$2-M3)/$M$2,"NA")</f>
         <v>0.13590697833953591</v>
       </c>
     </row>
@@ -2236,7 +2245,7 @@
         <v>4263</v>
       </c>
       <c r="F4" s="27">
-        <f>IF(ROW()&gt;2,($E$2-E4)/$E$2,"NA")</f>
+        <f t="shared" si="0"/>
         <v>0.48694187026116259</v>
       </c>
       <c r="I4" s="11" t="s">
@@ -2253,7 +2262,7 @@
         <v>202142</v>
       </c>
       <c r="N4" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.30665248932411804</v>
       </c>
     </row>
@@ -2272,7 +2281,7 @@
         <v>3963</v>
       </c>
       <c r="F5" s="27">
-        <f>IF(ROW()&gt;2,($E$2-E5)/$E$2,"NA")</f>
+        <f t="shared" si="0"/>
         <v>0.52304729811048256</v>
       </c>
       <c r="I5" s="11" t="s">
@@ -2289,7 +2298,7 @@
         <v>166029</v>
       </c>
       <c r="N5" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.43052015983810388</v>
       </c>
     </row>
@@ -2308,7 +2317,7 @@
         <v>3469</v>
       </c>
       <c r="F6" s="27">
-        <f>IF(ROW()&gt;2,($E$2-E6)/$E$2,"NA")</f>
+        <f t="shared" si="0"/>
         <v>0.5825009026356962</v>
       </c>
       <c r="I6" s="11" t="s">
@@ -2325,7 +2334,7 @@
         <v>161372</v>
       </c>
       <c r="N6" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.44649368022089214</v>
       </c>
     </row>
@@ -2344,7 +2353,7 @@
         <v>2912</v>
       </c>
       <c r="F7" s="27">
-        <f>IF(ROW()&gt;2,($E$2-E7)/$E$2,"NA")</f>
+        <f t="shared" si="0"/>
         <v>0.64953664700926705</v>
       </c>
       <c r="I7" s="28" t="s">
@@ -2361,7 +2370,7 @@
         <v>154109</v>
       </c>
       <c r="N7" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.47140578641376119</v>
       </c>
     </row>
@@ -2380,7 +2389,7 @@
         <v>2810</v>
       </c>
       <c r="F8" s="27">
-        <f>IF(ROW()&gt;2,($E$2-E8)/$E$2,"NA")</f>
+        <f t="shared" si="0"/>
         <v>0.66181249247803586</v>
       </c>
       <c r="I8" s="28" t="s">
@@ -2397,7 +2406,7 @@
         <v>148226</v>
       </c>
       <c r="N8" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.49158448952991818</v>
       </c>
     </row>
@@ -2416,7 +2425,7 @@
         <v>2829</v>
       </c>
       <c r="F9" s="27">
-        <f>IF(ROW()&gt;2,($E$2-E9)/$E$2,"NA")</f>
+        <f t="shared" si="0"/>
         <v>0.65952581538091226</v>
       </c>
       <c r="I9" s="28" t="s">
@@ -2433,7 +2442,7 @@
         <v>143690</v>
       </c>
       <c r="N9" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.50714297964293675</v>
       </c>
     </row>
@@ -2452,7 +2461,7 @@
         <v>2799</v>
       </c>
       <c r="F10" s="27">
-        <f>IF(ROW()&gt;2,($E$2-E10)/$E$2,"NA")</f>
+        <f t="shared" si="0"/>
         <v>0.66313635816584426</v>
       </c>
       <c r="I10" s="28" t="s">
@@ -2469,7 +2478,7 @@
         <v>130710</v>
       </c>
       <c r="N10" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.55166440858186561</v>
       </c>
     </row>
@@ -2488,7 +2497,7 @@
         <v>2712</v>
       </c>
       <c r="F11" s="27">
-        <f>IF(ROW()&gt;2,($E$2-E11)/$E$2,"NA")</f>
+        <f t="shared" si="0"/>
         <v>0.67360693224214707</v>
       </c>
       <c r="I11" s="28" t="s">
@@ -2505,7 +2514,7 @@
         <v>125808</v>
       </c>
       <c r="N11" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5684782795108817</v>
       </c>
     </row>
@@ -2524,7 +2533,7 @@
         <v>2722</v>
       </c>
       <c r="F12" s="32">
-        <f>IF(ROW()&gt;2,($E$2-E12)/$E$2,"NA")</f>
+        <f t="shared" si="0"/>
         <v>0.67240341798050307</v>
       </c>
       <c r="I12" s="28" t="s">
@@ -2541,7 +2550,7 @@
         <v>124134</v>
       </c>
       <c r="N12" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57422010324306716</v>
       </c>
     </row>
@@ -2560,7 +2569,7 @@
         <v>2563</v>
       </c>
       <c r="F13" s="32">
-        <f>IF(ROW()&gt;2,($E$2-E13)/$E$2,"NA")</f>
+        <f t="shared" si="0"/>
         <v>0.69153929474064268</v>
       </c>
       <c r="I13" s="28" t="s">
@@ -2577,7 +2586,7 @@
         <v>113212</v>
       </c>
       <c r="N13" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.61168258759368188</v>
       </c>
     </row>
@@ -2596,7 +2605,7 @@
         <v>2573</v>
       </c>
       <c r="F14" s="32">
-        <f>IF(ROW()&gt;2,($E$2-E14)/$E$2,"NA")</f>
+        <f t="shared" si="0"/>
         <v>0.69033578047899868</v>
       </c>
       <c r="I14" s="28" t="s">
@@ -2613,7 +2622,7 @@
         <v>99315</v>
       </c>
       <c r="N14" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.65934932857706352</v>
       </c>
     </row>
@@ -2632,7 +2641,7 @@
         <v>2524</v>
       </c>
       <c r="F15" s="32">
-        <f>IF(ROW()&gt;2,($E$2-E15)/$E$2,"NA")</f>
+        <f t="shared" si="0"/>
         <v>0.69623300036105429</v>
       </c>
       <c r="I15" s="28" t="s">
@@ -2668,7 +2677,7 @@
         <v>2455</v>
       </c>
       <c r="F16" s="32">
-        <f>IF(ROW()&gt;2,($E$2-E16)/$E$2,"NA")</f>
+        <f t="shared" si="0"/>
         <v>0.70453724876639789</v>
       </c>
       <c r="I16" s="28" t="s">
@@ -2692,23 +2701,23 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="42">
         <v>45129</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="41">
         <v>901.67</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="41">
         <v>2275</v>
       </c>
-      <c r="F17" s="44">
-        <f>IF(ROW()&gt;2,($E$2-E17)/$E$2,"NA")</f>
+      <c r="F17" s="43">
+        <f t="shared" si="0"/>
         <v>0.72620050547598991</v>
       </c>
       <c r="I17" s="28" t="s">
@@ -2730,6 +2739,35 @@
         <f>IF(ROW()&gt;2,($M$2-M17)/$M$2,"NA")</f>
         <v>0.73493971771081656</v>
       </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I18" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="46">
+        <v>45131</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" s="40">
+        <v>70408</v>
+      </c>
+      <c r="N18" s="47">
+        <f>IF(ROW()&gt;2,($M$2-M18)/$M$2,"NA")</f>
+        <v>0.758500403025262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I19" s="45"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2856,7 +2894,7 @@
         <v>10</v>
       </c>
       <c r="Q2" s="26" t="str">
-        <f>IF(ROW()&gt;2,($P$2-P2)/$P$2,"NA")</f>
+        <f t="shared" ref="Q2:Q9" si="0">IF(ROW()&gt;2,($P$2-P2)/$P$2,"NA")</f>
         <v>NA</v>
       </c>
     </row>
@@ -2895,7 +2933,7 @@
         <v>198980</v>
       </c>
       <c r="Q3" s="26">
-        <f>IF(ROW()&gt;2,($P$2-P3)/$P$2,"NA")</f>
+        <f t="shared" si="0"/>
         <v>0.26963198966370328</v>
       </c>
     </row>
@@ -2929,7 +2967,7 @@
         <v>126941</v>
       </c>
       <c r="Q4" s="26">
-        <f>IF(ROW()&gt;2,($P$2-P4)/$P$2,"NA")</f>
+        <f t="shared" si="0"/>
         <v>0.53405545481907812</v>
       </c>
     </row>
@@ -2963,7 +3001,7 @@
         <v>82469</v>
       </c>
       <c r="Q5" s="26">
-        <f>IF(ROW()&gt;2,($P$2-P5)/$P$2,"NA")</f>
+        <f t="shared" si="0"/>
         <v>0.69729259501244323</v>
       </c>
     </row>
@@ -2997,7 +3035,7 @@
         <v>63272</v>
       </c>
       <c r="Q6" s="26">
-        <f>IF(ROW()&gt;2,($P$2-P6)/$P$2,"NA")</f>
+        <f t="shared" si="0"/>
         <v>0.76775633355111994</v>
       </c>
     </row>
@@ -3015,7 +3053,7 @@
         <v>67593</v>
       </c>
       <c r="Q7" s="26">
-        <f>IF(ROW()&gt;2,($P$2-P7)/$P$2,"NA")</f>
+        <f t="shared" si="0"/>
         <v>0.751895844192073</v>
       </c>
     </row>
@@ -3033,7 +3071,7 @@
         <v>58441</v>
       </c>
       <c r="Q8" s="26">
-        <f>IF(ROW()&gt;2,($P$2-P8)/$P$2,"NA")</f>
+        <f t="shared" si="0"/>
         <v>0.78548880846284297</v>
       </c>
     </row>
@@ -3051,7 +3089,7 @@
         <v>59304</v>
       </c>
       <c r="Q9" s="26">
-        <f>IF(ROW()&gt;2,($P$2-P9)/$P$2,"NA")</f>
+        <f t="shared" si="0"/>
         <v>0.78232111526292225</v>
       </c>
     </row>
@@ -3083,14 +3121,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="D1" s="41" t="s">
+      <c r="B1" s="44"/>
+      <c r="D1" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="41"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="38" t="s">

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owanis\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E789A517-BEC6-4C1F-9370-AE188418EE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B2FF36-6A12-473B-AC58-39A0AB402695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,10 +190,10 @@
     <t>53% (632.03 points to next star)</t>
   </si>
   <si>
-    <t>60% (542.03 points to next star)</t>
-  </si>
-  <si>
-    <t>1657.97/2200</t>
+    <t>61% (527.03 points to next star)</t>
+  </si>
+  <si>
+    <t>1672.97/2200</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -462,16 +462,9 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2096,7 +2089,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2701,22 +2694,22 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="42">
+      <c r="B17" s="31">
         <v>45129</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="6">
         <v>901.67</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="6">
         <v>2275</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="32">
         <f t="shared" si="0"/>
         <v>0.72620050547598991</v>
       </c>
@@ -2732,7 +2725,7 @@
       <c r="L17" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="M17" s="40">
+      <c r="M17" s="17">
         <v>77277</v>
       </c>
       <c r="N17" s="35">
@@ -2744,30 +2737,30 @@
       <c r="I18" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="46">
+      <c r="J18" s="18">
         <v>45131</v>
       </c>
       <c r="K18" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="L18" s="40" t="s">
+      <c r="L18" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="M18" s="40">
-        <v>70408</v>
-      </c>
-      <c r="N18" s="47">
+      <c r="M18" s="17">
+        <v>69412</v>
+      </c>
+      <c r="N18" s="30">
         <f>IF(ROW()&gt;2,($M$2-M18)/$M$2,"NA")</f>
-        <v>0.758500403025262</v>
+        <v>0.76191668524584544</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I19" s="45"/>
-      <c r="J19" s="46"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="18"/>
       <c r="K19" s="18"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="47"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3121,14 +3114,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="D1" s="44" t="s">
+      <c r="B1" s="40"/>
+      <c r="D1" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="44"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="38" t="s">

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owanis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!!! P\HackerRank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B2FF36-6A12-473B-AC58-39A0AB402695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1AB9339-0128-4F5D-A084-130699F4AFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Math &amp; Algorithms" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="54">
   <si>
     <t>Rank</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>1672.97/2200</t>
+  </si>
+  <si>
+    <t>1687.97/2200</t>
+  </si>
+  <si>
+    <t>62% (512.03 points to next star)</t>
   </si>
 </sst>
 </file>
@@ -2089,7 +2095,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,12 +2761,25 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I19" s="11"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="30"/>
+      <c r="I19" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="18">
+        <v>45132</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="17">
+        <v>68369</v>
+      </c>
+      <c r="N19" s="30">
+        <f>IF(ROW()&gt;2,($M$2-M19)/$M$2,"NA")</f>
+        <v>0.76549417757121541</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!!! P\HackerRank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1AB9339-0128-4F5D-A084-130699F4AFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BCA12A-3A37-4BE5-8C27-873F5A342E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Math &amp; Algorithms" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="54">
   <si>
     <t>Rank</t>
   </si>
@@ -209,7 +209,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +258,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -417,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -471,6 +476,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1711,7 +1719,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F17" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F18" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E5">
     <sortCondition ref="A2:A5"/>
     <sortCondition ref="B2:B5"/>
@@ -2095,10 +2103,10 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="5" bestFit="1" customWidth="1"/>
@@ -2119,7 +2127,7 @@
     <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2157,7 +2165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -2193,7 +2201,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -2229,7 +2237,7 @@
         <v>0.13590697833953591</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -2265,7 +2273,7 @@
         <v>0.30665248932411804</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -2301,7 +2309,7 @@
         <v>0.43052015983810388</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -2337,7 +2345,7 @@
         <v>0.44649368022089214</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -2373,7 +2381,7 @@
         <v>0.47140578641376119</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -2409,7 +2417,7 @@
         <v>0.49158448952991818</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -2445,7 +2453,7 @@
         <v>0.50714297964293675</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
@@ -2481,7 +2489,7 @@
         <v>0.55166440858186561</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
@@ -2517,7 +2525,7 @@
         <v>0.5684782795108817</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -2553,7 +2561,7 @@
         <v>0.57422010324306716</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
@@ -2589,7 +2597,7 @@
         <v>0.61168258759368188</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -2625,7 +2633,7 @@
         <v>0.65934932857706352</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -2661,7 +2669,7 @@
         <v>0.68830540739851476</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
@@ -2699,7 +2707,7 @@
         <v>0.72326742012382306</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
@@ -2739,7 +2747,24 @@
         <v>0.73493971771081656</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
+      <c r="A18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="42">
+        <v>45133</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="41">
+        <v>931.67</v>
+      </c>
+      <c r="E18" s="41">
+        <v>2159</v>
+      </c>
+      <c r="F18" s="43">
+        <f>IF(ROW()&gt;2,($E$2-E18)/$E$2,"NA")</f>
+        <v>0.74016127091106032</v>
+      </c>
       <c r="I18" s="28" t="s">
         <v>14</v>
       </c>
@@ -2760,7 +2785,7 @@
         <v>0.76191668524584544</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="I19" s="28" t="s">
         <v>14</v>
       </c>
@@ -2799,7 +2824,7 @@
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -2813,7 +2838,7 @@
     <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
@@ -2860,7 +2885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
@@ -2910,7 +2935,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
@@ -2949,7 +2974,7 @@
         <v>0.26963198966370328</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
@@ -2983,7 +3008,7 @@
         <v>0.53405545481907812</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
@@ -3017,7 +3042,7 @@
         <v>0.69729259501244323</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
@@ -3051,7 +3076,7 @@
         <v>0.76775633355111994</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="M7" s="7" t="s">
         <v>6</v>
       </c>
@@ -3069,7 +3094,7 @@
         <v>0.751895844192073</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="M8" s="7" t="s">
         <v>6</v>
       </c>
@@ -3087,7 +3112,7 @@
         <v>0.78548880846284297</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="M9" s="7" t="s">
         <v>6</v>
       </c>
@@ -3123,7 +3148,7 @@
       <selection activeCell="D1" sqref="D1:E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="62.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
@@ -3132,7 +3157,7 @@
     <col min="5" max="5" width="56.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="33.75">
       <c r="A1" s="40" t="s">
         <v>37</v>
       </c>
@@ -3142,7 +3167,7 @@
       </c>
       <c r="E1" s="40"/>
     </row>
-    <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" ht="33.75">
       <c r="A2" s="38" t="s">
         <v>40</v>
       </c>
@@ -3157,7 +3182,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="22" t="s">
         <v>33</v>
       </c>
@@ -3169,7 +3194,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="22" t="s">
         <v>34</v>
       </c>
@@ -3177,7 +3202,7 @@
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="22" t="s">
         <v>35</v>
       </c>
@@ -3185,7 +3210,7 @@
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="39" t="s">
         <v>36</v>
       </c>
@@ -3193,67 +3218,67 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:5" ht="33.75">
       <c r="A17" s="38" t="s">
         <v>4</v>
       </c>
@@ -3268,91 +3293,91 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="D32" s="22"/>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!!! P\HackerRank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BCA12A-3A37-4BE5-8C27-873F5A342E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2DAD00-1755-4575-A655-0DC39D006D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="55">
   <si>
     <t>Rank</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>62% (512.03 points to next star)</t>
+  </si>
+  <si>
+    <t>15% (42/283 challenges solved)</t>
   </si>
 </sst>
 </file>
@@ -473,12 +476,12 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2103,7 +2106,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2751,17 +2754,19 @@
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="41">
         <v>45133</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="41">
+      <c r="C18" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="40">
         <v>931.67</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="40">
         <v>2159</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="42">
         <f>IF(ROW()&gt;2,($E$2-E18)/$E$2,"NA")</f>
         <v>0.74016127091106032</v>
       </c>
@@ -3158,14 +3163,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="D1" s="40" t="s">
+      <c r="B1" s="43"/>
+      <c r="D1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:5" ht="33.75">
       <c r="A2" s="38" t="s">

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!!! P\HackerRank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2DAD00-1755-4575-A655-0DC39D006D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D21E087-AF17-438D-BAB2-06EBC4E3D5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Math &amp; Algorithms" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="59">
   <si>
     <t>Rank</t>
   </si>
@@ -203,6 +203,18 @@
   </si>
   <si>
     <t>15% (42/283 challenges solved)</t>
+  </si>
+  <si>
+    <t>1712.97/2200</t>
+  </si>
+  <si>
+    <t>64% (487.03 points to next star)</t>
+  </si>
+  <si>
+    <t>1732.97/2200</t>
+  </si>
+  <si>
+    <t>65% (467.03 points to next star)</t>
   </si>
 </sst>
 </file>
@@ -212,7 +224,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +278,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -425,7 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -482,6 +495,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1742,8 +1758,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="I1:N19" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
-  <autoFilter ref="I1:N19" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="I1:N21" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="I1:N21" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Date" dataDxfId="32"/>
@@ -2103,13 +2119,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="I20" sqref="I20:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="5" bestFit="1" customWidth="1"/>
@@ -2130,7 +2146,7 @@
     <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2168,7 +2184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -2204,7 +2220,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -2240,7 +2256,7 @@
         <v>0.13590697833953591</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -2276,7 +2292,7 @@
         <v>0.30665248932411804</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -2312,7 +2328,7 @@
         <v>0.43052015983810388</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -2348,7 +2364,7 @@
         <v>0.44649368022089214</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -2384,7 +2400,7 @@
         <v>0.47140578641376119</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -2420,7 +2436,7 @@
         <v>0.49158448952991818</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -2456,7 +2472,7 @@
         <v>0.50714297964293675</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
@@ -2492,7 +2508,7 @@
         <v>0.55166440858186561</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
@@ -2528,7 +2544,7 @@
         <v>0.5684782795108817</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -2564,7 +2580,7 @@
         <v>0.57422010324306716</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
@@ -2600,7 +2616,7 @@
         <v>0.61168258759368188</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -2636,7 +2652,7 @@
         <v>0.65934932857706352</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -2672,7 +2688,7 @@
         <v>0.68830540739851476</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
@@ -2710,7 +2726,7 @@
         <v>0.72326742012382306</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
@@ -2750,7 +2766,7 @@
         <v>0.73493971771081656</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -2790,7 +2806,7 @@
         <v>0.76191668524584544</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I19" s="28" t="s">
         <v>14</v>
       </c>
@@ -2809,6 +2825,48 @@
       <c r="N19" s="30">
         <f>IF(ROW()&gt;2,($M$2-M19)/$M$2,"NA")</f>
         <v>0.76549417757121541</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I20" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="44">
+        <v>45134</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="M20" s="45">
+        <v>66794</v>
+      </c>
+      <c r="N20" s="46">
+        <f>IF(ROW()&gt;2,($M$2-M20)/$M$2,"NA")</f>
+        <v>0.77089643108268024</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I21" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="44">
+        <v>45135</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21" s="45">
+        <v>65489</v>
+      </c>
+      <c r="N21" s="46">
+        <f>IF(ROW()&gt;2,($M$2-M21)/$M$2,"NA")</f>
+        <v>0.77537258399217956</v>
       </c>
     </row>
   </sheetData>
@@ -2829,7 +2887,7 @@
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -2843,7 +2901,7 @@
     <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
@@ -2890,7 +2948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
@@ -2940,7 +2998,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
@@ -2979,7 +3037,7 @@
         <v>0.26963198966370328</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
@@ -3013,7 +3071,7 @@
         <v>0.53405545481907812</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
@@ -3047,7 +3105,7 @@
         <v>0.69729259501244323</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
@@ -3081,7 +3139,7 @@
         <v>0.76775633355111994</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M7" s="7" t="s">
         <v>6</v>
       </c>
@@ -3099,7 +3157,7 @@
         <v>0.751895844192073</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M8" s="7" t="s">
         <v>6</v>
       </c>
@@ -3117,7 +3175,7 @@
         <v>0.78548880846284297</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M9" s="7" t="s">
         <v>6</v>
       </c>
@@ -3153,7 +3211,7 @@
       <selection activeCell="D1" sqref="D1:E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
@@ -3162,7 +3220,7 @@
     <col min="5" max="5" width="56.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75">
+    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A1" s="43" t="s">
         <v>37</v>
       </c>
@@ -3172,7 +3230,7 @@
       </c>
       <c r="E1" s="43"/>
     </row>
-    <row r="2" spans="1:5" ht="33.75">
+    <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="38" t="s">
         <v>40</v>
       </c>
@@ -3187,7 +3245,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>33</v>
       </c>
@@ -3199,7 +3257,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>34</v>
       </c>
@@ -3207,7 +3265,7 @@
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>35</v>
       </c>
@@ -3215,7 +3273,7 @@
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>36</v>
       </c>
@@ -3223,67 +3281,67 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="1:5" ht="33.75">
+    <row r="17" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A17" s="38" t="s">
         <v>4</v>
       </c>
@@ -3298,91 +3356,91 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="D32" s="22"/>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D21E087-AF17-438D-BAB2-06EBC4E3D5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622FFAA2-1469-4D1C-81A3-699F4244B4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="61">
   <si>
     <t>Rank</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>65% (467.03 points to next star)</t>
+  </si>
+  <si>
+    <t>1757.97/2200</t>
+  </si>
+  <si>
+    <t>67% (442.03 points to next star)</t>
   </si>
 </sst>
 </file>
@@ -492,12 +498,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1758,8 +1764,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="I1:N21" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
-  <autoFilter ref="I1:N21" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="I1:N22" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="I1:N22" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Date" dataDxfId="32"/>
@@ -2119,10 +2125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20:I21"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2684,7 +2690,7 @@
         <v>90873</v>
       </c>
       <c r="N15" s="35">
-        <f>IF(ROW()&gt;2,($M$2-M15)/$M$2,"NA")</f>
+        <f t="shared" ref="N15:N21" si="3">IF(ROW()&gt;2,($M$2-M15)/$M$2,"NA")</f>
         <v>0.68830540739851476</v>
       </c>
     </row>
@@ -2722,7 +2728,7 @@
         <v>80680</v>
       </c>
       <c r="N16" s="35">
-        <f>IF(ROW()&gt;2,($M$2-M16)/$M$2,"NA")</f>
+        <f t="shared" si="3"/>
         <v>0.72326742012382306</v>
       </c>
     </row>
@@ -2762,7 +2768,7 @@
         <v>77277</v>
       </c>
       <c r="N17" s="35">
-        <f>IF(ROW()&gt;2,($M$2-M17)/$M$2,"NA")</f>
+        <f t="shared" si="3"/>
         <v>0.73493971771081656</v>
       </c>
     </row>
@@ -2802,7 +2808,7 @@
         <v>69412</v>
       </c>
       <c r="N18" s="30">
-        <f>IF(ROW()&gt;2,($M$2-M18)/$M$2,"NA")</f>
+        <f t="shared" si="3"/>
         <v>0.76191668524584544</v>
       </c>
     </row>
@@ -2823,7 +2829,7 @@
         <v>68369</v>
       </c>
       <c r="N19" s="30">
-        <f>IF(ROW()&gt;2,($M$2-M19)/$M$2,"NA")</f>
+        <f t="shared" si="3"/>
         <v>0.76549417757121541</v>
       </c>
     </row>
@@ -2831,20 +2837,20 @@
       <c r="I20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="44">
+      <c r="J20" s="43">
         <v>45134</v>
       </c>
       <c r="K20" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="L20" s="45" t="s">
+      <c r="L20" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="M20" s="45">
+      <c r="M20" s="44">
         <v>66794</v>
       </c>
-      <c r="N20" s="46">
-        <f>IF(ROW()&gt;2,($M$2-M20)/$M$2,"NA")</f>
+      <c r="N20" s="45">
+        <f t="shared" si="3"/>
         <v>0.77089643108268024</v>
       </c>
     </row>
@@ -2852,21 +2858,42 @@
       <c r="I21" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="44">
+      <c r="J21" s="43">
         <v>45135</v>
       </c>
       <c r="K21" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="L21" s="45" t="s">
+      <c r="L21" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="45">
+      <c r="M21" s="44">
         <v>65489</v>
       </c>
-      <c r="N21" s="46">
-        <f>IF(ROW()&gt;2,($M$2-M21)/$M$2,"NA")</f>
+      <c r="N21" s="45">
+        <f t="shared" si="3"/>
         <v>0.77537258399217956</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I22" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="43">
+        <v>45136</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="L22" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="M22" s="44">
+        <v>63885</v>
+      </c>
+      <c r="N22" s="45">
+        <f>IF(ROW()&gt;2,($M$2-M22)/$M$2,"NA")</f>
+        <v>0.7808743075682999</v>
       </c>
     </row>
   </sheetData>
@@ -3221,14 +3248,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="D1" s="43" t="s">
+      <c r="B1" s="46"/>
+      <c r="D1" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="43"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="38" t="s">

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622FFAA2-1469-4D1C-81A3-699F4244B4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9421985B-AD80-42D6-8249-096B4B55510D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Math &amp; Algorithms" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="63">
   <si>
     <t>Rank</t>
   </si>
@@ -221,6 +221,12 @@
   </si>
   <si>
     <t>67% (442.03 points to next star)</t>
+  </si>
+  <si>
+    <t>1777.97/2200</t>
+  </si>
+  <si>
+    <t>69% (422.03 points to next star)</t>
   </si>
 </sst>
 </file>
@@ -230,7 +236,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +291,11 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -444,7 +455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -504,6 +515,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1764,8 +1776,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="I1:N22" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
-  <autoFilter ref="I1:N22" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="I1:N23" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="I1:N23" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Date" dataDxfId="32"/>
@@ -2125,34 +2137,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="2.140625" customWidth="1"/>
-    <col min="9" max="9" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="2.109375" customWidth="1"/>
+    <col min="9" max="9" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2190,7 +2202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -2226,7 +2238,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -2262,7 +2274,7 @@
         <v>0.13590697833953591</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -2298,7 +2310,7 @@
         <v>0.30665248932411804</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -2334,7 +2346,7 @@
         <v>0.43052015983810388</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -2370,7 +2382,7 @@
         <v>0.44649368022089214</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -2406,7 +2418,7 @@
         <v>0.47140578641376119</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -2442,7 +2454,7 @@
         <v>0.49158448952991818</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -2478,7 +2490,7 @@
         <v>0.50714297964293675</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
@@ -2514,7 +2526,7 @@
         <v>0.55166440858186561</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
@@ -2550,7 +2562,7 @@
         <v>0.5684782795108817</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -2586,7 +2598,7 @@
         <v>0.57422010324306716</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
@@ -2622,7 +2634,7 @@
         <v>0.61168258759368188</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -2658,7 +2670,7 @@
         <v>0.65934932857706352</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -2694,7 +2706,7 @@
         <v>0.68830540739851476</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
@@ -2732,7 +2744,7 @@
         <v>0.72326742012382306</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
@@ -2772,7 +2784,7 @@
         <v>0.73493971771081656</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -2812,7 +2824,7 @@
         <v>0.76191668524584544</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="I19" s="28" t="s">
         <v>14</v>
       </c>
@@ -2833,7 +2845,7 @@
         <v>0.76549417757121541</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="I20" s="28" t="s">
         <v>14</v>
       </c>
@@ -2854,7 +2866,7 @@
         <v>0.77089643108268024</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="I21" s="28" t="s">
         <v>14</v>
       </c>
@@ -2875,7 +2887,7 @@
         <v>0.77537258399217956</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="I22" s="28" t="s">
         <v>14</v>
       </c>
@@ -2894,6 +2906,27 @@
       <c r="N22" s="45">
         <f>IF(ROW()&gt;2,($M$2-M22)/$M$2,"NA")</f>
         <v>0.7808743075682999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="I23" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="47">
+        <v>45137</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="L23" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="44">
+        <v>62706</v>
+      </c>
+      <c r="N23" s="45">
+        <f>IF(ROW()&gt;2,($M$2-M23)/$M$2,"NA")</f>
+        <v>0.78491828019688215</v>
       </c>
     </row>
   </sheetData>
@@ -2914,21 +2947,21 @@
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
@@ -2975,7 +3008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
@@ -3025,7 +3058,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
@@ -3064,7 +3097,7 @@
         <v>0.26963198966370328</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
@@ -3098,7 +3131,7 @@
         <v>0.53405545481907812</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
@@ -3132,7 +3165,7 @@
         <v>0.69729259501244323</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
@@ -3166,7 +3199,7 @@
         <v>0.76775633355111994</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="M7" s="7" t="s">
         <v>6</v>
       </c>
@@ -3184,7 +3217,7 @@
         <v>0.751895844192073</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="M8" s="7" t="s">
         <v>6</v>
       </c>
@@ -3202,7 +3235,7 @@
         <v>0.78548880846284297</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="M9" s="7" t="s">
         <v>6</v>
       </c>
@@ -3238,16 +3271,16 @@
       <selection activeCell="D1" sqref="D1:E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="62.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="62.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="62.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="33.6">
       <c r="A1" s="46" t="s">
         <v>37</v>
       </c>
@@ -3257,7 +3290,7 @@
       </c>
       <c r="E1" s="46"/>
     </row>
-    <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" ht="33.6">
       <c r="A2" s="38" t="s">
         <v>40</v>
       </c>
@@ -3272,7 +3305,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="22" t="s">
         <v>33</v>
       </c>
@@ -3284,7 +3317,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="22" t="s">
         <v>34</v>
       </c>
@@ -3292,7 +3325,7 @@
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="22" t="s">
         <v>35</v>
       </c>
@@ -3300,7 +3333,7 @@
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="39" t="s">
         <v>36</v>
       </c>
@@ -3308,67 +3341,67 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:5" ht="33.6">
       <c r="A17" s="38" t="s">
         <v>4</v>
       </c>
@@ -3383,91 +3416,91 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="D32" s="22"/>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9421985B-AD80-42D6-8249-096B4B55510D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA86D057-56CC-46A9-A386-BCC1D7D35F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="65">
   <si>
     <t>Rank</t>
   </si>
@@ -227,6 +227,12 @@
   </si>
   <si>
     <t>69% (422.03 points to next star)</t>
+  </si>
+  <si>
+    <t>1802.97/2200</t>
+  </si>
+  <si>
+    <t>71% (397.03 points to next star)</t>
   </si>
 </sst>
 </file>
@@ -236,7 +242,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +302,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -455,7 +462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -512,10 +519,11 @@
     <xf numFmtId="15" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1776,8 +1784,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="I1:N23" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
-  <autoFilter ref="I1:N23" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="I1:N25" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="I1:N25" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Date" dataDxfId="32"/>
@@ -2137,13 +2145,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="L16" sqref="L16:L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="5" bestFit="1" customWidth="1"/>
@@ -2164,7 +2172,7 @@
     <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2202,7 +2210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -2238,7 +2246,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -2274,7 +2282,7 @@
         <v>0.13590697833953591</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -2310,7 +2318,7 @@
         <v>0.30665248932411804</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -2346,7 +2354,7 @@
         <v>0.43052015983810388</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -2382,7 +2390,7 @@
         <v>0.44649368022089214</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -2418,7 +2426,7 @@
         <v>0.47140578641376119</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -2454,7 +2462,7 @@
         <v>0.49158448952991818</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -2490,7 +2498,7 @@
         <v>0.50714297964293675</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
@@ -2526,7 +2534,7 @@
         <v>0.55166440858186561</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
@@ -2562,7 +2570,7 @@
         <v>0.5684782795108817</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -2598,7 +2606,7 @@
         <v>0.57422010324306716</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
@@ -2634,7 +2642,7 @@
         <v>0.61168258759368188</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -2670,7 +2678,7 @@
         <v>0.65934932857706352</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -2706,7 +2714,7 @@
         <v>0.68830540739851476</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
@@ -2744,7 +2752,7 @@
         <v>0.72326742012382306</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
@@ -2784,7 +2792,7 @@
         <v>0.73493971771081656</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -2824,7 +2832,7 @@
         <v>0.76191668524584544</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I19" s="28" t="s">
         <v>14</v>
       </c>
@@ -2845,7 +2853,7 @@
         <v>0.76549417757121541</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I20" s="28" t="s">
         <v>14</v>
       </c>
@@ -2866,7 +2874,7 @@
         <v>0.77089643108268024</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I21" s="28" t="s">
         <v>14</v>
       </c>
@@ -2887,7 +2895,7 @@
         <v>0.77537258399217956</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I22" s="28" t="s">
         <v>14</v>
       </c>
@@ -2908,11 +2916,11 @@
         <v>0.7808743075682999</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I23" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="47">
+      <c r="J23" s="46">
         <v>45137</v>
       </c>
       <c r="K23" s="18" t="s">
@@ -2928,6 +2936,35 @@
         <f>IF(ROW()&gt;2,($M$2-M23)/$M$2,"NA")</f>
         <v>0.78491828019688215</v>
       </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I24" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="43">
+        <v>45138</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="L24" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" s="44">
+        <v>61278</v>
+      </c>
+      <c r="N24" s="45">
+        <f>IF(ROW()&gt;2,($M$2-M24)/$M$2,"NA")</f>
+        <v>0.78981632338061025</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I25" s="48"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2947,7 +2984,7 @@
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
@@ -2961,7 +2998,7 @@
     <col min="17" max="17" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
@@ -3008,7 +3045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
@@ -3058,7 +3095,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
@@ -3097,7 +3134,7 @@
         <v>0.26963198966370328</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
@@ -3131,7 +3168,7 @@
         <v>0.53405545481907812</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
@@ -3165,7 +3202,7 @@
         <v>0.69729259501244323</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
@@ -3199,7 +3236,7 @@
         <v>0.76775633355111994</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M7" s="7" t="s">
         <v>6</v>
       </c>
@@ -3217,7 +3254,7 @@
         <v>0.751895844192073</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M8" s="7" t="s">
         <v>6</v>
       </c>
@@ -3235,7 +3272,7 @@
         <v>0.78548880846284297</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M9" s="7" t="s">
         <v>6</v>
       </c>
@@ -3271,7 +3308,7 @@
       <selection activeCell="D1" sqref="D1:E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="62.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
@@ -3280,17 +3317,17 @@
     <col min="5" max="5" width="56.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.6">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:5" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A1" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="47"/>
+      <c r="D1" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="46"/>
-    </row>
-    <row r="2" spans="1:5" ht="33.6">
+      <c r="E1" s="47"/>
+    </row>
+    <row r="2" spans="1:5" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A2" s="38" t="s">
         <v>40</v>
       </c>
@@ -3305,7 +3342,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>33</v>
       </c>
@@ -3317,7 +3354,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>34</v>
       </c>
@@ -3325,7 +3362,7 @@
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>35</v>
       </c>
@@ -3333,7 +3370,7 @@
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>36</v>
       </c>
@@ -3341,67 +3378,67 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="1:5" ht="33.6">
+    <row r="17" spans="1:5" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A17" s="38" t="s">
         <v>4</v>
       </c>
@@ -3416,91 +3453,91 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="D32" s="22"/>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Osama\!Math &amp; Algorithms\HackerRank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA86D057-56CC-46A9-A386-BCC1D7D35F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11C8261-707B-48BA-BA73-BA8BC7DE6847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="69">
   <si>
     <t>Rank</t>
   </si>
@@ -233,6 +233,18 @@
   </si>
   <si>
     <t>71% (397.03 points to next star)</t>
+  </si>
+  <si>
+    <t>1822.97/2200</t>
+  </si>
+  <si>
+    <t>72% (377.03 points to next star)</t>
+  </si>
+  <si>
+    <t>74% (349.89 points to next star)</t>
+  </si>
+  <si>
+    <t>1850.11/2200</t>
   </si>
 </sst>
 </file>
@@ -1784,8 +1796,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="I1:N25" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
-  <autoFilter ref="I1:N25" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="I1:N26" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="I1:N26" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Date" dataDxfId="32"/>
@@ -2145,10 +2157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16:L24"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2959,12 +2971,45 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I25" s="48"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="45"/>
+      <c r="I25" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="43">
+        <v>45140</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" s="44">
+        <v>60135</v>
+      </c>
+      <c r="N25" s="45">
+        <f>IF(ROW()&gt;2,($M$2-M25)/$M$2,"NA")</f>
+        <v>0.79373681592893031</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I26" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="43">
+        <v>45141</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="M26" s="44">
+        <v>58703</v>
+      </c>
+      <c r="N26" s="45">
+        <v>0.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Osama\!Math &amp; Algorithms\HackerRank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11C8261-707B-48BA-BA73-BA8BC7DE6847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA2E55F-127B-44D5-813A-D74F01C89E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="71">
   <si>
     <t>Rank</t>
   </si>
@@ -245,6 +245,12 @@
   </si>
   <si>
     <t>1850.11/2200</t>
+  </si>
+  <si>
+    <t>1905.11/2200</t>
+  </si>
+  <si>
+    <t>78% (294.89 points to next star)</t>
   </si>
 </sst>
 </file>
@@ -532,10 +538,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1796,8 +1802,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="I1:N26" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
-  <autoFilter ref="I1:N26" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="I1:N27" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="I1:N27" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Date" dataDxfId="32"/>
@@ -2157,10 +2163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2992,7 +2998,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I26" s="48" t="s">
+      <c r="I26" s="47" t="s">
         <v>14</v>
       </c>
       <c r="J26" s="43">
@@ -3009,6 +3015,27 @@
       </c>
       <c r="N26" s="45">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I27" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="43">
+        <v>45147</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="M27" s="44">
+        <v>55998</v>
+      </c>
+      <c r="N27" s="45">
+        <f>IF(ROW()&gt;2,($M$2-M27)/$M$2,"NA")</f>
+        <v>0.8079267351523779</v>
       </c>
     </row>
   </sheetData>
@@ -3363,14 +3390,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="48"/>
+      <c r="D1" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="47"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A2" s="38" t="s">

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Osama\!Math &amp; Algorithms\HackerRank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA2E55F-127B-44D5-813A-D74F01C89E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C27E923-F5B0-4D28-8FD2-70F9FF36CDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="73">
   <si>
     <t>Rank</t>
   </si>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>78% (294.89 points to next star)</t>
+  </si>
+  <si>
+    <t>80% (264.89 points to next star)</t>
+  </si>
+  <si>
+    <t>1935.11/2200</t>
   </si>
 </sst>
 </file>
@@ -1802,8 +1808,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="I1:N27" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
-  <autoFilter ref="I1:N27" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="I1:N29" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="I1:N29" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Date" dataDxfId="32"/>
@@ -2163,10 +2169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3037,6 +3043,35 @@
         <f>IF(ROW()&gt;2,($M$2-M27)/$M$2,"NA")</f>
         <v>0.8079267351523779</v>
       </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I28" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="43">
+        <v>45153</v>
+      </c>
+      <c r="K28" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="L28" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="M28" s="44">
+        <v>54642</v>
+      </c>
+      <c r="N28" s="45">
+        <f>IF(ROW()&gt;2,($M$2-M28)/$M$2,"NA")</f>
+        <v>0.81257781817558183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I29" s="47"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Osama\!Math &amp; Algorithms\HackerRank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C27E923-F5B0-4D28-8FD2-70F9FF36CDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879D560C-9114-4BB1-AD5D-3DE6CFDEC077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="75">
   <si>
     <t>Rank</t>
   </si>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t>1935.11/2200</t>
+  </si>
+  <si>
+    <t>1983.16/2200</t>
+  </si>
+  <si>
+    <t>84% (216.84 points to next star)</t>
   </si>
 </sst>
 </file>
@@ -1808,8 +1814,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="I1:N29" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
-  <autoFilter ref="I1:N29" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="I1:N30" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="I1:N30" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Date" dataDxfId="32"/>
@@ -2169,10 +2175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3020,7 +3026,8 @@
         <v>58703</v>
       </c>
       <c r="N26" s="45">
-        <v>0.8</v>
+        <f t="shared" ref="N26:N29" si="4">IF(ROW()&gt;2,($M$2-M26)/$M$2,"NA")</f>
+        <v>0.79864857912157639</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -3040,7 +3047,7 @@
         <v>55998</v>
       </c>
       <c r="N27" s="45">
-        <f>IF(ROW()&gt;2,($M$2-M27)/$M$2,"NA")</f>
+        <f t="shared" si="4"/>
         <v>0.8079267351523779</v>
       </c>
     </row>
@@ -3061,17 +3068,38 @@
         <v>54642</v>
       </c>
       <c r="N28" s="45">
-        <f>IF(ROW()&gt;2,($M$2-M28)/$M$2,"NA")</f>
+        <f t="shared" si="4"/>
         <v>0.81257781817558183</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I29" s="47"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="45"/>
+      <c r="I29" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="43">
+        <v>45156</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L29" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="M29" s="44">
+        <v>52622</v>
+      </c>
+      <c r="N29" s="45">
+        <f>IF(ROW()&gt;2,($M$2-M29)/$M$2,"NA")</f>
+        <v>0.81950642267917473</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I30" s="47"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Osama\!Math &amp; Algorithms\HackerRank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owanis\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879D560C-9114-4BB1-AD5D-3DE6CFDEC077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7FC0C6-96B6-44F1-BD83-879E403303A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Math &amp; Algorithms" sheetId="1" r:id="rId1"/>
@@ -259,10 +259,10 @@
     <t>1935.11/2200</t>
   </si>
   <si>
-    <t>1983.16/2200</t>
-  </si>
-  <si>
-    <t>84% (216.84 points to next star)</t>
+    <t>2023.16/2200</t>
+  </si>
+  <si>
+    <t>87% (176.84 points to next star)</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -546,11 +546,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2178,31 +2174,31 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="2.109375" customWidth="1"/>
-    <col min="9" max="9" width="43.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="2.140625" customWidth="1"/>
+    <col min="9" max="9" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" customWidth="1"/>
-    <col min="16" max="16" width="43.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2240,7 +2236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -2276,7 +2272,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -2312,7 +2308,7 @@
         <v>0.13590697833953591</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -2348,7 +2344,7 @@
         <v>0.30665248932411804</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -2384,7 +2380,7 @@
         <v>0.43052015983810388</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -2420,7 +2416,7 @@
         <v>0.44649368022089214</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -2456,7 +2452,7 @@
         <v>0.47140578641376119</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -2492,7 +2488,7 @@
         <v>0.49158448952991818</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -2528,7 +2524,7 @@
         <v>0.50714297964293675</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
@@ -2564,7 +2560,7 @@
         <v>0.55166440858186561</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
@@ -2600,7 +2596,7 @@
         <v>0.5684782795108817</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -2636,7 +2632,7 @@
         <v>0.57422010324306716</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
@@ -2672,7 +2668,7 @@
         <v>0.61168258759368188</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -2708,7 +2704,7 @@
         <v>0.65934932857706352</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -2744,7 +2740,7 @@
         <v>0.68830540739851476</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
@@ -2782,7 +2778,7 @@
         <v>0.72326742012382306</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
@@ -2822,7 +2818,7 @@
         <v>0.73493971771081656</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -2862,7 +2858,7 @@
         <v>0.76191668524584544</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I19" s="28" t="s">
         <v>14</v>
       </c>
@@ -2883,223 +2879,223 @@
         <v>0.76549417757121541</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="43">
+      <c r="J20" s="18">
         <v>45134</v>
       </c>
       <c r="K20" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="L20" s="44" t="s">
+      <c r="L20" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="M20" s="44">
+      <c r="M20" s="17">
         <v>66794</v>
       </c>
-      <c r="N20" s="45">
+      <c r="N20" s="30">
         <f t="shared" si="3"/>
         <v>0.77089643108268024</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I21" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="43">
+      <c r="J21" s="18">
         <v>45135</v>
       </c>
       <c r="K21" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="L21" s="44" t="s">
+      <c r="L21" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="44">
+      <c r="M21" s="17">
         <v>65489</v>
       </c>
-      <c r="N21" s="45">
+      <c r="N21" s="30">
         <f t="shared" si="3"/>
         <v>0.77537258399217956</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I22" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="43">
+      <c r="J22" s="18">
         <v>45136</v>
       </c>
       <c r="K22" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="L22" s="44" t="s">
+      <c r="L22" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="M22" s="44">
+      <c r="M22" s="17">
         <v>63885</v>
       </c>
-      <c r="N22" s="45">
+      <c r="N22" s="30">
         <f>IF(ROW()&gt;2,($M$2-M22)/$M$2,"NA")</f>
         <v>0.7808743075682999</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I23" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="46">
+      <c r="J23" s="43">
         <v>45137</v>
       </c>
       <c r="K23" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="L23" s="44" t="s">
+      <c r="L23" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="M23" s="44">
+      <c r="M23" s="17">
         <v>62706</v>
       </c>
-      <c r="N23" s="45">
+      <c r="N23" s="30">
         <f>IF(ROW()&gt;2,($M$2-M23)/$M$2,"NA")</f>
         <v>0.78491828019688215</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I24" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="43">
+      <c r="J24" s="18">
         <v>45138</v>
       </c>
       <c r="K24" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="L24" s="44" t="s">
+      <c r="L24" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="M24" s="44">
+      <c r="M24" s="17">
         <v>61278</v>
       </c>
-      <c r="N24" s="45">
+      <c r="N24" s="30">
         <f>IF(ROW()&gt;2,($M$2-M24)/$M$2,"NA")</f>
         <v>0.78981632338061025</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I25" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="43">
+      <c r="J25" s="18">
         <v>45140</v>
       </c>
       <c r="K25" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="L25" s="44" t="s">
+      <c r="L25" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="M25" s="44">
+      <c r="M25" s="17">
         <v>60135</v>
       </c>
-      <c r="N25" s="45">
+      <c r="N25" s="30">
         <f>IF(ROW()&gt;2,($M$2-M25)/$M$2,"NA")</f>
         <v>0.79373681592893031</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I26" s="47" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I26" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="43">
+      <c r="J26" s="18">
         <v>45141</v>
       </c>
       <c r="K26" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="44" t="s">
+      <c r="L26" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="M26" s="44">
+      <c r="M26" s="17">
         <v>58703</v>
       </c>
-      <c r="N26" s="45">
-        <f t="shared" ref="N26:N29" si="4">IF(ROW()&gt;2,($M$2-M26)/$M$2,"NA")</f>
+      <c r="N26" s="30">
+        <f t="shared" ref="N26:N28" si="4">IF(ROW()&gt;2,($M$2-M26)/$M$2,"NA")</f>
         <v>0.79864857912157639</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I27" s="47" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="43">
+      <c r="J27" s="18">
         <v>45147</v>
       </c>
       <c r="K27" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L27" s="44" t="s">
+      <c r="L27" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="M27" s="44">
+      <c r="M27" s="17">
         <v>55998</v>
       </c>
-      <c r="N27" s="45">
+      <c r="N27" s="30">
         <f t="shared" si="4"/>
         <v>0.8079267351523779</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I28" s="47" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I28" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J28" s="43">
+      <c r="J28" s="18">
         <v>45153</v>
       </c>
       <c r="K28" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="L28" s="44" t="s">
+      <c r="L28" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="M28" s="44">
+      <c r="M28" s="17">
         <v>54642</v>
       </c>
-      <c r="N28" s="45">
+      <c r="N28" s="30">
         <f t="shared" si="4"/>
         <v>0.81257781817558183</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I29" s="47" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I29" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J29" s="43">
+      <c r="J29" s="18">
         <v>45156</v>
       </c>
       <c r="K29" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="L29" s="44" t="s">
+      <c r="L29" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="M29" s="44">
-        <v>52622</v>
-      </c>
-      <c r="N29" s="45">
+      <c r="M29" s="17">
+        <v>51005</v>
+      </c>
+      <c r="N29" s="30">
         <f>IF(ROW()&gt;2,($M$2-M29)/$M$2,"NA")</f>
-        <v>0.81950642267917473</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I30" s="47"/>
-      <c r="J30" s="43"/>
+        <v>0.82505273628427855</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I30" s="11"/>
+      <c r="J30" s="18"/>
       <c r="K30" s="18"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="45"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3119,21 +3115,21 @@
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
@@ -3180,7 +3176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
@@ -3230,7 +3226,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
@@ -3269,7 +3265,7 @@
         <v>0.26963198966370328</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
@@ -3303,7 +3299,7 @@
         <v>0.53405545481907812</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
@@ -3337,7 +3333,7 @@
         <v>0.69729259501244323</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
@@ -3371,7 +3367,7 @@
         <v>0.76775633355111994</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M7" s="7" t="s">
         <v>6</v>
       </c>
@@ -3389,7 +3385,7 @@
         <v>0.751895844192073</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M8" s="7" t="s">
         <v>6</v>
       </c>
@@ -3407,7 +3403,7 @@
         <v>0.78548880846284297</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M9" s="7" t="s">
         <v>6</v>
       </c>
@@ -3443,26 +3439,26 @@
       <selection activeCell="D1" sqref="D1:E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="62.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="44"/>
+      <c r="D1" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="48"/>
-    </row>
-    <row r="2" spans="1:5" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="E1" s="44"/>
+    </row>
+    <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="38" t="s">
         <v>40</v>
       </c>
@@ -3477,7 +3473,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>33</v>
       </c>
@@ -3489,7 +3485,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>34</v>
       </c>
@@ -3497,7 +3493,7 @@
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>35</v>
       </c>
@@ -3505,7 +3501,7 @@
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>36</v>
       </c>
@@ -3513,67 +3509,67 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="1:5" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A17" s="38" t="s">
         <v>4</v>
       </c>
@@ -3588,91 +3584,91 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="D32" s="22"/>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owanis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!!! P\HackerRank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7FC0C6-96B6-44F1-BD83-879E403303A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35C2573-5064-447F-A287-FA2B6639F7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -259,10 +259,10 @@
     <t>1935.11/2200</t>
   </si>
   <si>
-    <t>2023.16/2200</t>
-  </si>
-  <si>
-    <t>87% (176.84 points to next star)</t>
+    <t>2038.16/2200</t>
+  </si>
+  <si>
+    <t>88% (161.84 points to next star)</t>
   </si>
 </sst>
 </file>
@@ -2173,8 +2173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3082,11 +3082,11 @@
         <v>73</v>
       </c>
       <c r="M29" s="17">
-        <v>51005</v>
+        <v>50433</v>
       </c>
       <c r="N29" s="30">
         <f>IF(ROW()&gt;2,($M$2-M29)/$M$2,"NA")</f>
-        <v>0.82505273628427855</v>
+        <v>0.82701469755955337</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!!! P\HackerRank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guest\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35C2573-5064-447F-A287-FA2B6639F7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Math &amp; Algorithms" sheetId="1" r:id="rId1"/>
     <sheet name="Python,C++ &amp; SQL" sheetId="3" r:id="rId2"/>
     <sheet name="Plan" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="84">
   <si>
     <t>Rank</t>
   </si>
@@ -263,12 +262,40 @@
   </si>
   <si>
     <t>88% (161.84 points to next star)</t>
+  </si>
+  <si>
+    <t>2068.16/2200</t>
+  </si>
+  <si>
+    <t>90% (131.84 points to next star)</t>
+  </si>
+  <si>
+    <t>Queen's Attack II</t>
+  </si>
+  <si>
+    <t>started working on it  -almost done - need extra testing &amp; validation - current solution working fine for some cases but not for all</t>
+  </si>
+  <si>
+    <t>Fibonacci Finding (easy)</t>
+  </si>
+  <si>
+    <t>Points on a Rectangle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hackerland Radio Transmitters
+</t>
+  </si>
+  <si>
+    <t>Special Multiple</t>
+  </si>
+  <si>
+    <t>start with 9 and generate two other numbers for each number (use tree) ex.: 90 and 99 then 900&amp;909 AND 990&amp;999,… and so on</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
@@ -492,7 +519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -547,6 +574,9 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -880,7 +910,7 @@
       <font>
         <color auto="1"/>
       </font>
-      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      <numFmt numFmtId="165" formatCode="d\-mmm\-yy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1073,7 +1103,7 @@
       <font>
         <color auto="1"/>
       </font>
-      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      <numFmt numFmtId="165" formatCode="d\-mmm\-yy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1283,10 +1313,9 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      <numFmt numFmtId="165" formatCode="d\-mmm\-yy"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1318,7 +1347,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      <numFmt numFmtId="165" formatCode="d\-mmm\-yy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1593,7 +1622,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
@@ -1790,18 +1818,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F18" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F18" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
+  <sortState ref="A2:E5">
     <sortCondition ref="A2:A5"/>
     <sortCondition ref="B2:B5"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{173CC93E-E7EE-48C1-9CCF-D246238E1A1C}" name="Column1" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Points" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Rank" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Progress" dataDxfId="39" dataCellStyle="Percent">
+    <tableColumn id="1" name="Category" dataDxfId="44"/>
+    <tableColumn id="2" name="Date" dataDxfId="43"/>
+    <tableColumn id="6" name="Column1" dataDxfId="42"/>
+    <tableColumn id="3" name="Points" dataDxfId="41"/>
+    <tableColumn id="4" name="Rank" dataDxfId="40"/>
+    <tableColumn id="5" name="Progress" dataDxfId="39" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(ROW()&gt;2,($E$2-E2)/$E$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1810,15 +1838,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="I1:N30" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
-  <autoFilter ref="I1:N30" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="I1:N30" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="I1:N30"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Date" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{1AFD6FFE-AA81-42A2-97D8-6D1587474978}" name="Column1" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Points" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Rank" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Progress" dataDxfId="28" dataCellStyle="Percent">
+    <tableColumn id="1" name="Category" dataDxfId="33"/>
+    <tableColumn id="2" name="Date" dataDxfId="32"/>
+    <tableColumn id="6" name="Column1" dataDxfId="31"/>
+    <tableColumn id="3" name="Points" dataDxfId="30"/>
+    <tableColumn id="4" name="Rank" dataDxfId="29"/>
+    <tableColumn id="5" name="Progress" dataDxfId="28" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(ROW()&gt;2,($M$2-M2)/$M$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1827,14 +1855,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A1:E6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A1:E6"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Date" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Points" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Rank" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Progress" dataDxfId="19" dataCellStyle="Percent">
+    <tableColumn id="1" name="Category" dataDxfId="23"/>
+    <tableColumn id="2" name="Date" dataDxfId="22"/>
+    <tableColumn id="3" name="Points" dataDxfId="21"/>
+    <tableColumn id="4" name="Rank" dataDxfId="20"/>
+    <tableColumn id="5" name="Progress" dataDxfId="19" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(ROW()&gt;21,($D$2-D2)/$D$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1843,14 +1871,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table26" displayName="Table26" ref="G1:K3" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="G1:K3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table26" displayName="Table26" ref="G1:K3" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="G1:K3"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Category" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Date" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Points" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Rank" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Progress" dataDxfId="10">
+    <tableColumn id="1" name="Category" dataDxfId="14"/>
+    <tableColumn id="2" name="Date" dataDxfId="13"/>
+    <tableColumn id="3" name="Points" dataDxfId="12"/>
+    <tableColumn id="4" name="Rank" dataDxfId="11"/>
+    <tableColumn id="5" name="Progress" dataDxfId="10">
       <calculatedColumnFormula>IF(ROW()&gt;21,($J$2-J2)/$J$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1859,14 +1887,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="M1:Q9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="M1:Q9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="M1:Q9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="M1:Q9"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Points" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Rank" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Progress" dataDxfId="0">
+    <tableColumn id="1" name="Category" dataDxfId="4"/>
+    <tableColumn id="2" name="Date" dataDxfId="3"/>
+    <tableColumn id="3" name="Points" dataDxfId="2"/>
+    <tableColumn id="4" name="Rank" dataDxfId="1"/>
+    <tableColumn id="5" name="Progress" dataDxfId="0">
       <calculatedColumnFormula>IF(ROW()&gt;2,($P$2-P2)/$P$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2170,11 +2198,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="I2:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2187,7 +2215,7 @@
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="2.140625" customWidth="1"/>
     <col min="9" max="9" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -3090,12 +3118,25 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I30" s="11"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="30"/>
+      <c r="I30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="18">
+        <v>45159</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="M30" s="17">
+        <v>49342</v>
+      </c>
+      <c r="N30" s="30">
+        <f>IF(ROW()&gt;2,($M$2-M30)/$M$2,"NA")</f>
+        <v>0.83075682999193945</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3108,11 +3149,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD078B91-927A-40B5-8004-C14E7031CE26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3120,12 +3161,17 @@
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3432,31 +3478,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA14AAA2-4FD0-41BA-875E-96FC706D123A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.28515625" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="62.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="D1" s="44" t="s">
+      <c r="B1" s="45"/>
+      <c r="D1" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="44"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="38" t="s">
@@ -3485,16 +3531,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="D4" s="44" t="s">
+        <v>81</v>
+      </c>
       <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="39" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="22"/>
@@ -3509,14 +3557,17 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
+    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>78</v>
+      </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -3585,19 +3636,27 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="22" t="s">
+        <v>79</v>
+      </c>
       <c r="B18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>83</v>
+      </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
+      <c r="A20" s="22" t="s">
+        <v>80</v>
+      </c>
       <c r="B20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guest\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owanis\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72E4CD3-084E-43D9-A1CE-7D8A0071322B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Math &amp; Algorithms" sheetId="1" r:id="rId1"/>
     <sheet name="Python,C++ &amp; SQL" sheetId="3" r:id="rId2"/>
     <sheet name="Plan" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -264,12 +265,6 @@
     <t>88% (161.84 points to next star)</t>
   </si>
   <si>
-    <t>2068.16/2200</t>
-  </si>
-  <si>
-    <t>90% (131.84 points to next star)</t>
-  </si>
-  <si>
     <t>Queen's Attack II</t>
   </si>
   <si>
@@ -290,16 +285,22 @@
   </si>
   <si>
     <t>start with 9 and generate two other numbers for each number (use tree) ex.: 90 and 99 then 900&amp;909 AND 990&amp;999,… and so on</t>
+  </si>
+  <si>
+    <t>2083.95/2200</t>
+  </si>
+  <si>
+    <t>91% (116.05 points to next star)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +361,17 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -519,7 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -580,6 +592,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -910,7 +927,7 @@
       <font>
         <color auto="1"/>
       </font>
-      <numFmt numFmtId="165" formatCode="d\-mmm\-yy"/>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1103,7 +1120,7 @@
       <font>
         <color auto="1"/>
       </font>
-      <numFmt numFmtId="165" formatCode="d\-mmm\-yy"/>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1315,7 +1332,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="d\-mmm\-yy"/>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1347,7 +1364,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="d\-mmm\-yy"/>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1818,18 +1835,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F18" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
-  <sortState ref="A2:E5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F18" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E5">
     <sortCondition ref="A2:A5"/>
     <sortCondition ref="B2:B5"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="Category" dataDxfId="44"/>
-    <tableColumn id="2" name="Date" dataDxfId="43"/>
-    <tableColumn id="6" name="Column1" dataDxfId="42"/>
-    <tableColumn id="3" name="Points" dataDxfId="41"/>
-    <tableColumn id="4" name="Rank" dataDxfId="40"/>
-    <tableColumn id="5" name="Progress" dataDxfId="39" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column1" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Points" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Rank" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Progress" dataDxfId="39" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(ROW()&gt;2,($E$2-E2)/$E$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1838,15 +1855,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="I1:N30" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
-  <autoFilter ref="I1:N30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="I1:N31" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="I1:N31" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Category" dataDxfId="33"/>
-    <tableColumn id="2" name="Date" dataDxfId="32"/>
-    <tableColumn id="6" name="Column1" dataDxfId="31"/>
-    <tableColumn id="3" name="Points" dataDxfId="30"/>
-    <tableColumn id="4" name="Rank" dataDxfId="29"/>
-    <tableColumn id="5" name="Progress" dataDxfId="28" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Column1" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Points" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Rank" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Progress" dataDxfId="28" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(ROW()&gt;2,($M$2-M2)/$M$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1855,14 +1872,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A1:E6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A1:E6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Category" dataDxfId="23"/>
-    <tableColumn id="2" name="Date" dataDxfId="22"/>
-    <tableColumn id="3" name="Points" dataDxfId="21"/>
-    <tableColumn id="4" name="Rank" dataDxfId="20"/>
-    <tableColumn id="5" name="Progress" dataDxfId="19" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Date" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Points" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Rank" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Progress" dataDxfId="19" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(ROW()&gt;21,($D$2-D2)/$D$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1871,14 +1888,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table26" displayName="Table26" ref="G1:K3" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="G1:K3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table26" displayName="Table26" ref="G1:K3" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="G1:K3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Category" dataDxfId="14"/>
-    <tableColumn id="2" name="Date" dataDxfId="13"/>
-    <tableColumn id="3" name="Points" dataDxfId="12"/>
-    <tableColumn id="4" name="Rank" dataDxfId="11"/>
-    <tableColumn id="5" name="Progress" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Date" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Points" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Rank" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Progress" dataDxfId="10">
       <calculatedColumnFormula>IF(ROW()&gt;21,($J$2-J2)/$J$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1887,14 +1904,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="M1:Q9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="M1:Q9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table3" displayName="Table3" ref="M1:Q9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="M1:Q9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Category" dataDxfId="4"/>
-    <tableColumn id="2" name="Date" dataDxfId="3"/>
-    <tableColumn id="3" name="Points" dataDxfId="2"/>
-    <tableColumn id="4" name="Rank" dataDxfId="1"/>
-    <tableColumn id="5" name="Progress" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Category" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Date" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Points" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Rank" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Progress" dataDxfId="0">
       <calculatedColumnFormula>IF(ROW()&gt;2,($P$2-P2)/$P$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2198,35 +2215,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="I2:N3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="2.140625" customWidth="1"/>
-    <col min="9" max="9" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="2.109375" customWidth="1"/>
+    <col min="9" max="9" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2264,7 +2281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -2300,7 +2317,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -2336,7 +2353,7 @@
         <v>0.13590697833953591</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -2372,7 +2389,7 @@
         <v>0.30665248932411804</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -2408,7 +2425,7 @@
         <v>0.43052015983810388</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -2444,7 +2461,7 @@
         <v>0.44649368022089214</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -2480,7 +2497,7 @@
         <v>0.47140578641376119</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -2516,7 +2533,7 @@
         <v>0.49158448952991818</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -2552,7 +2569,7 @@
         <v>0.50714297964293675</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
@@ -2588,7 +2605,7 @@
         <v>0.55166440858186561</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
@@ -2624,7 +2641,7 @@
         <v>0.5684782795108817</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -2660,7 +2677,7 @@
         <v>0.57422010324306716</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
@@ -2696,7 +2713,7 @@
         <v>0.61168258759368188</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -2732,7 +2749,7 @@
         <v>0.65934932857706352</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -2768,7 +2785,7 @@
         <v>0.68830540739851476</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
@@ -2806,7 +2823,7 @@
         <v>0.72326742012382306</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
@@ -2846,7 +2863,7 @@
         <v>0.73493971771081656</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -2886,7 +2903,7 @@
         <v>0.76191668524584544</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="I19" s="28" t="s">
         <v>14</v>
       </c>
@@ -2907,7 +2924,7 @@
         <v>0.76549417757121541</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="I20" s="28" t="s">
         <v>14</v>
       </c>
@@ -2928,7 +2945,7 @@
         <v>0.77089643108268024</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="I21" s="28" t="s">
         <v>14</v>
       </c>
@@ -2949,7 +2966,7 @@
         <v>0.77537258399217956</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="I22" s="28" t="s">
         <v>14</v>
       </c>
@@ -2970,7 +2987,7 @@
         <v>0.7808743075682999</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="I23" s="28" t="s">
         <v>14</v>
       </c>
@@ -2991,7 +3008,7 @@
         <v>0.78491828019688215</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="I24" s="28" t="s">
         <v>14</v>
       </c>
@@ -3012,7 +3029,7 @@
         <v>0.78981632338061025</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="I25" s="28" t="s">
         <v>14</v>
       </c>
@@ -3033,7 +3050,7 @@
         <v>0.79373681592893031</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="I26" s="11" t="s">
         <v>14</v>
       </c>
@@ -3054,7 +3071,7 @@
         <v>0.79864857912157639</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="I27" s="11" t="s">
         <v>14</v>
       </c>
@@ -3075,7 +3092,7 @@
         <v>0.8079267351523779</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="I28" s="11" t="s">
         <v>14</v>
       </c>
@@ -3096,7 +3113,7 @@
         <v>0.81257781817558183</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="I29" s="11" t="s">
         <v>14</v>
       </c>
@@ -3117,7 +3134,7 @@
         <v>0.82701469755955337</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="I30" s="11" t="s">
         <v>14</v>
       </c>
@@ -3125,18 +3142,26 @@
         <v>45159</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L30" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="M30" s="17">
-        <v>49342</v>
+        <v>82</v>
+      </c>
+      <c r="M30" s="49">
+        <v>48788</v>
       </c>
       <c r="N30" s="30">
         <f>IF(ROW()&gt;2,($M$2-M30)/$M$2,"NA")</f>
-        <v>0.83075682999193945</v>
-      </c>
+        <v>0.83265705122708333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="I31" s="47"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3149,33 +3174,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
@@ -3222,7 +3247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
@@ -3272,7 +3297,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
@@ -3311,7 +3336,7 @@
         <v>0.26963198966370328</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
@@ -3345,7 +3370,7 @@
         <v>0.53405545481907812</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
@@ -3379,7 +3404,7 @@
         <v>0.69729259501244323</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
@@ -3413,7 +3438,7 @@
         <v>0.76775633355111994</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="M7" s="7" t="s">
         <v>6</v>
       </c>
@@ -3431,7 +3456,7 @@
         <v>0.751895844192073</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="M8" s="7" t="s">
         <v>6</v>
       </c>
@@ -3449,7 +3474,7 @@
         <v>0.78548880846284297</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="M9" s="7" t="s">
         <v>6</v>
       </c>
@@ -3478,23 +3503,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="33.6">
       <c r="A1" s="45" t="s">
         <v>37</v>
       </c>
@@ -3504,7 +3529,7 @@
       </c>
       <c r="E1" s="45"/>
     </row>
-    <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" ht="33.6">
       <c r="A2" s="38" t="s">
         <v>40</v>
       </c>
@@ -3519,7 +3544,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="22" t="s">
         <v>33</v>
       </c>
@@ -3531,17 +3556,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="43.2">
       <c r="A4" s="22" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="22"/>
       <c r="D4" s="44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="39" t="s">
         <v>35</v>
       </c>
@@ -3549,7 +3574,7 @@
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="39" t="s">
         <v>36</v>
       </c>
@@ -3557,70 +3582,70 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28.8">
       <c r="A7" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="B8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:5" ht="33.6">
       <c r="A17" s="38" t="s">
         <v>4</v>
       </c>
@@ -3635,99 +3660,99 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="28.8">
       <c r="A19" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="D32" s="22"/>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owanis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!!! P\HackerRank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72E4CD3-084E-43D9-A1CE-7D8A0071322B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B862675-E95B-410D-956D-C498F6B64A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="86">
   <si>
     <t>Rank</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>91% (116.05 points to next star)</t>
+  </si>
+  <si>
+    <t>2118.95/2200</t>
+  </si>
+  <si>
+    <t>94% (81.05 points to next star)</t>
   </si>
 </sst>
 </file>
@@ -300,7 +306,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,12 +367,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,7 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -589,14 +589,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2219,7 +2215,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3147,7 +3143,7 @@
       <c r="L30" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="M30" s="49">
+      <c r="M30" s="17">
         <v>48788</v>
       </c>
       <c r="N30" s="30">
@@ -3156,12 +3152,25 @@
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="I31" s="47"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="50"/>
+      <c r="I31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="45">
+        <v>45161</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="M31" s="17">
+        <v>47681</v>
+      </c>
+      <c r="N31" s="30">
+        <f>IF(ROW()&gt;2,($M$2-M31)/$M$2,"NA")</f>
+        <v>0.83645406369514141</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3520,14 +3529,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.6">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="D1" s="45" t="s">
+      <c r="B1" s="46"/>
+      <c r="D1" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="45"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:5" ht="33.6">
       <c r="A2" s="38" t="s">

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!!! P\HackerRank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owanis\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B862675-E95B-410D-956D-C498F6B64A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1336D34-9A9B-422D-A209-0516F34BC086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Math &amp; Algorithms" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="88">
   <si>
     <t>Rank</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>94% (81.05 points to next star)</t>
+  </si>
+  <si>
+    <t>2158.95/2200</t>
+  </si>
+  <si>
+    <t>97% (41.05 points to next star)</t>
   </si>
 </sst>
 </file>
@@ -531,7 +537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -593,6 +599,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1851,8 +1860,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="I1:N31" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
-  <autoFilter ref="I1:N31" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="I1:N32" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="I1:N32" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="32"/>
@@ -2212,31 +2221,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="2.109375" customWidth="1"/>
-    <col min="9" max="9" width="43.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="2.140625" customWidth="1"/>
+    <col min="9" max="9" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" customWidth="1"/>
-    <col min="16" max="16" width="43.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -3170,6 +3179,27 @@
       <c r="N31" s="30">
         <f>IF(ROW()&gt;2,($M$2-M31)/$M$2,"NA")</f>
         <v>0.83645406369514141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="I32" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="47">
+        <v>45162</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="L32" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="M32" s="48">
+        <v>46632</v>
+      </c>
+      <c r="N32" s="49">
+        <f>IF(ROW()&gt;2,($M$2-M32)/$M$2,"NA")</f>
+        <v>0.8400521360338884</v>
       </c>
     </row>
   </sheetData>
@@ -3190,23 +3220,23 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -3519,16 +3549,16 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.6">
+    <row r="1" spans="1:5" ht="33.75">
       <c r="A1" s="46" t="s">
         <v>37</v>
       </c>
@@ -3538,7 +3568,7 @@
       </c>
       <c r="E1" s="46"/>
     </row>
-    <row r="2" spans="1:5" ht="33.6">
+    <row r="2" spans="1:5" ht="33.75">
       <c r="A2" s="38" t="s">
         <v>40</v>
       </c>
@@ -3565,7 +3595,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.2">
+    <row r="4" spans="1:5" ht="45">
       <c r="A4" s="22" t="s">
         <v>34</v>
       </c>
@@ -3591,7 +3621,7 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8">
+    <row r="7" spans="1:5" ht="45">
       <c r="A7" s="22" t="s">
         <v>75</v>
       </c>
@@ -3654,7 +3684,7 @@
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="1:5" ht="33.6">
+    <row r="17" spans="1:5" ht="33.75">
       <c r="A17" s="38" t="s">
         <v>4</v>
       </c>
@@ -3677,7 +3707,7 @@
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="1:5" ht="28.8">
+    <row r="19" spans="1:5" ht="30">
       <c r="A19" s="22" t="s">
         <v>80</v>
       </c>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owanis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!!! P\HackerRank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1336D34-9A9B-422D-A209-0516F34BC086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE657ED6-B5EB-4DE3-BC2A-03B6D8B4FED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,10 +299,10 @@
     <t>94% (81.05 points to next star)</t>
   </si>
   <si>
-    <t>2158.95/2200</t>
-  </si>
-  <si>
     <t>97% (41.05 points to next star)</t>
+  </si>
+  <si>
+    <t>2183.95/2200</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -599,9 +599,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2224,7 +2221,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="N32" sqref="I32:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3185,21 +3182,21 @@
       <c r="I32" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J32" s="47">
+      <c r="J32" s="45">
         <v>45162</v>
       </c>
       <c r="K32" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L32" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="L32" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="M32" s="48">
-        <v>46632</v>
-      </c>
-      <c r="N32" s="49">
+      <c r="M32" s="17">
+        <v>46058</v>
+      </c>
+      <c r="N32" s="30">
         <f>IF(ROW()&gt;2,($M$2-M32)/$M$2,"NA")</f>
-        <v>0.8400521360338884</v>
+        <v>0.84202095731362225</v>
       </c>
     </row>
   </sheetData>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!!! P\HackerRank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE657ED6-B5EB-4DE3-BC2A-03B6D8B4FED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598F1178-4D92-4508-BF51-D790328F8B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Math &amp; Algorithms" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="89">
   <si>
     <t>Rank</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>2183.95/2200</t>
+  </si>
+  <si>
+    <t>15% (43/283 challenges solved)</t>
   </si>
 </sst>
 </file>
@@ -537,7 +540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -599,6 +602,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1837,7 +1843,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F18" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E5">
     <sortCondition ref="A2:A5"/>
     <sortCondition ref="B2:B5"/>
@@ -2220,29 +2226,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N32" sqref="I32:N32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="2.140625" customWidth="1"/>
-    <col min="9" max="9" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="2.109375" customWidth="1"/>
+    <col min="9" max="9" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2906,6 +2912,25 @@
       </c>
     </row>
     <row r="19" spans="1:14">
+      <c r="A19" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="48">
+        <v>45163</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="47">
+        <v>961.67</v>
+      </c>
+      <c r="E19" s="47">
+        <v>2072</v>
+      </c>
+      <c r="F19" s="49">
+        <f>IF(ROW()&gt;2,($E$2-E19)/$E$2,"NA")</f>
+        <v>0.75063184498736313</v>
+      </c>
       <c r="I19" s="28" t="s">
         <v>14</v>
       </c>
@@ -3217,23 +3242,23 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -3546,16 +3571,16 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75">
+    <row r="1" spans="1:5" ht="33.6">
       <c r="A1" s="46" t="s">
         <v>37</v>
       </c>
@@ -3565,7 +3590,7 @@
       </c>
       <c r="E1" s="46"/>
     </row>
-    <row r="2" spans="1:5" ht="33.75">
+    <row r="2" spans="1:5" ht="33.6">
       <c r="A2" s="38" t="s">
         <v>40</v>
       </c>
@@ -3592,7 +3617,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45">
+    <row r="4" spans="1:5" ht="43.2">
       <c r="A4" s="22" t="s">
         <v>34</v>
       </c>
@@ -3618,7 +3643,7 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:5" ht="45">
+    <row r="7" spans="1:5" ht="28.8">
       <c r="A7" s="22" t="s">
         <v>75</v>
       </c>
@@ -3681,7 +3706,7 @@
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="1:5" ht="33.75">
+    <row r="17" spans="1:5" ht="33.6">
       <c r="A17" s="38" t="s">
         <v>4</v>
       </c>
@@ -3704,7 +3729,7 @@
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="1:5" ht="30">
+    <row r="19" spans="1:5" ht="28.8">
       <c r="A19" s="22" t="s">
         <v>80</v>
       </c>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owanis\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598F1178-4D92-4508-BF51-D790328F8B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2922B607-8095-484B-807D-33DCC72661A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Math &amp; Algorithms" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="91">
   <si>
     <t>Rank</t>
   </si>
@@ -306,6 +306,12 @@
   </si>
   <si>
     <t>15% (43/283 challenges solved)</t>
+  </si>
+  <si>
+    <t>99% (11.05 points to next star)</t>
+  </si>
+  <si>
+    <t>2188.95/2200</t>
   </si>
 </sst>
 </file>
@@ -540,7 +546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -599,12 +605,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1863,8 +1872,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="I1:N32" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
-  <autoFilter ref="I1:N32" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="I1:N33" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="I1:N33" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="32"/>
@@ -2224,31 +2233,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="2.109375" customWidth="1"/>
-    <col min="9" max="9" width="43.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="2.140625" customWidth="1"/>
+    <col min="9" max="9" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" customWidth="1"/>
-    <col min="16" max="16" width="43.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2912,22 +2921,22 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="48">
+      <c r="B19" s="47">
         <v>45163</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="46">
         <v>961.67</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="46">
         <v>2072</v>
       </c>
-      <c r="F19" s="49">
+      <c r="F19" s="48">
         <f>IF(ROW()&gt;2,($E$2-E19)/$E$2,"NA")</f>
         <v>0.75063184498736313</v>
       </c>
@@ -3222,6 +3231,27 @@
       <c r="N32" s="30">
         <f>IF(ROW()&gt;2,($M$2-M32)/$M$2,"NA")</f>
         <v>0.84202095731362225</v>
+      </c>
+    </row>
+    <row r="33" spans="9:14">
+      <c r="I33" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="50">
+        <v>45163</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="L33" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="M33" s="51">
+        <v>45836</v>
+      </c>
+      <c r="N33" s="52">
+        <f>IF(ROW()&gt;2,($M$2-M33)/$M$2,"NA")</f>
+        <v>0.84278241780857155</v>
       </c>
     </row>
   </sheetData>
@@ -3242,23 +3272,23 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -3571,26 +3601,26 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.6">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:5" ht="33.75">
+      <c r="A1" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="49"/>
+      <c r="D1" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="46"/>
-    </row>
-    <row r="2" spans="1:5" ht="33.6">
+      <c r="E1" s="49"/>
+    </row>
+    <row r="2" spans="1:5" ht="33.75">
       <c r="A2" s="38" t="s">
         <v>40</v>
       </c>
@@ -3617,7 +3647,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.2">
+    <row r="4" spans="1:5" ht="45">
       <c r="A4" s="22" t="s">
         <v>34</v>
       </c>
@@ -3643,7 +3673,7 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8">
+    <row r="7" spans="1:5" ht="45">
       <c r="A7" s="22" t="s">
         <v>75</v>
       </c>
@@ -3706,7 +3736,7 @@
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="1:5" ht="33.6">
+    <row r="17" spans="1:5" ht="33.75">
       <c r="A17" s="38" t="s">
         <v>4</v>
       </c>
@@ -3729,7 +3759,7 @@
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="1:5" ht="28.8">
+    <row r="19" spans="1:5" ht="30">
       <c r="A19" s="22" t="s">
         <v>80</v>
       </c>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owanis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2922B607-8095-484B-807D-33DCC72661A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121E3109-7295-4D7F-A93D-AE21BC0AA37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Math &amp; Algorithms" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>Rank</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>2188.95/2200</t>
+  </si>
+  <si>
+    <t>20% (111/563 challenges solved)</t>
   </si>
 </sst>
 </file>
@@ -321,7 +324,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,6 +390,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -546,7 +550,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -608,12 +612,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1872,8 +1877,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="I1:N33" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
-  <autoFilter ref="I1:N33" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="I1:N34" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="I1:N34" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="32"/>
@@ -2233,13 +2238,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="5" bestFit="1" customWidth="1"/>
@@ -2260,7 +2265,7 @@
     <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2298,7 +2303,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -2334,7 +2339,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -2370,7 +2375,7 @@
         <v>0.13590697833953591</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -2406,7 +2411,7 @@
         <v>0.30665248932411804</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -2442,7 +2447,7 @@
         <v>0.43052015983810388</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -2478,7 +2483,7 @@
         <v>0.44649368022089214</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -2514,7 +2519,7 @@
         <v>0.47140578641376119</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -2550,7 +2555,7 @@
         <v>0.49158448952991818</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -2586,7 +2591,7 @@
         <v>0.50714297964293675</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
@@ -2622,7 +2627,7 @@
         <v>0.55166440858186561</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
@@ -2658,7 +2663,7 @@
         <v>0.5684782795108817</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -2694,7 +2699,7 @@
         <v>0.57422010324306716</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
@@ -2730,7 +2735,7 @@
         <v>0.61168258759368188</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -2766,7 +2771,7 @@
         <v>0.65934932857706352</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -2802,7 +2807,7 @@
         <v>0.68830540739851476</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
@@ -2840,7 +2845,7 @@
         <v>0.72326742012382306</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
@@ -2880,7 +2885,7 @@
         <v>0.73493971771081656</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -2920,7 +2925,7 @@
         <v>0.76191668524584544</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="46" t="s">
         <v>4</v>
       </c>
@@ -2960,7 +2965,7 @@
         <v>0.76549417757121541</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I20" s="28" t="s">
         <v>14</v>
       </c>
@@ -2981,7 +2986,7 @@
         <v>0.77089643108268024</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I21" s="28" t="s">
         <v>14</v>
       </c>
@@ -3002,7 +3007,7 @@
         <v>0.77537258399217956</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I22" s="28" t="s">
         <v>14</v>
       </c>
@@ -3023,7 +3028,7 @@
         <v>0.7808743075682999</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I23" s="28" t="s">
         <v>14</v>
       </c>
@@ -3044,7 +3049,7 @@
         <v>0.78491828019688215</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I24" s="28" t="s">
         <v>14</v>
       </c>
@@ -3065,7 +3070,7 @@
         <v>0.78981632338061025</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I25" s="28" t="s">
         <v>14</v>
       </c>
@@ -3086,7 +3091,7 @@
         <v>0.79373681592893031</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I26" s="11" t="s">
         <v>14</v>
       </c>
@@ -3107,7 +3112,7 @@
         <v>0.79864857912157639</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I27" s="11" t="s">
         <v>14</v>
       </c>
@@ -3128,7 +3133,7 @@
         <v>0.8079267351523779</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I28" s="11" t="s">
         <v>14</v>
       </c>
@@ -3149,7 +3154,7 @@
         <v>0.81257781817558183</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I29" s="11" t="s">
         <v>14</v>
       </c>
@@ -3170,7 +3175,7 @@
         <v>0.82701469755955337</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I30" s="11" t="s">
         <v>14</v>
       </c>
@@ -3191,7 +3196,7 @@
         <v>0.83265705122708333</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I31" s="11" t="s">
         <v>14</v>
       </c>
@@ -3212,7 +3217,7 @@
         <v>0.83645406369514141</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I32" s="11" t="s">
         <v>14</v>
       </c>
@@ -3233,25 +3238,46 @@
         <v>0.84202095731362225</v>
       </c>
     </row>
-    <row r="33" spans="9:14">
+    <row r="33" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I33" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J33" s="50">
+      <c r="J33" s="49">
         <v>45163</v>
       </c>
       <c r="K33" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="L33" s="51" t="s">
+      <c r="L33" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="M33" s="51">
+      <c r="M33" s="50">
         <v>45836</v>
       </c>
-      <c r="N33" s="52">
+      <c r="N33" s="51">
         <f>IF(ROW()&gt;2,($M$2-M33)/$M$2,"NA")</f>
         <v>0.84278241780857155</v>
+      </c>
+    </row>
+    <row r="34" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I34" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="53">
+        <v>45164</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="L34" s="50">
+        <v>2248.9499999999998</v>
+      </c>
+      <c r="M34" s="50">
+        <v>39935</v>
+      </c>
+      <c r="N34" s="51">
+        <f>IF(ROW()&gt;2,($M$2-M34)/$M$2,"NA")</f>
+        <v>0.86302286096485958</v>
       </c>
     </row>
   </sheetData>
@@ -3272,7 +3298,7 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -3291,7 +3317,7 @@
     <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
@@ -3338,7 +3364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
@@ -3388,7 +3414,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
@@ -3427,7 +3453,7 @@
         <v>0.26963198966370328</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
@@ -3461,7 +3487,7 @@
         <v>0.53405545481907812</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
@@ -3495,7 +3521,7 @@
         <v>0.69729259501244323</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
@@ -3529,7 +3555,7 @@
         <v>0.76775633355111994</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M7" s="7" t="s">
         <v>6</v>
       </c>
@@ -3547,7 +3573,7 @@
         <v>0.751895844192073</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M8" s="7" t="s">
         <v>6</v>
       </c>
@@ -3565,7 +3591,7 @@
         <v>0.78548880846284297</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M9" s="7" t="s">
         <v>6</v>
       </c>
@@ -3601,7 +3627,7 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.28515625" customWidth="1"/>
@@ -3610,17 +3636,17 @@
     <col min="5" max="5" width="62.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="52"/>
+      <c r="D1" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="49"/>
-    </row>
-    <row r="2" spans="1:5" ht="33.75">
+      <c r="E1" s="52"/>
+    </row>
+    <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="38" t="s">
         <v>40</v>
       </c>
@@ -3635,7 +3661,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>33</v>
       </c>
@@ -3647,7 +3673,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>34</v>
       </c>
@@ -3657,7 +3683,7 @@
       </c>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>35</v>
       </c>
@@ -3665,7 +3691,7 @@
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>36</v>
       </c>
@@ -3673,7 +3699,7 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:5" ht="45">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>75</v>
       </c>
@@ -3683,60 +3709,60 @@
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="1:5" ht="33.75">
+    <row r="17" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A17" s="38" t="s">
         <v>4</v>
       </c>
@@ -3751,7 +3777,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>77</v>
       </c>
@@ -3759,7 +3785,7 @@
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="1:5" ht="30">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>80</v>
       </c>
@@ -3769,7 +3795,7 @@
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>78</v>
       </c>
@@ -3777,73 +3803,73 @@
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="D32" s="22"/>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP13INT\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121E3109-7295-4D7F-A93D-AE21BC0AA37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8910"/>
   </bookViews>
   <sheets>
     <sheet name="Math &amp; Algorithms" sheetId="1" r:id="rId1"/>
     <sheet name="Python,C++ &amp; SQL" sheetId="3" r:id="rId2"/>
     <sheet name="Plan" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="93">
   <si>
     <t>Rank</t>
   </si>
@@ -315,16 +314,19 @@
   </si>
   <si>
     <t>20% (111/563 challenges solved)</t>
+  </si>
+  <si>
+    <t>20% (115/563 challenges solved)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,6 +393,11 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -550,7 +557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -615,10 +622,12 @@
     <xf numFmtId="15" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1857,18 +1866,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
+  <sortState ref="A2:E5">
     <sortCondition ref="A2:A5"/>
     <sortCondition ref="B2:B5"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column1" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Points" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Rank" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Progress" dataDxfId="39" dataCellStyle="Percent">
+    <tableColumn id="1" name="Category" dataDxfId="44"/>
+    <tableColumn id="2" name="Date" dataDxfId="43"/>
+    <tableColumn id="6" name="Column1" dataDxfId="42"/>
+    <tableColumn id="3" name="Points" dataDxfId="41"/>
+    <tableColumn id="4" name="Rank" dataDxfId="40"/>
+    <tableColumn id="5" name="Progress" dataDxfId="39" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(ROW()&gt;2,($E$2-E2)/$E$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1877,15 +1886,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="I1:N34" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
-  <autoFilter ref="I1:N34" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="I1:N35" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="I1:N35"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Column1" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Points" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Rank" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Progress" dataDxfId="28" dataCellStyle="Percent">
+    <tableColumn id="1" name="Category" dataDxfId="33"/>
+    <tableColumn id="2" name="Date" dataDxfId="32"/>
+    <tableColumn id="6" name="Column1" dataDxfId="31"/>
+    <tableColumn id="3" name="Points" dataDxfId="30"/>
+    <tableColumn id="4" name="Rank" dataDxfId="29"/>
+    <tableColumn id="5" name="Progress" dataDxfId="28" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(ROW()&gt;2,($M$2-M2)/$M$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1894,14 +1903,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A1:E6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A1:E6"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Date" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Points" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Rank" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Progress" dataDxfId="19" dataCellStyle="Percent">
+    <tableColumn id="1" name="Category" dataDxfId="23"/>
+    <tableColumn id="2" name="Date" dataDxfId="22"/>
+    <tableColumn id="3" name="Points" dataDxfId="21"/>
+    <tableColumn id="4" name="Rank" dataDxfId="20"/>
+    <tableColumn id="5" name="Progress" dataDxfId="19" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(ROW()&gt;21,($D$2-D2)/$D$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1910,14 +1919,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table26" displayName="Table26" ref="G1:K3" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="G1:K3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table26" displayName="Table26" ref="G1:K3" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="G1:K3"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Date" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Points" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Rank" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Progress" dataDxfId="10">
+    <tableColumn id="1" name="Category" dataDxfId="14"/>
+    <tableColumn id="2" name="Date" dataDxfId="13"/>
+    <tableColumn id="3" name="Points" dataDxfId="12"/>
+    <tableColumn id="4" name="Rank" dataDxfId="11"/>
+    <tableColumn id="5" name="Progress" dataDxfId="10">
       <calculatedColumnFormula>IF(ROW()&gt;21,($J$2-J2)/$J$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1926,14 +1935,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table3" displayName="Table3" ref="M1:Q9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="M1:Q9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="M1:Q9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="M1:Q9"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Category" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Date" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Points" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Rank" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Progress" dataDxfId="0">
+    <tableColumn id="1" name="Category" dataDxfId="4"/>
+    <tableColumn id="2" name="Date" dataDxfId="3"/>
+    <tableColumn id="3" name="Points" dataDxfId="2"/>
+    <tableColumn id="4" name="Rank" dataDxfId="1"/>
+    <tableColumn id="5" name="Progress" dataDxfId="0">
       <calculatedColumnFormula>IF(ROW()&gt;2,($P$2-P2)/$P$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2237,14 +2246,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="5" bestFit="1" customWidth="1"/>
@@ -2265,7 +2274,7 @@
     <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2303,7 +2312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -2339,7 +2348,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -2375,7 +2384,7 @@
         <v>0.13590697833953591</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -2411,7 +2420,7 @@
         <v>0.30665248932411804</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -2447,7 +2456,7 @@
         <v>0.43052015983810388</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -2483,7 +2492,7 @@
         <v>0.44649368022089214</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -2519,7 +2528,7 @@
         <v>0.47140578641376119</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -2555,7 +2564,7 @@
         <v>0.49158448952991818</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -2591,7 +2600,7 @@
         <v>0.50714297964293675</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
@@ -2627,7 +2636,7 @@
         <v>0.55166440858186561</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
@@ -2663,7 +2672,7 @@
         <v>0.5684782795108817</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -2699,7 +2708,7 @@
         <v>0.57422010324306716</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
@@ -2735,7 +2744,7 @@
         <v>0.61168258759368188</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -2771,7 +2780,7 @@
         <v>0.65934932857706352</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -2807,7 +2816,7 @@
         <v>0.68830540739851476</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
@@ -2845,7 +2854,7 @@
         <v>0.72326742012382306</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
@@ -2885,7 +2894,7 @@
         <v>0.73493971771081656</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -2925,7 +2934,7 @@
         <v>0.76191668524584544</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="46" t="s">
         <v>4</v>
       </c>
@@ -2965,7 +2974,7 @@
         <v>0.76549417757121541</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="I20" s="28" t="s">
         <v>14</v>
       </c>
@@ -2986,7 +2995,7 @@
         <v>0.77089643108268024</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="I21" s="28" t="s">
         <v>14</v>
       </c>
@@ -3007,7 +3016,7 @@
         <v>0.77537258399217956</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="I22" s="28" t="s">
         <v>14</v>
       </c>
@@ -3028,7 +3037,7 @@
         <v>0.7808743075682999</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="I23" s="28" t="s">
         <v>14</v>
       </c>
@@ -3049,7 +3058,7 @@
         <v>0.78491828019688215</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="I24" s="28" t="s">
         <v>14</v>
       </c>
@@ -3070,7 +3079,7 @@
         <v>0.78981632338061025</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="I25" s="28" t="s">
         <v>14</v>
       </c>
@@ -3091,7 +3100,7 @@
         <v>0.79373681592893031</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="I26" s="11" t="s">
         <v>14</v>
       </c>
@@ -3112,7 +3121,7 @@
         <v>0.79864857912157639</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="I27" s="11" t="s">
         <v>14</v>
       </c>
@@ -3133,7 +3142,7 @@
         <v>0.8079267351523779</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="I28" s="11" t="s">
         <v>14</v>
       </c>
@@ -3154,7 +3163,7 @@
         <v>0.81257781817558183</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="I29" s="11" t="s">
         <v>14</v>
       </c>
@@ -3171,11 +3180,11 @@
         <v>50433</v>
       </c>
       <c r="N29" s="30">
-        <f>IF(ROW()&gt;2,($M$2-M29)/$M$2,"NA")</f>
+        <f t="shared" ref="N29:N34" si="5">IF(ROW()&gt;2,($M$2-M29)/$M$2,"NA")</f>
         <v>0.82701469755955337</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="I30" s="11" t="s">
         <v>14</v>
       </c>
@@ -3192,11 +3201,11 @@
         <v>48788</v>
       </c>
       <c r="N30" s="30">
-        <f>IF(ROW()&gt;2,($M$2-M30)/$M$2,"NA")</f>
+        <f t="shared" si="5"/>
         <v>0.83265705122708333</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="I31" s="11" t="s">
         <v>14</v>
       </c>
@@ -3213,11 +3222,11 @@
         <v>47681</v>
       </c>
       <c r="N31" s="30">
-        <f>IF(ROW()&gt;2,($M$2-M31)/$M$2,"NA")</f>
+        <f t="shared" si="5"/>
         <v>0.83645406369514141</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="I32" s="11" t="s">
         <v>14</v>
       </c>
@@ -3234,11 +3243,11 @@
         <v>46058</v>
       </c>
       <c r="N32" s="30">
-        <f>IF(ROW()&gt;2,($M$2-M32)/$M$2,"NA")</f>
+        <f t="shared" si="5"/>
         <v>0.84202095731362225</v>
       </c>
     </row>
-    <row r="33" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:14">
       <c r="I33" s="11" t="s">
         <v>14</v>
       </c>
@@ -3255,15 +3264,15 @@
         <v>45836</v>
       </c>
       <c r="N33" s="51">
-        <f>IF(ROW()&gt;2,($M$2-M33)/$M$2,"NA")</f>
+        <f t="shared" si="5"/>
         <v>0.84278241780857155</v>
       </c>
     </row>
-    <row r="34" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:14">
       <c r="I34" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J34" s="53">
+      <c r="J34" s="52">
         <v>45164</v>
       </c>
       <c r="K34" s="18" t="s">
@@ -3276,8 +3285,29 @@
         <v>39935</v>
       </c>
       <c r="N34" s="51">
-        <f>IF(ROW()&gt;2,($M$2-M34)/$M$2,"NA")</f>
+        <f t="shared" si="5"/>
         <v>0.86302286096485958</v>
+      </c>
+    </row>
+    <row r="35" spans="9:14">
+      <c r="I35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="55">
+        <v>45169</v>
+      </c>
+      <c r="K35" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="L35" s="50">
+        <v>2300.41</v>
+      </c>
+      <c r="M35" s="50">
+        <v>36752</v>
+      </c>
+      <c r="N35" s="51">
+        <f>IF(ROW()&gt;2,($M$2-M35)/$M$2,"NA")</f>
+        <v>0.87394055806136273</v>
       </c>
     </row>
   </sheetData>
@@ -3291,14 +3321,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -3317,7 +3347,7 @@
     <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
@@ -3364,7 +3394,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
@@ -3414,7 +3444,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
@@ -3453,7 +3483,7 @@
         <v>0.26963198966370328</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
@@ -3487,7 +3517,7 @@
         <v>0.53405545481907812</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
@@ -3521,7 +3551,7 @@
         <v>0.69729259501244323</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
@@ -3555,7 +3585,7 @@
         <v>0.76775633355111994</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="M7" s="7" t="s">
         <v>6</v>
       </c>
@@ -3573,7 +3603,7 @@
         <v>0.751895844192073</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="M8" s="7" t="s">
         <v>6</v>
       </c>
@@ -3591,7 +3621,7 @@
         <v>0.78548880846284297</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="M9" s="7" t="s">
         <v>6</v>
       </c>
@@ -3620,14 +3650,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.28515625" customWidth="1"/>
@@ -3636,17 +3666,17 @@
     <col min="5" max="5" width="62.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:5" ht="33.75">
+      <c r="A1" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="D1" s="52" t="s">
+      <c r="B1" s="53"/>
+      <c r="D1" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="52"/>
-    </row>
-    <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="E1" s="53"/>
+    </row>
+    <row r="2" spans="1:5" ht="33.75">
       <c r="A2" s="38" t="s">
         <v>40</v>
       </c>
@@ -3661,7 +3691,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="22" t="s">
         <v>33</v>
       </c>
@@ -3673,7 +3703,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="45">
       <c r="A4" s="22" t="s">
         <v>34</v>
       </c>
@@ -3683,7 +3713,7 @@
       </c>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="39" t="s">
         <v>35</v>
       </c>
@@ -3691,7 +3721,7 @@
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="39" t="s">
         <v>36</v>
       </c>
@@ -3699,7 +3729,7 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="45">
       <c r="A7" s="22" t="s">
         <v>75</v>
       </c>
@@ -3709,60 +3739,60 @@
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="B8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:5" ht="33.75">
       <c r="A17" s="38" t="s">
         <v>4</v>
       </c>
@@ -3777,7 +3807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="22" t="s">
         <v>77</v>
       </c>
@@ -3785,7 +3815,7 @@
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="30">
       <c r="A19" s="22" t="s">
         <v>80</v>
       </c>
@@ -3795,7 +3825,7 @@
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="22" t="s">
         <v>78</v>
       </c>
@@ -3803,73 +3833,73 @@
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="D32" s="22"/>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP13INT\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E675FA-D739-4F90-A3B5-9B187F230DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8910"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Math &amp; Algorithms" sheetId="1" r:id="rId1"/>
     <sheet name="Python,C++ &amp; SQL" sheetId="3" r:id="rId2"/>
     <sheet name="Plan" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="94">
   <si>
     <t>Rank</t>
   </si>
@@ -317,16 +318,19 @@
   </si>
   <si>
     <t>20% (115/563 challenges solved)</t>
+  </si>
+  <si>
+    <t>21% (118/563 challenges solved)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,6 +402,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -557,7 +562,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -623,11 +628,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1866,18 +1872,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
-  <sortState ref="A2:E5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E5">
     <sortCondition ref="A2:A5"/>
     <sortCondition ref="B2:B5"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="Category" dataDxfId="44"/>
-    <tableColumn id="2" name="Date" dataDxfId="43"/>
-    <tableColumn id="6" name="Column1" dataDxfId="42"/>
-    <tableColumn id="3" name="Points" dataDxfId="41"/>
-    <tableColumn id="4" name="Rank" dataDxfId="40"/>
-    <tableColumn id="5" name="Progress" dataDxfId="39" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column1" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Points" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Rank" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Progress" dataDxfId="39" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(ROW()&gt;2,($E$2-E2)/$E$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1886,15 +1892,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="I1:N35" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
-  <autoFilter ref="I1:N35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="I1:N36" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="I1:N36" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Category" dataDxfId="33"/>
-    <tableColumn id="2" name="Date" dataDxfId="32"/>
-    <tableColumn id="6" name="Column1" dataDxfId="31"/>
-    <tableColumn id="3" name="Points" dataDxfId="30"/>
-    <tableColumn id="4" name="Rank" dataDxfId="29"/>
-    <tableColumn id="5" name="Progress" dataDxfId="28" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Column1" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Points" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Rank" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Progress" dataDxfId="28" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(ROW()&gt;2,($M$2-M2)/$M$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1903,14 +1909,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A1:E6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A1:E6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Category" dataDxfId="23"/>
-    <tableColumn id="2" name="Date" dataDxfId="22"/>
-    <tableColumn id="3" name="Points" dataDxfId="21"/>
-    <tableColumn id="4" name="Rank" dataDxfId="20"/>
-    <tableColumn id="5" name="Progress" dataDxfId="19" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Date" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Points" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Rank" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Progress" dataDxfId="19" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(ROW()&gt;21,($D$2-D2)/$D$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1919,14 +1925,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table26" displayName="Table26" ref="G1:K3" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="G1:K3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table26" displayName="Table26" ref="G1:K3" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="G1:K3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Category" dataDxfId="14"/>
-    <tableColumn id="2" name="Date" dataDxfId="13"/>
-    <tableColumn id="3" name="Points" dataDxfId="12"/>
-    <tableColumn id="4" name="Rank" dataDxfId="11"/>
-    <tableColumn id="5" name="Progress" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Date" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Points" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Rank" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Progress" dataDxfId="10">
       <calculatedColumnFormula>IF(ROW()&gt;21,($J$2-J2)/$J$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1935,14 +1941,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="M1:Q9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="M1:Q9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table3" displayName="Table3" ref="M1:Q9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="M1:Q9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Category" dataDxfId="4"/>
-    <tableColumn id="2" name="Date" dataDxfId="3"/>
-    <tableColumn id="3" name="Points" dataDxfId="2"/>
-    <tableColumn id="4" name="Rank" dataDxfId="1"/>
-    <tableColumn id="5" name="Progress" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Category" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Date" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Points" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Rank" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Progress" dataDxfId="0">
       <calculatedColumnFormula>IF(ROW()&gt;2,($P$2-P2)/$P$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2246,14 +2252,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="5" bestFit="1" customWidth="1"/>
@@ -2274,7 +2280,7 @@
     <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2312,7 +2318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -2348,7 +2354,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -2384,7 +2390,7 @@
         <v>0.13590697833953591</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -2420,7 +2426,7 @@
         <v>0.30665248932411804</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -2456,7 +2462,7 @@
         <v>0.43052015983810388</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -2492,7 +2498,7 @@
         <v>0.44649368022089214</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -2528,7 +2534,7 @@
         <v>0.47140578641376119</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -2564,7 +2570,7 @@
         <v>0.49158448952991818</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -2600,7 +2606,7 @@
         <v>0.50714297964293675</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
@@ -2636,7 +2642,7 @@
         <v>0.55166440858186561</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
@@ -2672,7 +2678,7 @@
         <v>0.5684782795108817</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -2708,7 +2714,7 @@
         <v>0.57422010324306716</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
@@ -2744,7 +2750,7 @@
         <v>0.61168258759368188</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -2780,7 +2786,7 @@
         <v>0.65934932857706352</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -2816,7 +2822,7 @@
         <v>0.68830540739851476</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
@@ -2854,7 +2860,7 @@
         <v>0.72326742012382306</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
@@ -2894,7 +2900,7 @@
         <v>0.73493971771081656</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -2934,7 +2940,7 @@
         <v>0.76191668524584544</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="46" t="s">
         <v>4</v>
       </c>
@@ -2974,7 +2980,7 @@
         <v>0.76549417757121541</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I20" s="28" t="s">
         <v>14</v>
       </c>
@@ -2995,7 +3001,7 @@
         <v>0.77089643108268024</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I21" s="28" t="s">
         <v>14</v>
       </c>
@@ -3016,7 +3022,7 @@
         <v>0.77537258399217956</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I22" s="28" t="s">
         <v>14</v>
       </c>
@@ -3037,7 +3043,7 @@
         <v>0.7808743075682999</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I23" s="28" t="s">
         <v>14</v>
       </c>
@@ -3058,7 +3064,7 @@
         <v>0.78491828019688215</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I24" s="28" t="s">
         <v>14</v>
       </c>
@@ -3079,7 +3085,7 @@
         <v>0.78981632338061025</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I25" s="28" t="s">
         <v>14</v>
       </c>
@@ -3100,7 +3106,7 @@
         <v>0.79373681592893031</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I26" s="11" t="s">
         <v>14</v>
       </c>
@@ -3121,7 +3127,7 @@
         <v>0.79864857912157639</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I27" s="11" t="s">
         <v>14</v>
       </c>
@@ -3142,7 +3148,7 @@
         <v>0.8079267351523779</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I28" s="11" t="s">
         <v>14</v>
       </c>
@@ -3163,7 +3169,7 @@
         <v>0.81257781817558183</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I29" s="11" t="s">
         <v>14</v>
       </c>
@@ -3184,7 +3190,7 @@
         <v>0.82701469755955337</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I30" s="11" t="s">
         <v>14</v>
       </c>
@@ -3205,7 +3211,7 @@
         <v>0.83265705122708333</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I31" s="11" t="s">
         <v>14</v>
       </c>
@@ -3226,7 +3232,7 @@
         <v>0.83645406369514141</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I32" s="11" t="s">
         <v>14</v>
       </c>
@@ -3247,7 +3253,7 @@
         <v>0.84202095731362225</v>
       </c>
     </row>
-    <row r="33" spans="9:14">
+    <row r="33" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I33" s="11" t="s">
         <v>14</v>
       </c>
@@ -3268,7 +3274,7 @@
         <v>0.84278241780857155</v>
       </c>
     </row>
-    <row r="34" spans="9:14">
+    <row r="34" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I34" s="11" t="s">
         <v>14</v>
       </c>
@@ -3289,14 +3295,14 @@
         <v>0.86302286096485958</v>
       </c>
     </row>
-    <row r="35" spans="9:14">
+    <row r="35" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I35" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J35" s="55">
+      <c r="J35" s="54">
         <v>45169</v>
       </c>
-      <c r="K35" s="54" t="s">
+      <c r="K35" s="53" t="s">
         <v>92</v>
       </c>
       <c r="L35" s="50">
@@ -3308,6 +3314,27 @@
       <c r="N35" s="51">
         <f>IF(ROW()&gt;2,($M$2-M35)/$M$2,"NA")</f>
         <v>0.87394055806136273</v>
+      </c>
+    </row>
+    <row r="36" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I36" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="52">
+        <v>45183</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="L36" s="50">
+        <v>2365.41</v>
+      </c>
+      <c r="M36" s="50">
+        <v>33735</v>
+      </c>
+      <c r="N36" s="51">
+        <f>IF(ROW()&gt;2,($M$2-M36)/$M$2,"NA")</f>
+        <v>0.88428887478776863</v>
       </c>
     </row>
   </sheetData>
@@ -3321,14 +3348,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -3347,7 +3374,7 @@
     <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
@@ -3394,7 +3421,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
@@ -3444,7 +3471,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
@@ -3483,7 +3510,7 @@
         <v>0.26963198966370328</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
@@ -3517,7 +3544,7 @@
         <v>0.53405545481907812</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
@@ -3551,7 +3578,7 @@
         <v>0.69729259501244323</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
@@ -3585,7 +3612,7 @@
         <v>0.76775633355111994</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M7" s="7" t="s">
         <v>6</v>
       </c>
@@ -3603,7 +3630,7 @@
         <v>0.751895844192073</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M8" s="7" t="s">
         <v>6</v>
       </c>
@@ -3621,7 +3648,7 @@
         <v>0.78548880846284297</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M9" s="7" t="s">
         <v>6</v>
       </c>
@@ -3650,14 +3677,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.28515625" customWidth="1"/>
@@ -3666,17 +3693,17 @@
     <col min="5" max="5" width="62.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="D1" s="53" t="s">
+      <c r="B1" s="55"/>
+      <c r="D1" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="53"/>
-    </row>
-    <row r="2" spans="1:5" ht="33.75">
+      <c r="E1" s="55"/>
+    </row>
+    <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="38" t="s">
         <v>40</v>
       </c>
@@ -3691,7 +3718,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>33</v>
       </c>
@@ -3703,7 +3730,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>34</v>
       </c>
@@ -3713,7 +3740,7 @@
       </c>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>35</v>
       </c>
@@ -3721,7 +3748,7 @@
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>36</v>
       </c>
@@ -3729,7 +3756,7 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:5" ht="45">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>75</v>
       </c>
@@ -3739,60 +3766,60 @@
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="1:5" ht="33.75">
+    <row r="17" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A17" s="38" t="s">
         <v>4</v>
       </c>
@@ -3807,7 +3834,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>77</v>
       </c>
@@ -3815,7 +3842,7 @@
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="1:5" ht="30">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>80</v>
       </c>
@@ -3825,7 +3852,7 @@
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>78</v>
       </c>
@@ -3833,73 +3860,73 @@
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="D32" s="22"/>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E675FA-D739-4F90-A3B5-9B187F230DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D83B51-685A-43A9-9652-6FD54F3D7EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Math &amp; Algorithms" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="95">
   <si>
     <t>Rank</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>21% (118/563 challenges solved)</t>
+  </si>
+  <si>
+    <t>21% (119/563 challenges solved)</t>
   </si>
 </sst>
 </file>
@@ -630,10 +633,10 @@
     <xf numFmtId="15" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1892,8 +1895,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="I1:N36" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
-  <autoFilter ref="I1:N36" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="I1:N37" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="I1:N37" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="32"/>
@@ -2253,10 +2256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3317,7 +3320,7 @@
       </c>
     </row>
     <row r="36" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I36" s="56" t="s">
+      <c r="I36" s="55" t="s">
         <v>14</v>
       </c>
       <c r="J36" s="52">
@@ -3335,6 +3338,27 @@
       <c r="N36" s="51">
         <f>IF(ROW()&gt;2,($M$2-M36)/$M$2,"NA")</f>
         <v>0.88428887478776863</v>
+      </c>
+    </row>
+    <row r="37" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I37" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="52">
+        <v>45185</v>
+      </c>
+      <c r="K37" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="L37" s="50">
+        <v>2395.41</v>
+      </c>
+      <c r="M37" s="50">
+        <v>32533</v>
+      </c>
+      <c r="N37" s="51">
+        <f>IF(ROW()&gt;2,($M$2-M37)/$M$2,"NA")</f>
+        <v>0.88841173746762936</v>
       </c>
     </row>
   </sheetData>
@@ -3694,14 +3718,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="D1" s="55" t="s">
+      <c r="B1" s="56"/>
+      <c r="D1" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="55"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="38" t="s">

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D83B51-685A-43A9-9652-6FD54F3D7EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CB1160-3905-425B-BEE7-8689F1944936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="96">
   <si>
     <t>Rank</t>
   </si>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t>21% (119/563 challenges solved)</t>
+  </si>
+  <si>
+    <t>21% (120/563 challenges solved)</t>
   </si>
 </sst>
 </file>
@@ -1895,8 +1898,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="I1:N37" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
-  <autoFilter ref="I1:N37" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="I1:N38" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="I1:N38" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="32"/>
@@ -2256,10 +2259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3359,6 +3362,27 @@
       <c r="N37" s="51">
         <f>IF(ROW()&gt;2,($M$2-M37)/$M$2,"NA")</f>
         <v>0.88841173746762936</v>
+      </c>
+    </row>
+    <row r="38" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I38" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" s="52">
+        <v>45188</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="L38" s="50">
+        <v>2415.41</v>
+      </c>
+      <c r="M38" s="50">
+        <v>31805</v>
+      </c>
+      <c r="N38" s="51">
+        <f>IF(ROW()&gt;2,($M$2-M38)/$M$2,"NA")</f>
+        <v>0.89090877909070643</v>
       </c>
     </row>
   </sheetData>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Osama\!Math &amp; Algorithms\HackerRank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CB1160-3905-425B-BEE7-8689F1944936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EF5C65-B0A2-45EF-8765-EA5E7400475F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Math &amp; Algorithms" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="97">
   <si>
     <t>Rank</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>21% (120/563 challenges solved)</t>
+  </si>
+  <si>
+    <t>21% (121/563 challenges solved)</t>
   </si>
 </sst>
 </file>
@@ -1898,8 +1901,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="I1:N38" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
-  <autoFilter ref="I1:N38" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="I1:N39" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="I1:N39" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="32"/>
@@ -2259,10 +2262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3383,6 +3386,27 @@
       <c r="N38" s="51">
         <f>IF(ROW()&gt;2,($M$2-M38)/$M$2,"NA")</f>
         <v>0.89090877909070643</v>
+      </c>
+    </row>
+    <row r="39" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I39" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="52">
+        <v>45207</v>
+      </c>
+      <c r="K39" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="L39" s="50">
+        <v>2463.54</v>
+      </c>
+      <c r="M39" s="50">
+        <v>30188</v>
+      </c>
+      <c r="N39" s="51">
+        <f>IF(ROW()&gt;2,($M$2-M39)/$M$2,"NA")</f>
+        <v>0.89645509269581025</v>
       </c>
     </row>
   </sheetData>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Osama\!Math &amp; Algorithms\HackerRank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EF5C65-B0A2-45EF-8765-EA5E7400475F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977846AF-AF1E-47B2-AF48-2177ECE631FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Math &amp; Algorithms" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="98">
   <si>
     <t>Rank</t>
   </si>
@@ -330,6 +330,20 @@
   </si>
   <si>
     <t>21% (121/563 challenges solved)</t>
+  </si>
+  <si>
+    <r>
+      <t>22%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF738F93"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (122/563 challenges solved)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -339,7 +353,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +427,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF738F93"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1901,8 +1921,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="I1:N39" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
-  <autoFilter ref="I1:N39" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="I1:N40" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="I1:N40" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="32"/>
@@ -2262,10 +2282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3407,6 +3427,27 @@
       <c r="N39" s="51">
         <f>IF(ROW()&gt;2,($M$2-M39)/$M$2,"NA")</f>
         <v>0.89645509269581025</v>
+      </c>
+    </row>
+    <row r="40" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I40" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" s="52">
+        <v>45214</v>
+      </c>
+      <c r="K40" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="L40" s="50">
+        <v>2468.54</v>
+      </c>
+      <c r="M40" s="50">
+        <v>30042</v>
+      </c>
+      <c r="N40" s="51">
+        <f>IF(ROW()&gt;2,($M$2-M40)/$M$2,"NA")</f>
+        <v>0.89695587302131752</v>
       </c>
     </row>
   </sheetData>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Osama\!Math &amp; Algorithms\HackerRank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977846AF-AF1E-47B2-AF48-2177ECE631FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A39DD4F-E542-4CB3-BD7D-CC7CF02D1C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="99">
   <si>
     <t>Rank</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>21% (121/563 challenges solved)</t>
+  </si>
+  <si>
+    <t>22% (123/563 challenges solved)</t>
   </si>
   <si>
     <r>
@@ -338,7 +341,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF738F93"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -430,7 +432,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF738F93"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -670,636 +671,6 @@
   </cellStyles>
   <dxfs count="50">
     <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
       <fill>
         <patternFill patternType="none">
@@ -1507,6 +878,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1529,13 +907,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1557,6 +928,636 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
@@ -1921,15 +1922,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="I1:N40" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
-  <autoFilter ref="I1:N40" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="I1:N41" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+  <autoFilter ref="I1:N41" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Column1" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Points" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Rank" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Progress" dataDxfId="28" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Column1" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Points" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Rank" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Progress" dataDxfId="0" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(ROW()&gt;2,($M$2-M2)/$M$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1938,14 +1939,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
   <autoFilter ref="A1:E6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Date" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Points" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Rank" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Progress" dataDxfId="19" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Date" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Points" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Rank" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Progress" dataDxfId="30" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(ROW()&gt;21,($D$2-D2)/$D$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1954,14 +1955,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table26" displayName="Table26" ref="G1:K3" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table26" displayName="Table26" ref="G1:K3" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <autoFilter ref="G1:K3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Date" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Points" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Rank" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Progress" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Date" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Points" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Rank" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Progress" dataDxfId="21">
       <calculatedColumnFormula>IF(ROW()&gt;21,($J$2-J2)/$J$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1970,14 +1971,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table3" displayName="Table3" ref="M1:Q9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table3" displayName="Table3" ref="M1:Q9" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <autoFilter ref="M1:Q9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Category" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Date" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Points" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Rank" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Progress" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Category" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Date" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Points" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Rank" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Progress" dataDxfId="11">
       <calculatedColumnFormula>IF(ROW()&gt;2,($P$2-P2)/$P$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2282,10 +2283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3341,7 +3342,7 @@
         <v>36752</v>
       </c>
       <c r="N35" s="51">
-        <f>IF(ROW()&gt;2,($M$2-M35)/$M$2,"NA")</f>
+        <f t="shared" ref="N35:N40" si="6">IF(ROW()&gt;2,($M$2-M35)/$M$2,"NA")</f>
         <v>0.87394055806136273</v>
       </c>
     </row>
@@ -3362,7 +3363,7 @@
         <v>33735</v>
       </c>
       <c r="N36" s="51">
-        <f>IF(ROW()&gt;2,($M$2-M36)/$M$2,"NA")</f>
+        <f t="shared" si="6"/>
         <v>0.88428887478776863</v>
       </c>
     </row>
@@ -3383,7 +3384,7 @@
         <v>32533</v>
       </c>
       <c r="N37" s="51">
-        <f>IF(ROW()&gt;2,($M$2-M37)/$M$2,"NA")</f>
+        <f t="shared" si="6"/>
         <v>0.88841173746762936</v>
       </c>
     </row>
@@ -3404,7 +3405,7 @@
         <v>31805</v>
       </c>
       <c r="N38" s="51">
-        <f>IF(ROW()&gt;2,($M$2-M38)/$M$2,"NA")</f>
+        <f t="shared" si="6"/>
         <v>0.89090877909070643</v>
       </c>
     </row>
@@ -3425,7 +3426,7 @@
         <v>30188</v>
       </c>
       <c r="N39" s="51">
-        <f>IF(ROW()&gt;2,($M$2-M39)/$M$2,"NA")</f>
+        <f t="shared" si="6"/>
         <v>0.89645509269581025</v>
       </c>
     </row>
@@ -3437,7 +3438,7 @@
         <v>45214</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L40" s="50">
         <v>2468.54</v>
@@ -3446,8 +3447,29 @@
         <v>30042</v>
       </c>
       <c r="N40" s="51">
-        <f>IF(ROW()&gt;2,($M$2-M40)/$M$2,"NA")</f>
+        <f t="shared" si="6"/>
         <v>0.89695587302131752</v>
+      </c>
+    </row>
+    <row r="41" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I41" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="52">
+        <v>45215</v>
+      </c>
+      <c r="K41" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="L41" s="50">
+        <v>2481.48</v>
+      </c>
+      <c r="M41" s="50">
+        <v>29655</v>
+      </c>
+      <c r="N41" s="51">
+        <f>IF(ROW()&gt;2,($M$2-M41)/$M$2,"NA")</f>
+        <v>0.89828328388413448</v>
       </c>
     </row>
   </sheetData>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Osama\!Math &amp; Algorithms\HackerRank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A39DD4F-E542-4CB3-BD7D-CC7CF02D1C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E62434-82C7-485E-A8E4-3554E971F5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="100">
   <si>
     <t>Rank</t>
   </si>
@@ -346,6 +346,9 @@
       </rPr>
       <t> (122/563 challenges solved)</t>
     </r>
+  </si>
+  <si>
+    <t>22% (124/563 challenges solved)</t>
   </si>
 </sst>
 </file>
@@ -671,6 +674,636 @@
   </cellStyles>
   <dxfs count="50">
     <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
       <fill>
         <patternFill patternType="none">
@@ -878,13 +1511,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -907,6 +1533,13 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -928,636 +1561,6 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
@@ -1922,15 +1925,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="I1:N41" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
-  <autoFilter ref="I1:N41" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="I1:N42" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="I1:N42" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Column1" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Points" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Rank" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Progress" dataDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Column1" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Points" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Rank" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Progress" dataDxfId="28" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(ROW()&gt;2,($M$2-M2)/$M$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1939,14 +1942,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
   <autoFilter ref="A1:E6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Date" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Points" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Rank" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Progress" dataDxfId="30" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Date" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Points" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Rank" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Progress" dataDxfId="19" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(ROW()&gt;21,($D$2-D2)/$D$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1955,14 +1958,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table26" displayName="Table26" ref="G1:K3" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table26" displayName="Table26" ref="G1:K3" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="G1:K3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Date" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Points" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Rank" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Progress" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Date" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Points" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Rank" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Progress" dataDxfId="10">
       <calculatedColumnFormula>IF(ROW()&gt;21,($J$2-J2)/$J$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1971,14 +1974,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table3" displayName="Table3" ref="M1:Q9" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table3" displayName="Table3" ref="M1:Q9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="M1:Q9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Category" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Date" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Points" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Rank" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Progress" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Category" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Date" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Points" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Rank" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Progress" dataDxfId="0">
       <calculatedColumnFormula>IF(ROW()&gt;2,($P$2-P2)/$P$2,"NA")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2283,10 +2286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3470,6 +3473,27 @@
       <c r="N41" s="51">
         <f>IF(ROW()&gt;2,($M$2-M41)/$M$2,"NA")</f>
         <v>0.89828328388413448</v>
+      </c>
+    </row>
+    <row r="42" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I42" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="52">
+        <v>45220</v>
+      </c>
+      <c r="K42" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="L42" s="50">
+        <v>2536.48</v>
+      </c>
+      <c r="M42" s="50">
+        <v>27983</v>
+      </c>
+      <c r="N42" s="51">
+        <f>IF(ROW()&gt;2,($M$2-M42)/$M$2,"NA")</f>
+        <v>0.90401824761186089</v>
       </c>
     </row>
   </sheetData>

--- a/!HACKERRANK - PROGRESS.xlsx
+++ b/!HACKERRANK - PROGRESS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaSafyKarineJoyce\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E62434-82C7-485E-A8E4-3554E971F5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B533FE14-88CA-480B-8D3D-84AD4E7C641C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="101">
   <si>
     <t>Rank</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>22% (124/563 challenges solved)</t>
+  </si>
+  <si>
+    <t>22% (125/563 challenges solved)</t>
   </si>
 </sst>
 </file>
@@ -1925,8 +1928,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="I1:N42" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
-  <autoFilter ref="I1:N42" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="I1:N43" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="I1:N43" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="32"/>
@@ -2286,10 +2289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2305,7 +2308,7 @@
     <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.7109375" customWidth="1"/>
     <col min="16" max="16" width="43.42578125" bestFit="1" customWidth="1"/>
@@ -3494,6 +3497,27 @@
       <c r="N42" s="51">
         <f>IF(ROW()&gt;2,($M$2-M42)/$M$2,"NA")</f>
         <v>0.90401824761186089</v>
+      </c>
+    </row>
+    <row r="43" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I43" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="52">
+        <v>45249</v>
+      </c>
+      <c r="K43" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="L43" s="50">
+        <v>2601.48</v>
+      </c>
+      <c r="M43" s="50">
+        <v>26312</v>
+      </c>
+      <c r="N43" s="51">
+        <f>IF(ROW()&gt;2,($M$2-M43)/$M$2,"NA")</f>
+        <v>0.90974978133735784</v>
       </c>
     </row>
   </sheetData>
